--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -10,11 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="23">
   <si>
     <t>seed</t>
     <phoneticPr fontId="2"/>
@@ -206,6 +207,30 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>85点取れたやつ</t>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>境界+60回転</t>
+    <rPh sb="0" eb="2">
+      <t>キョウカイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フル</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -273,10 +298,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -296,6 +321,2972 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3738989546118513"/>
+          <c:y val="3.1711968289458568E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AU$4:$AU$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>974999.31874072505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>702951.40294810105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>199659.05128632201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>961676.01092088898</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>542721.53608709795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>842610.79692528001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>528895.01018996094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>229774.637392529</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>583054.90190961096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>186140.66746803201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>293777.28578156099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>276678.97935324302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>915708.617294683</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>202347.23864400701</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>784897.681132367</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>214868.823728788</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>443136.192342486</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>318945.67837737303</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>418604.05411162699</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>578533.11318467394</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>286287.93013192399</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>251868.77236220101</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>769285.82973880204</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>221687.792947223</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>226551.781903311</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>304695.28352165502</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>305794.77585940203</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>411628.99863467901</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>905128.70111040794</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>786173.84631403699</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>296578.470041111</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>464671.59005944402</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>446493.48899528</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>231291.13255921201</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>508230.51571811503</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>241072.96368025601</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>642624.27327979205</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>573211.68742639502</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>429889.56714345398</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>749557.88909472304</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>965817.41013456997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>251819.84571623799</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>349450.95242058102</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>479375.29247744899</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>910630.71557373402</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>628221.92796200805</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>563727.30727381306</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>432468.07490049402</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>593263.46429457096</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>480007.391837075</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>342225.02305873198</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>490491.258437682</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>224346.33384300501</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>313053.54979042697</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>309957.87769363599</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>525506.190307796</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>337811.78736788401</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>565205.65954586503</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>797707.938264244</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>469530.52397631301</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>488630.936141496</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>914161.85146596504</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>468189.14529816201</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>234690.05754082999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>643408.10656805302</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>290229.93485004798</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>588412.28067220503</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>520562.59625164099</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>375063.55591200502</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>575236.71305925399</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>863135.38457284099</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>769027.03926233295</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>428027.97922372102</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>207973.18062556701</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>520596.85893879499</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>257376.26584104999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>189871.93962344201</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>398931.77066486701</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>313584.49741819699</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>393095.20860737999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>512342.28048805799</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>370305.72132862202</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>701326.25262774399</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>935341.53670591302</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>583716.122759889</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>485570.53629611799</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>355842.66358177498</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>425611.18116835499</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>325948.05827150802</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>473680.81378605001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>470107.48604639102</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>248185.728178869</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>405309.16583548201</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>169704.30203394199</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>375573.871451238</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>554929.80328272597</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>265784.423444307</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>682544.18982726894</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>662240.15243325999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>233189.903440961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="181617744"/>
+        <c:axId val="181618136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="181617744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="181618136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="181618136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="181617744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$BF$4:$BF$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.99999146907258485</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99973951760984725</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0459524756834919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0000328403940824</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0023068732718354</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0000468833459761</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.024037168498283</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0798973062825576</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0202428152530656</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1147817885932387</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1175885654832205</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0082812005407742</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.000030529394925</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0663516948429896</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99709301790885485</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0358445224934596</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9888977715517534</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0074440935595266</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0306727514104161</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99108524351486504</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0844273521070733</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0560615752811306</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0006184998403924</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.024496257361212</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99468661347237364</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.038233970306685</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0378563965334799</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0312832153265525</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.99767202648388886</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.9997278198031071</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.99473588837642668</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.99769984045341242</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.98079407392980522</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.99236225741947792</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.99682219435205954</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.0962137846329196</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0115885341398745</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0041184915185517</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.99768136084384662</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0000313322556509</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.98313731540466476</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.97244519777802152</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0133985487748951</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.99998167624621503</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.99387482054856646</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.0056462302861706</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9994657089504555</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.0099918945600881</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0153580932584014</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0428894760985965</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.99892983429858462</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0088479324252688</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0287045785682294</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.0348931688681422</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.007703528064726</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.040668601413582</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.0048783148282443</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.0001032196548847</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.0023238729286534</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.00028547477033</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.000570290037559</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.0224312275814063</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0539178725032883</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.99636443526068008</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.0031783450252327</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.99321933244754734</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.011567307925314</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.0442359810305339</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.00190757324997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.0002322776384192</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.0000598434887986</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.99513022170527865</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.0282953876874625</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.0078929584194627</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.06951790650084</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.0346868329648762</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.0107400614368913</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.0899071433771828</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.0305731257791626</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.0086114718844048</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.0163316918977827</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.99670473445157559</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.99999707842219643</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.0106115461519192</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.0238483826567808</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.0031577908294678</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.98600723471100427</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.0386424369947231</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.0232581651513524</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9998800573900879</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.0927283679164967</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.0198094042159611</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.0631717664582676</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.0033903942518032</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.99294366173811821</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.0086226254380104</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.99958211074768955</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.0056813817663406</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.0086100377794054</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="485345360"/>
+        <c:axId val="485344968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="485345360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485344968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="485344968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485345360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>530087</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>24019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>289891</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>158197</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -585,10 +3576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CP103"/>
+  <dimension ref="A1:CL103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AT11" sqref="AT11"/>
+    <sheetView tabSelected="1" topLeftCell="AX88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BE15" sqref="BE15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -599,17 +3590,17 @@
     <col min="30" max="30" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="6" t="s">
         <v>9</v>
       </c>
@@ -650,8 +3641,20 @@
       <c r="AP1" t="s">
         <v>19</v>
       </c>
+      <c r="AT1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:94" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -918,20 +3921,8 @@
       <c r="CL2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="CM2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="CN2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="CO2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="CP2" s="3" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:94" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -956,7 +3947,7 @@
         <f t="shared" si="0"/>
         <v>13610.472561879758</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <f>AVERAGE(H4:H103)/1000000</f>
         <v>9.5791519755389826E-2</v>
       </c>
@@ -964,7 +3955,7 @@
         <f t="shared" si="0"/>
         <v>29845.870710280993</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <f>AVERAGE(J4:J103)/1000000</f>
         <v>0.22019607129735005</v>
       </c>
@@ -972,337 +3963,321 @@
         <f>AVERAGE(K4:K103)</f>
         <v>26711.084107038976</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <f>AVERAGE(L4:L103)/1000000</f>
         <v>0.20966778986938059</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" ref="M3" si="1">AVERAGE(M4:M103)</f>
+        <f>AVERAGE(M4:M103)</f>
         <v>26414.364048550822</v>
       </c>
-      <c r="N3" s="5">
-        <f t="shared" ref="N3" si="2">AVERAGE(N4:N103)/1000000</f>
+      <c r="N3" s="4">
+        <f>AVERAGE(N4:N103)/1000000</f>
         <v>0.20239987948995641</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" ref="O3" si="3">AVERAGE(O4:O103)</f>
+        <f>AVERAGE(O4:O103)</f>
         <v>41908.104334230797</v>
       </c>
-      <c r="P3" s="5">
-        <f t="shared" ref="P3" si="4">AVERAGE(P4:P103)/1000000</f>
+      <c r="P3" s="4">
+        <f>AVERAGE(P4:P103)/1000000</f>
         <v>0.24574193530385521</v>
       </c>
       <c r="Q3" s="2">
-        <f t="shared" ref="Q3" si="5">AVERAGE(Q4:Q103)</f>
+        <f>AVERAGE(Q4:Q103)</f>
         <v>46818.340700074157</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="4">
         <f>AVERAGE(R4:R103)/1000000</f>
         <v>0.34550757787958347</v>
       </c>
       <c r="S3" s="2">
-        <f t="shared" ref="S3" si="6">AVERAGE(S4:S103)</f>
+        <f>AVERAGE(S4:S103)</f>
         <v>48003.421492470654</v>
       </c>
-      <c r="T3" s="5">
-        <f t="shared" ref="T3" si="7">AVERAGE(T4:T103)/1000000</f>
+      <c r="T3" s="4">
+        <f>AVERAGE(T4:T103)/1000000</f>
         <v>0.3531406762811139</v>
       </c>
       <c r="U3" s="2">
-        <f t="shared" ref="U3" si="8">AVERAGE(U4:U103)</f>
+        <f>AVERAGE(U4:U103)</f>
         <v>49486.499037100832</v>
       </c>
-      <c r="V3" s="5">
-        <f t="shared" ref="V3" si="9">AVERAGE(V4:V103)/1000000</f>
+      <c r="V3" s="4">
+        <f>AVERAGE(V4:V103)/1000000</f>
         <v>0.36495629212911035</v>
       </c>
       <c r="W3" s="2">
-        <f t="shared" ref="W3" si="10">AVERAGE(W4:W103)</f>
+        <f>AVERAGE(W4:W103)</f>
         <v>57673.192316524393</v>
       </c>
-      <c r="X3" s="5">
-        <f t="shared" ref="X3" si="11">AVERAGE(X4:X103)/1000000</f>
+      <c r="X3" s="4">
+        <f>AVERAGE(X4:X103)/1000000</f>
         <v>0.39825729055721121</v>
       </c>
       <c r="Y3" s="2">
-        <f t="shared" ref="Y3" si="12">AVERAGE(Y4:Y103)</f>
+        <f>AVERAGE(Y4:Y103)</f>
         <v>46572.686198084717</v>
       </c>
-      <c r="Z3" s="5">
-        <f t="shared" ref="Z3" si="13">AVERAGE(Z4:Z103)/1000000</f>
+      <c r="Z3" s="4">
+        <f>AVERAGE(Z4:Z103)/1000000</f>
         <v>0.34349327362586929</v>
       </c>
       <c r="AA3" s="2">
-        <f t="shared" ref="AA3" si="14">AVERAGE(AA4:AA103)</f>
+        <f>AVERAGE(AA4:AA103)</f>
         <v>55994.82103672986</v>
       </c>
-      <c r="AB3" s="5">
-        <f t="shared" ref="AB3" si="15">AVERAGE(AB4:AB103)/1000000</f>
+      <c r="AB3" s="4">
+        <f>AVERAGE(AB4:AB103)/1000000</f>
         <v>0.39862168368199918</v>
       </c>
       <c r="AC3" s="2">
-        <f t="shared" ref="AC3" si="16">AVERAGE(AC4:AC103)</f>
+        <f>AVERAGE(AC4:AC103)</f>
         <v>57158.867810965858</v>
       </c>
-      <c r="AD3" s="5">
-        <f t="shared" ref="AD3" si="17">AVERAGE(AD4:AD103)/1000000</f>
+      <c r="AD3" s="4">
+        <f>AVERAGE(AD4:AD103)/1000000</f>
         <v>0.40591608192007012</v>
       </c>
       <c r="AE3" s="2">
-        <f t="shared" ref="AE3" si="18">AVERAGE(AE4:AE103)</f>
+        <f>AVERAGE(AE4:AE103)</f>
         <v>55969.941848700342</v>
       </c>
-      <c r="AF3" s="5">
-        <f t="shared" ref="AF3" si="19">AVERAGE(AF4:AF103)/1000000</f>
+      <c r="AF3" s="4">
+        <f>AVERAGE(AF4:AF103)/1000000</f>
         <v>0.39849623607657275</v>
       </c>
-      <c r="AG3" s="5"/>
+      <c r="AG3" s="4"/>
       <c r="AH3" s="2">
-        <f t="shared" ref="AH3" si="20">AVERAGE(AH4:AH103)</f>
+        <f>AVERAGE(AH4:AH103)</f>
         <v>53732.041947319478</v>
       </c>
-      <c r="AI3" s="5">
-        <f t="shared" ref="AI3" si="21">AVERAGE(AI4:AI103)/1000000</f>
+      <c r="AI3" s="4">
+        <f>AVERAGE(AI4:AI103)/1000000</f>
         <v>0.39443832254321587</v>
       </c>
       <c r="AJ3" s="2">
-        <f t="shared" ref="AJ3" si="22">AVERAGE(AJ4:AJ103)</f>
+        <f>AVERAGE(AJ4:AJ103)</f>
         <v>56484.428932888724</v>
       </c>
-      <c r="AK3" s="5">
-        <f t="shared" ref="AK3" si="23">AVERAGE(AK4:AK103)/1000000</f>
+      <c r="AK3" s="4">
+        <f>AVERAGE(AK4:AK103)/1000000</f>
         <v>0.40357019525655696</v>
       </c>
       <c r="AL3" s="2">
-        <f t="shared" ref="AL3" si="24">AVERAGE(AL4:AL103)</f>
+        <f>AVERAGE(AL4:AL103)</f>
         <v>62002.561209435728</v>
       </c>
-      <c r="AM3" s="5">
-        <f t="shared" ref="AM3" si="25">AVERAGE(AM4:AM103)/1000000</f>
+      <c r="AM3" s="4">
+        <f>AVERAGE(AM4:AM103)/1000000</f>
         <v>0.41721710624850294</v>
       </c>
       <c r="AN3" s="2">
-        <f t="shared" ref="AN3" si="26">AVERAGE(AN4:AN103)</f>
+        <f>AVERAGE(AN4:AN103)</f>
         <v>65825.473596620883</v>
       </c>
-      <c r="AO3" s="5">
-        <f t="shared" ref="AO3" si="27">AVERAGE(AO4:AO103)/1000000</f>
+      <c r="AO3" s="4">
+        <f>AVERAGE(AO4:AO103)/1000000</f>
         <v>0.43673763878449773</v>
       </c>
       <c r="AP3" s="2">
-        <f t="shared" ref="AP3" si="28">AVERAGE(AP4:AP103)</f>
+        <f>AVERAGE(AP4:AP103)</f>
         <v>68940.754610845717</v>
       </c>
-      <c r="AQ3" s="5">
+      <c r="AQ3" s="4">
         <f>AVERAGE(AQ4:AQ103)/1000000</f>
         <v>0.45951934783076503</v>
       </c>
       <c r="AR3" s="2">
-        <f t="shared" ref="AR3" si="29">AVERAGE(AR4:AR103)</f>
+        <f>AVERAGE(AR4:AR103)</f>
         <v>71235.818790048783</v>
       </c>
-      <c r="AS3" s="5">
+      <c r="AS3" s="4">
         <f>AVERAGE(AS4:AS103)/1000000</f>
         <v>0.46970104724301803</v>
       </c>
-      <c r="AT3" s="2" t="e">
-        <f t="shared" ref="AT3" si="30">AVERAGE(AT4:AT103)</f>
+      <c r="AT3" s="2">
+        <f>AVERAGE(AT4:AT103)</f>
+        <v>72699.318720024195</v>
+      </c>
+      <c r="AU3" s="4">
+        <f>AVERAGE(AU4:AU103)/1000000</f>
+        <v>0.47960784308743221</v>
+      </c>
+      <c r="AV3" s="2">
+        <f>AVERAGE(AV4:AV103)</f>
+        <v>72455.926508571632</v>
+      </c>
+      <c r="AW3" s="4">
+        <f>AVERAGE(AW4:AW103)/1000000</f>
+        <v>0.47334879011592584</v>
+      </c>
+      <c r="AX3" s="2">
+        <f>AVERAGE(AX4:AX103)</f>
+        <v>71495.824029385127</v>
+      </c>
+      <c r="AY3" s="4">
+        <f>AVERAGE(AY4:AY103)/1000000</f>
+        <v>0.46896984846569634</v>
+      </c>
+      <c r="AZ3" s="2">
+        <f>AVERAGE(AZ4:AZ103)</f>
+        <v>94231.65934305414</v>
+      </c>
+      <c r="BA3" s="4">
+        <f>AVERAGE(BA4:BA103)/1000000</f>
+        <v>0.51136937506456825</v>
+      </c>
+      <c r="BB3" s="2">
+        <f>AVERAGE(BB4:BB103)</f>
+        <v>83061.962571381737</v>
+      </c>
+      <c r="BC3" s="4">
+        <f>AVERAGE(BC4:BC103)/1000000</f>
+        <v>0.5232192523872673</v>
+      </c>
+      <c r="BD3" s="2">
+        <f>AVERAGE(BD4:BD103)</f>
+        <v>84953.526536237521</v>
+      </c>
+      <c r="BE3" s="4">
+        <f>AVERAGE(BE4:BE103)/1000000</f>
+        <v>0.52909874330824513</v>
+      </c>
+      <c r="BF3" s="2">
+        <f>AVERAGE(BF4:BF103)</f>
+        <v>1.0172697596578368</v>
+      </c>
+      <c r="BG3" s="4" t="e">
+        <f>AVERAGE(BG4:BG103)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU3" s="5" t="e">
-        <f t="shared" ref="AU3" si="31">AVERAGE(AU4:AU103)/1000000</f>
+      <c r="BH3" s="2" t="e">
+        <f>AVERAGE(BH4:BH103)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AV3" s="2" t="e">
-        <f t="shared" ref="AV3" si="32">AVERAGE(AV4:AV103)</f>
+      <c r="BI3" s="4" t="e">
+        <f>AVERAGE(BI4:BI103)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW3" s="5" t="e">
-        <f t="shared" ref="AW3" si="33">AVERAGE(AW4:AW103)/1000000</f>
+      <c r="BJ3" s="2" t="e">
+        <f>AVERAGE(BJ4:BJ103)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AX3" s="2" t="e">
-        <f t="shared" ref="AX3" si="34">AVERAGE(AX4:AX103)</f>
+      <c r="BK3" s="4" t="e">
+        <f>AVERAGE(BK4:BK103)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AY3" s="5" t="e">
-        <f t="shared" ref="AY3" si="35">AVERAGE(AY4:AY103)/1000000</f>
+      <c r="BL3" s="2" t="e">
+        <f>AVERAGE(BL4:BL103)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AZ3" s="2" t="e">
-        <f t="shared" ref="AZ3" si="36">AVERAGE(AZ4:AZ103)</f>
+      <c r="BM3" s="4" t="e">
+        <f>AVERAGE(BM4:BM103)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BA3" s="5" t="e">
-        <f t="shared" ref="BA3" si="37">AVERAGE(BA4:BA103)/1000000</f>
+      <c r="BN3" s="2" t="e">
+        <f>AVERAGE(BN4:BN103)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BB3" s="2" t="e">
-        <f t="shared" ref="BB3" si="38">AVERAGE(BB4:BB103)</f>
+      <c r="BO3" s="4" t="e">
+        <f>AVERAGE(BO4:BO103)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BC3" s="5" t="e">
-        <f t="shared" ref="BC3" si="39">AVERAGE(BC4:BC103)/1000000</f>
+      <c r="BP3" s="2" t="e">
+        <f>AVERAGE(BP4:BP103)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BD3" s="2" t="e">
-        <f t="shared" ref="BD3" si="40">AVERAGE(BD4:BD103)</f>
+      <c r="BQ3" s="4" t="e">
+        <f>AVERAGE(BQ4:BQ103)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BE3" s="5" t="e">
-        <f t="shared" ref="BE3" si="41">AVERAGE(BE4:BE103)/1000000</f>
+      <c r="BR3" s="2" t="e">
+        <f>AVERAGE(BR4:BR103)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BF3" s="2" t="e">
-        <f t="shared" ref="BF3" si="42">AVERAGE(BF4:BF103)</f>
+      <c r="BS3" s="4" t="e">
+        <f>AVERAGE(BS4:BS103)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BG3" s="5" t="e">
-        <f t="shared" ref="BG3" si="43">AVERAGE(BG4:BG103)/1000000</f>
+      <c r="BT3" s="2" t="e">
+        <f>AVERAGE(BT4:BT103)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BH3" s="2" t="e">
-        <f t="shared" ref="BH3" si="44">AVERAGE(BH4:BH103)</f>
+      <c r="BU3" s="4" t="e">
+        <f>AVERAGE(BU4:BU103)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BI3" s="5" t="e">
-        <f t="shared" ref="BI3" si="45">AVERAGE(BI4:BI103)/1000000</f>
+      <c r="BV3" s="2" t="e">
+        <f>AVERAGE(BV4:BV103)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BJ3" s="2" t="e">
-        <f t="shared" ref="BJ3" si="46">AVERAGE(BJ4:BJ103)</f>
+      <c r="BW3" s="4" t="e">
+        <f>AVERAGE(BW4:BW103)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK3" s="5" t="e">
-        <f t="shared" ref="BK3" si="47">AVERAGE(BK4:BK103)/1000000</f>
+      <c r="BX3" s="2" t="e">
+        <f>AVERAGE(BX4:BX103)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BL3" s="2" t="e">
-        <f t="shared" ref="BL3" si="48">AVERAGE(BL4:BL103)</f>
+      <c r="BY3" s="4" t="e">
+        <f>AVERAGE(BY4:BY103)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BM3" s="5" t="e">
-        <f t="shared" ref="BM3" si="49">AVERAGE(BM4:BM103)/1000000</f>
+      <c r="BZ3" s="2" t="e">
+        <f>AVERAGE(BZ4:BZ103)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BN3" s="2" t="e">
-        <f t="shared" ref="BN3" si="50">AVERAGE(BN4:BN103)</f>
+      <c r="CA3" s="4" t="e">
+        <f>AVERAGE(CA4:CA103)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BO3" s="5" t="e">
-        <f t="shared" ref="BO3" si="51">AVERAGE(BO4:BO103)/1000000</f>
+      <c r="CB3" s="2" t="e">
+        <f>AVERAGE(CB4:CB103)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BP3" s="2" t="e">
-        <f t="shared" ref="BP3" si="52">AVERAGE(BP4:BP103)</f>
+      <c r="CC3" s="4" t="e">
+        <f>AVERAGE(CC4:CC103)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BQ3" s="5" t="e">
-        <f t="shared" ref="BQ3" si="53">AVERAGE(BQ4:BQ103)/1000000</f>
+      <c r="CD3" s="2" t="e">
+        <f>AVERAGE(CD4:CD103)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BR3" s="2" t="e">
-        <f t="shared" ref="BR3" si="54">AVERAGE(BR4:BR103)</f>
+      <c r="CE3" s="4" t="e">
+        <f>AVERAGE(CE4:CE103)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BS3" s="5" t="e">
-        <f t="shared" ref="BS3" si="55">AVERAGE(BS4:BS103)/1000000</f>
+      <c r="CF3" s="2" t="e">
+        <f>AVERAGE(CF4:CF103)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BT3" s="2" t="e">
-        <f t="shared" ref="BT3" si="56">AVERAGE(BT4:BT103)</f>
+      <c r="CG3" s="4" t="e">
+        <f>AVERAGE(CG4:CG103)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BU3" s="5" t="e">
-        <f t="shared" ref="BU3" si="57">AVERAGE(BU4:BU103)/1000000</f>
+      <c r="CH3" s="2" t="e">
+        <f>AVERAGE(CH4:CH103)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BV3" s="2" t="e">
-        <f t="shared" ref="BV3" si="58">AVERAGE(BV4:BV103)</f>
+      <c r="CI3" s="4" t="e">
+        <f>AVERAGE(CI4:CI103)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BW3" s="5" t="e">
-        <f t="shared" ref="BW3" si="59">AVERAGE(BW4:BW103)/1000000</f>
+      <c r="CJ3" s="2" t="e">
+        <f>AVERAGE(CJ4:CJ103)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BX3" s="2" t="e">
-        <f t="shared" ref="BX3" si="60">AVERAGE(BX4:BX103)</f>
+      <c r="CK3" s="4" t="e">
+        <f>AVERAGE(CK4:CK103)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BY3" s="5" t="e">
-        <f t="shared" ref="BY3" si="61">AVERAGE(BY4:BY103)/1000000</f>
+      <c r="CL3" s="2" t="e">
+        <f>AVERAGE(CL4:CL103)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BZ3" s="2" t="e">
-        <f t="shared" ref="BZ3" si="62">AVERAGE(BZ4:BZ103)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CA3" s="5" t="e">
-        <f t="shared" ref="CA3" si="63">AVERAGE(CA4:CA103)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CB3" s="2" t="e">
-        <f t="shared" ref="CB3" si="64">AVERAGE(CB4:CB103)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CC3" s="5" t="e">
-        <f t="shared" ref="CC3" si="65">AVERAGE(CC4:CC103)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CD3" s="2" t="e">
-        <f t="shared" ref="CD3" si="66">AVERAGE(CD4:CD103)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CE3" s="5" t="e">
-        <f t="shared" ref="CE3" si="67">AVERAGE(CE4:CE103)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CF3" s="2" t="e">
-        <f t="shared" ref="CF3" si="68">AVERAGE(CF4:CF103)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CG3" s="5" t="e">
-        <f t="shared" ref="CG3" si="69">AVERAGE(CG4:CG103)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH3" s="2" t="e">
-        <f t="shared" ref="CH3" si="70">AVERAGE(CH4:CH103)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CI3" s="5" t="e">
-        <f t="shared" ref="CI3" si="71">AVERAGE(CI4:CI103)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CJ3" s="2" t="e">
-        <f t="shared" ref="CJ3" si="72">AVERAGE(CJ4:CJ103)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CK3" s="5" t="e">
-        <f t="shared" ref="CK3" si="73">AVERAGE(CK4:CK103)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CL3" s="2" t="e">
-        <f t="shared" ref="CL3" si="74">AVERAGE(CL4:CL103)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CM3" s="5" t="e">
-        <f t="shared" ref="CM3" si="75">AVERAGE(CM4:CM103)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CN3" s="2" t="e">
-        <f t="shared" ref="CN3" si="76">AVERAGE(CN4:CN103)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CO3" s="5" t="e">
-        <f t="shared" ref="CO3" si="77">AVERAGE(CO4:CO103)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CP3" s="2" t="e">
-        <f t="shared" ref="CP3" si="78">AVERAGE(CP4:CP103)</f>
-        <v>#DIV/0!</v>
-      </c>
     </row>
-    <row r="4" spans="1:94" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2">
         <v>1</v>
@@ -1437,8 +4412,48 @@
       <c r="AS4">
         <v>972279.420524252</v>
       </c>
+      <c r="AT4">
+        <v>5148.4322334690596</v>
+      </c>
+      <c r="AU4">
+        <v>974999.31874072505</v>
+      </c>
+      <c r="AV4">
+        <v>5134.5933177659799</v>
+      </c>
+      <c r="AW4">
+        <v>972378.53385500796</v>
+      </c>
+      <c r="AX4">
+        <v>5133.2030634493203</v>
+      </c>
+      <c r="AY4">
+        <v>972115.25040285196</v>
+      </c>
+      <c r="AZ4">
+        <v>5148.5163695248802</v>
+      </c>
+      <c r="BA4">
+        <v>975015.25225084706</v>
+      </c>
+      <c r="BB4">
+        <v>5148.6405210845296</v>
+      </c>
+      <c r="BC4">
+        <v>975038.76381331705</v>
+      </c>
+      <c r="BD4">
+        <v>5148.5965984059503</v>
+      </c>
+      <c r="BE4">
+        <v>975030.44582839601</v>
+      </c>
+      <c r="BF4">
+        <f>BE4/BC4</f>
+        <v>0.99999146907258485</v>
+      </c>
     </row>
-    <row r="5" spans="1:94" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2">
         <v>2</v>
@@ -1534,7 +4549,7 @@
         <v>488035.63216158497</v>
       </c>
       <c r="AG5">
-        <f t="shared" ref="AG4:AG8" si="79">AF5/Z5</f>
+        <f>AF5/Z5</f>
         <v>1.2740110824952044</v>
       </c>
       <c r="AH5">
@@ -1573,8 +4588,48 @@
       <c r="AS5">
         <v>697889.18414425</v>
       </c>
+      <c r="AT5">
+        <v>95404.771920372805</v>
+      </c>
+      <c r="AU5">
+        <v>702951.40294810105</v>
+      </c>
+      <c r="AV5">
+        <v>95884.413485543104</v>
+      </c>
+      <c r="AW5">
+        <v>706485.44746560196</v>
+      </c>
+      <c r="AX5">
+        <v>95786.108318204293</v>
+      </c>
+      <c r="AY5">
+        <v>705761.12567428197</v>
+      </c>
+      <c r="AZ5">
+        <v>98254.979954621202</v>
+      </c>
+      <c r="BA5">
+        <v>723952.00591627404</v>
+      </c>
+      <c r="BB5">
+        <v>99237.481971362693</v>
+      </c>
+      <c r="BC5">
+        <v>731191.17390720197</v>
+      </c>
+      <c r="BD5">
+        <v>99211.632354866</v>
+      </c>
+      <c r="BE5">
+        <v>731000.71148256399</v>
+      </c>
+      <c r="BF5">
+        <f t="shared" ref="BF5:BF68" si="1">BE5/BC5</f>
+        <v>0.99973951760984725</v>
+      </c>
     </row>
-    <row r="6" spans="1:94" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2">
         <v>3</v>
@@ -1661,7 +4716,7 @@
         <v>159309.481957721</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="79"/>
+        <f>AF6/Z6</f>
         <v>1.3812000899029462</v>
       </c>
       <c r="AH6">
@@ -1700,8 +4755,48 @@
       <c r="AS6">
         <v>204428.83081705199</v>
       </c>
+      <c r="AT6">
+        <v>106577.41239722801</v>
+      </c>
+      <c r="AU6">
+        <v>199659.05128632201</v>
+      </c>
+      <c r="AV6">
+        <v>111962.27442798601</v>
+      </c>
+      <c r="AW6">
+        <v>209746.896545333</v>
+      </c>
+      <c r="AX6">
+        <v>112740.289141107</v>
+      </c>
+      <c r="AY6">
+        <v>211204.406875285</v>
+      </c>
+      <c r="AZ6">
+        <v>122071.386461769</v>
+      </c>
+      <c r="BA6">
+        <v>228685.01553896599</v>
+      </c>
+      <c r="BB6">
+        <v>135923.26321348199</v>
+      </c>
+      <c r="BC6">
+        <v>254634.722034693</v>
+      </c>
+      <c r="BD6">
+        <v>142169.273661121</v>
+      </c>
+      <c r="BE6">
+        <v>266335.81790716498</v>
+      </c>
+      <c r="BF6">
+        <f t="shared" si="1"/>
+        <v>1.0459524756834919</v>
+      </c>
     </row>
-    <row r="7" spans="1:94" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2">
         <v>4</v>
@@ -1797,7 +4892,7 @@
         <v>942476.99754975794</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="79"/>
+        <f>AF7/Z7</f>
         <v>1.1703627866937649</v>
       </c>
       <c r="AH7">
@@ -1836,8 +4931,48 @@
       <c r="AS7">
         <v>959212.95960474794</v>
       </c>
+      <c r="AT7">
+        <v>55042.087778204303</v>
+      </c>
+      <c r="AU7">
+        <v>961676.01092088898</v>
+      </c>
+      <c r="AV7">
+        <v>54712.025110779003</v>
+      </c>
+      <c r="AW7">
+        <v>955909.27200934</v>
+      </c>
+      <c r="AX7">
+        <v>54708.1135533583</v>
+      </c>
+      <c r="AY7">
+        <v>955840.93065295904</v>
+      </c>
+      <c r="AZ7">
+        <v>55065.031647379903</v>
+      </c>
+      <c r="BA7">
+        <v>962076.878138587</v>
+      </c>
+      <c r="BB7">
+        <v>55070.739345885602</v>
+      </c>
+      <c r="BC7">
+        <v>962176.60104067798</v>
+      </c>
+      <c r="BD7">
+        <v>55072.547890668102</v>
+      </c>
+      <c r="BE7">
+        <v>962208.19929943304</v>
+      </c>
+      <c r="BF7">
+        <f t="shared" si="1"/>
+        <v>1.0000328403940824</v>
+      </c>
     </row>
-    <row r="8" spans="1:94" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2">
         <v>5</v>
@@ -1933,7 +5068,7 @@
         <v>459739.074290246</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="79"/>
+        <f>AF8/Z8</f>
         <v>1.0905524402027309</v>
       </c>
       <c r="AH8">
@@ -1972,8 +5107,48 @@
       <c r="AS8">
         <v>543624.10029562702</v>
       </c>
+      <c r="AT8">
+        <v>65980.574994420298</v>
+      </c>
+      <c r="AU8">
+        <v>542721.53608709795</v>
+      </c>
+      <c r="AV8">
+        <v>64681.882550239701</v>
+      </c>
+      <c r="AW8">
+        <v>532039.17452432006</v>
+      </c>
+      <c r="AX8">
+        <v>62588.877556073603</v>
+      </c>
+      <c r="AY8">
+        <v>514823.21534894401</v>
+      </c>
+      <c r="AZ8">
+        <v>69921.674294092605</v>
+      </c>
+      <c r="BA8">
+        <v>575138.94781730603</v>
+      </c>
+      <c r="BB8">
+        <v>70170.518032894106</v>
+      </c>
+      <c r="BC8">
+        <v>577185.80564143695</v>
+      </c>
+      <c r="BD8">
+        <v>70332.392525414994</v>
+      </c>
+      <c r="BE8">
+        <v>578517.30014935404</v>
+      </c>
+      <c r="BF8">
+        <f t="shared" si="1"/>
+        <v>1.0023068732718354</v>
+      </c>
     </row>
-    <row r="9" spans="1:94" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2">
         <v>6</v>
@@ -2069,7 +5244,7 @@
         <v>826720.32474368298</v>
       </c>
       <c r="AG9">
-        <f t="shared" ref="AG9:AG72" si="80">AF9/Z9</f>
+        <f t="shared" ref="AG9:AG72" si="2">AF9/Z9</f>
         <v>1.0126252659302681</v>
       </c>
       <c r="AH9">
@@ -2108,8 +5283,48 @@
       <c r="AS9">
         <v>837936.89618336596</v>
       </c>
+      <c r="AT9">
+        <v>20708.4425191626</v>
+      </c>
+      <c r="AU9">
+        <v>842610.79692528001</v>
+      </c>
+      <c r="AV9">
+        <v>20557.941485724801</v>
+      </c>
+      <c r="AW9">
+        <v>836487.02418835298</v>
+      </c>
+      <c r="AX9">
+        <v>20579.968395288601</v>
+      </c>
+      <c r="AY9">
+        <v>837383.28240787401</v>
+      </c>
+      <c r="AZ9">
+        <v>20754.188417369001</v>
+      </c>
+      <c r="BA9">
+        <v>844472.16277682001</v>
+      </c>
+      <c r="BB9">
+        <v>20764.5670092238</v>
+      </c>
+      <c r="BC9">
+        <v>844894.45979629003</v>
+      </c>
+      <c r="BD9">
+        <v>20765.540521602899</v>
+      </c>
+      <c r="BE9">
+        <v>844934.07127556205</v>
+      </c>
+      <c r="BF9">
+        <f t="shared" si="1"/>
+        <v>1.0000468833459761</v>
+      </c>
     </row>
-    <row r="10" spans="1:94" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2">
         <v>7</v>
@@ -2205,7 +5420,7 @@
         <v>472506.072365281</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.3945802319529774</v>
       </c>
       <c r="AH10">
@@ -2244,8 +5459,48 @@
       <c r="AS10">
         <v>517748.83024875098</v>
       </c>
+      <c r="AT10">
+        <v>98571.420726371696</v>
+      </c>
+      <c r="AU10">
+        <v>528895.01018996094</v>
+      </c>
+      <c r="AV10">
+        <v>98055.182804475102</v>
+      </c>
+      <c r="AW10">
+        <v>526125.08297424298</v>
+      </c>
+      <c r="AX10">
+        <v>97159.129458944997</v>
+      </c>
+      <c r="AY10">
+        <v>521317.21736956201</v>
+      </c>
+      <c r="AZ10">
+        <v>100529.404275812</v>
+      </c>
+      <c r="BA10">
+        <v>539400.77059903299</v>
+      </c>
+      <c r="BB10">
+        <v>105767.66582943599</v>
+      </c>
+      <c r="BC10">
+        <v>567507.19716127706</v>
+      </c>
+      <c r="BD10">
+        <v>108310.021034648</v>
+      </c>
+      <c r="BE10">
+        <v>581148.46328343102</v>
+      </c>
+      <c r="BF10">
+        <f t="shared" si="1"/>
+        <v>1.024037168498283</v>
+      </c>
     </row>
-    <row r="11" spans="1:94" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2">
         <v>8</v>
@@ -2338,7 +5593,7 @@
         <v>165866.121115449</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.0151495163887287</v>
       </c>
       <c r="AH11">
@@ -2377,8 +5632,48 @@
       <c r="AS11">
         <v>238212.615605506</v>
       </c>
+      <c r="AT11">
+        <v>44275.684414779003</v>
+      </c>
+      <c r="AU11">
+        <v>229774.637392529</v>
+      </c>
+      <c r="AV11">
+        <v>43988.091241428097</v>
+      </c>
+      <c r="AW11">
+        <v>228282.13382094799</v>
+      </c>
+      <c r="AX11">
+        <v>43349.717828617198</v>
+      </c>
+      <c r="AY11">
+        <v>224969.208873803</v>
+      </c>
+      <c r="AZ11">
+        <v>50833.951467902298</v>
+      </c>
+      <c r="BA11">
+        <v>263809.64902414603</v>
+      </c>
+      <c r="BB11">
+        <v>55094.915827115001</v>
+      </c>
+      <c r="BC11">
+        <v>285922.49840234203</v>
+      </c>
+      <c r="BD11">
+        <v>59496.851191565598</v>
+      </c>
+      <c r="BE11">
+        <v>308766.93583026802</v>
+      </c>
+      <c r="BF11">
+        <f t="shared" si="1"/>
+        <v>1.0798973062825576</v>
+      </c>
     </row>
-    <row r="12" spans="1:94" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2">
         <v>9</v>
@@ -2474,7 +5769,7 @@
         <v>487062.372089118</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.062273904181283</v>
       </c>
       <c r="AH12">
@@ -2513,8 +5808,48 @@
       <c r="AS12">
         <v>585559.94406761206</v>
       </c>
+      <c r="AT12">
+        <v>60836.911842141199</v>
+      </c>
+      <c r="AU12">
+        <v>583054.90190961096</v>
+      </c>
+      <c r="AV12">
+        <v>58257.49241775</v>
+      </c>
+      <c r="AW12">
+        <v>558334.00313396996</v>
+      </c>
+      <c r="AX12">
+        <v>58189.5231665998</v>
+      </c>
+      <c r="AY12">
+        <v>557682.592602727</v>
+      </c>
+      <c r="AZ12">
+        <v>63584.599278391099</v>
+      </c>
+      <c r="BA12">
+        <v>609388.46454635297</v>
+      </c>
+      <c r="BB12">
+        <v>64846.892031845302</v>
+      </c>
+      <c r="BC12">
+        <v>621486.152533149</v>
+      </c>
+      <c r="BD12">
+        <v>66159.575686981407</v>
+      </c>
+      <c r="BE12">
+        <v>634066.78190121602</v>
+      </c>
+      <c r="BF12">
+        <f t="shared" si="1"/>
+        <v>1.0202428152530656</v>
+      </c>
     </row>
-    <row r="13" spans="1:94" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2">
         <v>10</v>
@@ -2607,7 +5942,7 @@
         <v>148900.293344976</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.2387227048852822</v>
       </c>
       <c r="AH13">
@@ -2643,8 +5978,48 @@
       <c r="AS13">
         <v>187233.88511030699</v>
       </c>
+      <c r="AT13">
+        <v>100338.78855512499</v>
+      </c>
+      <c r="AU13">
+        <v>186140.66746803201</v>
+      </c>
+      <c r="AV13">
+        <v>106160.634956931</v>
+      </c>
+      <c r="AW13">
+        <v>196940.90126329099</v>
+      </c>
+      <c r="AX13">
+        <v>106784.455131405</v>
+      </c>
+      <c r="AY13">
+        <v>198098.16362741601</v>
+      </c>
+      <c r="AZ13">
+        <v>539048.18286072696</v>
+      </c>
+      <c r="BA13">
+        <v>202832.88056036699</v>
+      </c>
+      <c r="BB13">
+        <v>125603.990265457</v>
+      </c>
+      <c r="BC13">
+        <v>233010.692288911</v>
+      </c>
+      <c r="BD13">
+        <v>140021.040922574</v>
+      </c>
+      <c r="BE13">
+        <v>259756.07631118101</v>
+      </c>
+      <c r="BF13">
+        <f t="shared" si="1"/>
+        <v>1.1147817885932387</v>
+      </c>
     </row>
-    <row r="14" spans="1:94" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2">
         <v>11</v>
@@ -2737,7 +6112,7 @@
         <v>186273.07658626101</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.1916563957369837</v>
       </c>
       <c r="AH14">
@@ -2776,8 +6151,48 @@
       <c r="AS14">
         <v>292606.169813769</v>
       </c>
+      <c r="AT14">
+        <v>109982.530046379</v>
+      </c>
+      <c r="AU14">
+        <v>293777.28578156099</v>
+      </c>
+      <c r="AV14">
+        <v>106239.24556113</v>
+      </c>
+      <c r="AW14">
+        <v>283778.49819665099</v>
+      </c>
+      <c r="AX14">
+        <v>114279.129565564</v>
+      </c>
+      <c r="AY14">
+        <v>305254.04799374501</v>
+      </c>
+      <c r="AZ14">
+        <v>113999.31431098501</v>
+      </c>
+      <c r="BA14">
+        <v>304506.62596248201</v>
+      </c>
+      <c r="BB14">
+        <v>125094.76212933</v>
+      </c>
+      <c r="BC14">
+        <v>334143.97421433602</v>
+      </c>
+      <c r="BD14">
+        <v>139804.47575758299</v>
+      </c>
+      <c r="BE14">
+        <v>373435.48480706202</v>
+      </c>
+      <c r="BF14">
+        <f t="shared" si="1"/>
+        <v>1.1175885654832205</v>
+      </c>
     </row>
-    <row r="15" spans="1:94" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2">
         <v>12</v>
@@ -2870,7 +6285,7 @@
         <v>168928.80473636999</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.3255453105564379</v>
       </c>
       <c r="AH15">
@@ -2909,8 +6324,48 @@
       <c r="AS15">
         <v>267394.25108460698</v>
       </c>
+      <c r="AT15">
+        <v>91661.807688945395</v>
+      </c>
+      <c r="AU15">
+        <v>276678.97935324302</v>
+      </c>
+      <c r="AV15">
+        <v>95823.011156022607</v>
+      </c>
+      <c r="AW15">
+        <v>289239.47272753</v>
+      </c>
+      <c r="AX15">
+        <v>89537.592864131293</v>
+      </c>
+      <c r="AY15">
+        <v>270267.08759074297</v>
+      </c>
+      <c r="AZ15">
+        <v>97304.824639348997</v>
+      </c>
+      <c r="BA15">
+        <v>293712.29136918101</v>
+      </c>
+      <c r="BB15">
+        <v>106856.630891095</v>
+      </c>
+      <c r="BC15">
+        <v>322544.19062302902</v>
+      </c>
+      <c r="BD15">
+        <v>107741.532080616</v>
+      </c>
+      <c r="BE15">
+        <v>325215.24374884</v>
+      </c>
+      <c r="BF15">
+        <f t="shared" si="1"/>
+        <v>1.0082812005407742</v>
+      </c>
     </row>
-    <row r="16" spans="1:94" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2">
         <v>13</v>
@@ -3006,7 +6461,7 @@
         <v>870534.58198327397</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.0319916558442823</v>
       </c>
       <c r="AH16">
@@ -3045,8 +6500,48 @@
       <c r="AS16">
         <v>903923.12250780198</v>
       </c>
+      <c r="AT16">
+        <v>35321.4949618764</v>
+      </c>
+      <c r="AU16">
+        <v>915708.617294683</v>
+      </c>
+      <c r="AV16">
+        <v>35036.619751862199</v>
+      </c>
+      <c r="AW16">
+        <v>908323.23666611395</v>
+      </c>
+      <c r="AX16">
+        <v>35053.430126503597</v>
+      </c>
+      <c r="AY16">
+        <v>908759.04508633097</v>
+      </c>
+      <c r="AZ16">
+        <v>35404.2280895535</v>
+      </c>
+      <c r="BA16">
+        <v>917853.47096046095</v>
+      </c>
+      <c r="BB16">
+        <v>35412.241036555199</v>
+      </c>
+      <c r="BC16">
+        <v>918061.20635295298</v>
+      </c>
+      <c r="BD16">
+        <v>35413.3221508469</v>
+      </c>
+      <c r="BE16">
+        <v>918089.23420608696</v>
+      </c>
+      <c r="BF16">
+        <f t="shared" si="1"/>
+        <v>1.000030529394925</v>
+      </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2">
         <v>14</v>
@@ -3139,7 +6634,7 @@
         <v>146699.718032687</v>
       </c>
       <c r="AG17">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.3169187682907526</v>
       </c>
       <c r="AH17">
@@ -3178,8 +6673,48 @@
       <c r="AS17">
         <v>209024.99146203999</v>
       </c>
+      <c r="AT17">
+        <v>103459.72716190301</v>
+      </c>
+      <c r="AU17">
+        <v>202347.23864400701</v>
+      </c>
+      <c r="AV17">
+        <v>106749.16700833</v>
+      </c>
+      <c r="AW17">
+        <v>196940.90126329099</v>
+      </c>
+      <c r="AX17">
+        <v>103877.846226882</v>
+      </c>
+      <c r="AY17">
+        <v>203164.998757472</v>
+      </c>
+      <c r="AZ17">
+        <v>109195.34330355701</v>
+      </c>
+      <c r="BA17">
+        <v>213564.99573676899</v>
+      </c>
+      <c r="BB17">
+        <v>128905.187618895</v>
+      </c>
+      <c r="BC17">
+        <v>252113.64341559701</v>
+      </c>
+      <c r="BD17">
+        <v>137458.26529146201</v>
+      </c>
+      <c r="BE17">
+        <v>268841.81094926299</v>
+      </c>
+      <c r="BF17">
+        <f t="shared" si="1"/>
+        <v>1.0663516948429896</v>
+      </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2">
         <v>15</v>
@@ -3272,7 +6807,7 @@
         <v>692942.54045833298</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.0692453748582595</v>
       </c>
       <c r="AH18">
@@ -3311,8 +6846,48 @@
       <c r="AS18">
         <v>760322.07591421402</v>
       </c>
+      <c r="AT18">
+        <v>19643.547209878299</v>
+      </c>
+      <c r="AU18">
+        <v>784897.681132367</v>
+      </c>
+      <c r="AV18">
+        <v>18926.5095123018</v>
+      </c>
+      <c r="AW18">
+        <v>756246.98886690801</v>
+      </c>
+      <c r="AX18">
+        <v>18868.724808594401</v>
+      </c>
+      <c r="AY18">
+        <v>753938.08409221203</v>
+      </c>
+      <c r="AZ18">
+        <v>19953.190087515301</v>
+      </c>
+      <c r="BA18">
+        <v>797270.08892815595</v>
+      </c>
+      <c r="BB18">
+        <v>19977.518632188501</v>
+      </c>
+      <c r="BC18">
+        <v>798242.18516389595</v>
+      </c>
+      <c r="BD18">
+        <v>19919.444343299201</v>
+      </c>
+      <c r="BE18">
+        <v>795921.70942722796</v>
+      </c>
+      <c r="BF18">
+        <f t="shared" si="1"/>
+        <v>0.99709301790885485</v>
+      </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2">
         <v>16</v>
@@ -3405,7 +6980,7 @@
         <v>187591.22175376801</v>
       </c>
       <c r="AG19">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.3917456463310747</v>
       </c>
       <c r="AH19">
@@ -3444,8 +7019,48 @@
       <c r="AS19">
         <v>200602.26636515799</v>
       </c>
+      <c r="AT19">
+        <v>92212.994102335593</v>
+      </c>
+      <c r="AU19">
+        <v>214868.823728788</v>
+      </c>
+      <c r="AV19">
+        <v>89825.254659299797</v>
+      </c>
+      <c r="AW19">
+        <v>209305.065925559</v>
+      </c>
+      <c r="AX19">
+        <v>89740.635870808503</v>
+      </c>
+      <c r="AY19">
+        <v>209107.892634252</v>
+      </c>
+      <c r="AZ19">
+        <v>101721.411104513</v>
+      </c>
+      <c r="BA19">
+        <v>237024.72915913601</v>
+      </c>
+      <c r="BB19">
+        <v>117363.739009572</v>
+      </c>
+      <c r="BC19">
+        <v>273473.481637666</v>
+      </c>
+      <c r="BD19">
+        <v>121570.586192417</v>
+      </c>
+      <c r="BE19">
+        <v>283276.00800159201</v>
+      </c>
+      <c r="BF19">
+        <f t="shared" si="1"/>
+        <v>1.0358445224934596</v>
+      </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2">
         <v>17</v>
@@ -3538,7 +7153,7 @@
         <v>403295.238349728</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.4524275229406196</v>
       </c>
       <c r="AH20">
@@ -3577,8 +7192,48 @@
       <c r="AS20">
         <v>425817.219263851</v>
       </c>
+      <c r="AT20">
+        <v>87879.466402939899</v>
+      </c>
+      <c r="AU20">
+        <v>443136.192342486</v>
+      </c>
+      <c r="AV20">
+        <v>87374.858446856</v>
+      </c>
+      <c r="AW20">
+        <v>440591.68385333102</v>
+      </c>
+      <c r="AX20">
+        <v>89383.5825128695</v>
+      </c>
+      <c r="AY20">
+        <v>450720.76599862397</v>
+      </c>
+      <c r="AZ20">
+        <v>93771.062482676003</v>
+      </c>
+      <c r="BA20">
+        <v>472844.83260235499</v>
+      </c>
+      <c r="BB20">
+        <v>100321.656771191</v>
+      </c>
+      <c r="BC20">
+        <v>505876.50119810202</v>
+      </c>
+      <c r="BD20">
+        <v>99207.8628194107</v>
+      </c>
+      <c r="BE20">
+        <v>500260.14471520099</v>
+      </c>
+      <c r="BF20">
+        <f t="shared" si="1"/>
+        <v>0.9888977715517534</v>
+      </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2">
         <v>18</v>
@@ -3671,7 +7326,7 @@
         <v>251365.229100367</v>
       </c>
       <c r="AG21">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.2423100072634721</v>
       </c>
       <c r="AH21">
@@ -3707,8 +7362,48 @@
       <c r="AS21">
         <v>313670.646296455</v>
       </c>
+      <c r="AT21">
+        <v>108219.157904138</v>
+      </c>
+      <c r="AU21">
+        <v>318945.67837737303</v>
+      </c>
+      <c r="AV21">
+        <v>106587.221659563</v>
+      </c>
+      <c r="AW21">
+        <v>314136.00306040602</v>
+      </c>
+      <c r="AX21">
+        <v>109153.87315665701</v>
+      </c>
+      <c r="AY21">
+        <v>321700.48996598501</v>
+      </c>
+      <c r="AZ21">
+        <v>112572.765647597</v>
+      </c>
+      <c r="BA21">
+        <v>331776.71866652899</v>
+      </c>
+      <c r="BB21">
+        <v>128168.581416466</v>
+      </c>
+      <c r="BC21">
+        <v>377741.02052014798</v>
+      </c>
+      <c r="BD21">
+        <v>129122.680327922</v>
+      </c>
+      <c r="BE21">
+        <v>380552.960018171</v>
+      </c>
+      <c r="BF21">
+        <f t="shared" si="1"/>
+        <v>1.0074440935595266</v>
+      </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2">
         <v>19</v>
@@ -3804,7 +7499,7 @@
         <v>329703.35002962599</v>
       </c>
       <c r="AG22">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.1452737970825106</v>
       </c>
       <c r="AH22">
@@ -3843,8 +7538,48 @@
       <c r="AS22">
         <v>402655.84388260101</v>
       </c>
+      <c r="AT22">
+        <v>68927.767158991395</v>
+      </c>
+      <c r="AU22">
+        <v>418604.05411162699</v>
+      </c>
+      <c r="AV22">
+        <v>64882.785119800697</v>
+      </c>
+      <c r="AW22">
+        <v>394038.54226923402</v>
+      </c>
+      <c r="AX22">
+        <v>66491.961063740993</v>
+      </c>
+      <c r="AY22">
+        <v>403811.20141193498</v>
+      </c>
+      <c r="AZ22">
+        <v>75063.357194914905</v>
+      </c>
+      <c r="BA22">
+        <v>455866.00193419599</v>
+      </c>
+      <c r="BB22">
+        <v>75876.750349440903</v>
+      </c>
+      <c r="BC22">
+        <v>460805.80611044099</v>
+      </c>
+      <c r="BD22">
+        <v>78204.099050739605</v>
+      </c>
+      <c r="BE22">
+        <v>474939.988049743</v>
+      </c>
+      <c r="BF22">
+        <f t="shared" si="1"/>
+        <v>1.0306727514104161</v>
+      </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2">
         <v>20</v>
@@ -3940,7 +7675,7 @@
         <v>476877.09449017397</v>
       </c>
       <c r="AG23">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.1298457719176309</v>
       </c>
       <c r="AH23">
@@ -3979,8 +7714,48 @@
       <c r="AS23">
         <v>568671.138537472</v>
       </c>
+      <c r="AT23">
+        <v>49720.088504835199</v>
+      </c>
+      <c r="AU23">
+        <v>578533.11318467394</v>
+      </c>
+      <c r="AV23">
+        <v>48845.126111196303</v>
+      </c>
+      <c r="AW23">
+        <v>568352.22387547302</v>
+      </c>
+      <c r="AX23">
+        <v>48547.426997569703</v>
+      </c>
+      <c r="AY23">
+        <v>564888.25588631805</v>
+      </c>
+      <c r="AZ23">
+        <v>52061.662245309999</v>
+      </c>
+      <c r="BA23">
+        <v>605779.20197022997</v>
+      </c>
+      <c r="BB23">
+        <v>53495.166759868203</v>
+      </c>
+      <c r="BC23">
+        <v>622459.17689607805</v>
+      </c>
+      <c r="BD23">
+        <v>53018.270375072301</v>
+      </c>
+      <c r="BE23">
+        <v>616910.104912112</v>
+      </c>
+      <c r="BF23">
+        <f t="shared" si="1"/>
+        <v>0.99108524351486504</v>
+      </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2">
         <v>21</v>
@@ -4073,7 +7848,7 @@
         <v>195195.30902376299</v>
       </c>
       <c r="AG24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.125317937968096</v>
       </c>
       <c r="AH24">
@@ -4112,8 +7887,48 @@
       <c r="AS24">
         <v>277023.12956115801</v>
       </c>
+      <c r="AT24">
+        <v>81389.329057151102</v>
+      </c>
+      <c r="AU24">
+        <v>286287.93013192399</v>
+      </c>
+      <c r="AV24">
+        <v>86125.151014197399</v>
+      </c>
+      <c r="AW24">
+        <v>302946.24002662802</v>
+      </c>
+      <c r="AX24">
+        <v>79860.132942465701</v>
+      </c>
+      <c r="AY24">
+        <v>280908.96466420701</v>
+      </c>
+      <c r="AZ24">
+        <v>90411.697134327304</v>
+      </c>
+      <c r="BA24">
+        <v>318024.216837143</v>
+      </c>
+      <c r="BB24">
+        <v>93400.235476413101</v>
+      </c>
+      <c r="BC24">
+        <v>328536.43589567399</v>
+      </c>
+      <c r="BD24">
+        <v>101285.770043863</v>
+      </c>
+      <c r="BE24">
+        <v>356273.89724904101</v>
+      </c>
+      <c r="BF24">
+        <f t="shared" si="1"/>
+        <v>1.0844273521070733</v>
+      </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2">
         <v>22</v>
@@ -4206,7 +8021,7 @@
         <v>153125.778409627</v>
       </c>
       <c r="AG25">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.0370292468048288</v>
       </c>
       <c r="AH25">
@@ -4245,8 +8060,48 @@
       <c r="AS25">
         <v>243547.10684806301</v>
       </c>
+      <c r="AT25">
+        <v>78707.568865391106</v>
+      </c>
+      <c r="AU25">
+        <v>251868.77236220101</v>
+      </c>
+      <c r="AV25">
+        <v>78762.772888070904</v>
+      </c>
+      <c r="AW25">
+        <v>252045.428427459</v>
+      </c>
+      <c r="AX25">
+        <v>79819.789551484399</v>
+      </c>
+      <c r="AY25">
+        <v>255427.94288214401</v>
+      </c>
+      <c r="AZ25">
+        <v>83009.646495925102</v>
+      </c>
+      <c r="BA25">
+        <v>265635.66958732798</v>
+      </c>
+      <c r="BB25">
+        <v>95778.340528777597</v>
+      </c>
+      <c r="BC25">
+        <v>306496.22896025598</v>
+      </c>
+      <c r="BD25">
+        <v>101147.82517663301</v>
+      </c>
+      <c r="BE25">
+        <v>323678.89037349401</v>
+      </c>
+      <c r="BF25">
+        <f t="shared" si="1"/>
+        <v>1.0560615752811306</v>
+      </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2">
         <v>23</v>
@@ -4342,7 +8197,7 @@
         <v>670174.47933399701</v>
       </c>
       <c r="AG26">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.0469301281716621</v>
       </c>
       <c r="AH26">
@@ -4381,8 +8236,48 @@
       <c r="AS26">
         <v>762288.68474737403</v>
       </c>
+      <c r="AT26">
+        <v>26067.124194907599</v>
+      </c>
+      <c r="AU26">
+        <v>769285.82973880204</v>
+      </c>
+      <c r="AV26">
+        <v>25640.355299765499</v>
+      </c>
+      <c r="AW26">
+        <v>756691.14299272001</v>
+      </c>
+      <c r="AX26">
+        <v>25526.0530860246</v>
+      </c>
+      <c r="AY26">
+        <v>753317.88736693002</v>
+      </c>
+      <c r="AZ26">
+        <v>26174.423505444702</v>
+      </c>
+      <c r="BA26">
+        <v>772452.417603262</v>
+      </c>
+      <c r="BB26">
+        <v>26185.7468086642</v>
+      </c>
+      <c r="BC26">
+        <v>772786.58782654395</v>
+      </c>
+      <c r="BD26">
+        <v>26201.942688885902</v>
+      </c>
+      <c r="BE26">
+        <v>773264.556207772</v>
+      </c>
+      <c r="BF26">
+        <f t="shared" si="1"/>
+        <v>1.0006184998403924</v>
+      </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2">
         <v>24</v>
@@ -4475,7 +8370,7 @@
         <v>137682.75110672301</v>
       </c>
       <c r="AG27">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.0866513282185861</v>
       </c>
       <c r="AH27">
@@ -4514,8 +8409,48 @@
       <c r="AS27">
         <v>253046.766731404</v>
       </c>
+      <c r="AT27">
+        <v>105016.11416440899</v>
+      </c>
+      <c r="AU27">
+        <v>221687.792947223</v>
+      </c>
+      <c r="AV27">
+        <v>113458.313812762</v>
+      </c>
+      <c r="AW27">
+        <v>239509.17800374099</v>
+      </c>
+      <c r="AX27">
+        <v>106956.39065656</v>
+      </c>
+      <c r="AY27">
+        <v>225783.69400654899</v>
+      </c>
+      <c r="AZ27">
+        <v>120638.14360112</v>
+      </c>
+      <c r="BA27">
+        <v>254665.714999825</v>
+      </c>
+      <c r="BB27">
+        <v>134754.44684458399</v>
+      </c>
+      <c r="BC27">
+        <v>284465.06660902599</v>
+      </c>
+      <c r="BD27">
+        <v>138055.42645505699</v>
+      </c>
+      <c r="BE27">
+        <v>291433.39609095501</v>
+      </c>
+      <c r="BF27">
+        <f t="shared" si="1"/>
+        <v>1.024496257361212</v>
+      </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2">
         <v>25</v>
@@ -4599,7 +8534,7 @@
         <v>139915.14882477501</v>
       </c>
       <c r="AG28">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.1275767030125554</v>
       </c>
       <c r="AH28">
@@ -4638,8 +8573,48 @@
       <c r="AS28">
         <v>208406.77266457499</v>
       </c>
+      <c r="AT28">
+        <v>93730.3918308883</v>
+      </c>
+      <c r="AU28">
+        <v>226551.781903311</v>
+      </c>
+      <c r="AV28">
+        <v>89150.269778876798</v>
+      </c>
+      <c r="AW28">
+        <v>215481.36181918299</v>
+      </c>
+      <c r="AX28">
+        <v>84254.675735854398</v>
+      </c>
+      <c r="AY28">
+        <v>203648.42767416101</v>
+      </c>
+      <c r="AZ28">
+        <v>96148.558522458305</v>
+      </c>
+      <c r="BA28">
+        <v>232396.63075343499</v>
+      </c>
+      <c r="BB28">
+        <v>121323.12830233799</v>
+      </c>
+      <c r="BC28">
+        <v>293245.022943786</v>
+      </c>
+      <c r="BD28">
+        <v>120678.491626927</v>
+      </c>
+      <c r="BE28">
+        <v>291686.89878958301</v>
+      </c>
+      <c r="BF28">
+        <f t="shared" si="1"/>
+        <v>0.99468661347237364</v>
+      </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2">
         <v>26</v>
@@ -4735,7 +8710,7 @@
         <v>193515.37936831301</v>
       </c>
       <c r="AG29">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.4118003138767132</v>
       </c>
       <c r="AH29">
@@ -4774,8 +8749,48 @@
       <c r="AS29">
         <v>278055.16797883197</v>
       </c>
+      <c r="AT29">
+        <v>100796.09860300799</v>
+      </c>
+      <c r="AU29">
+        <v>304695.28352165502</v>
+      </c>
+      <c r="AV29">
+        <v>97950.449133941001</v>
+      </c>
+      <c r="AW29">
+        <v>296093.20483212598</v>
+      </c>
+      <c r="AX29">
+        <v>91561.926260863998</v>
+      </c>
+      <c r="AY29">
+        <v>276781.41781779501</v>
+      </c>
+      <c r="AZ29">
+        <v>103718.329202444</v>
+      </c>
+      <c r="BA29">
+        <v>313528.85836583399</v>
+      </c>
+      <c r="BB29">
+        <v>113071.40729503</v>
+      </c>
+      <c r="BC29">
+        <v>341802.16279644403</v>
+      </c>
+      <c r="BD29">
+        <v>117394.576124083</v>
+      </c>
+      <c r="BE29">
+        <v>354870.61653956398</v>
+      </c>
+      <c r="BF29">
+        <f t="shared" si="1"/>
+        <v>1.038233970306685</v>
+      </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2">
         <v>27</v>
@@ -4868,7 +8883,7 @@
         <v>264212.17014546902</v>
       </c>
       <c r="AG30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.3220796588670236</v>
       </c>
       <c r="AH30">
@@ -4907,8 +8922,48 @@
       <c r="AS30">
         <v>295260.78208036802</v>
       </c>
+      <c r="AT30">
+        <v>66652.325903520294</v>
+      </c>
+      <c r="AU30">
+        <v>305794.77585940203</v>
+      </c>
+      <c r="AV30">
+        <v>64409.397295702103</v>
+      </c>
+      <c r="AW30">
+        <v>295504.42452358798</v>
+      </c>
+      <c r="AX30">
+        <v>67490.743296384695</v>
+      </c>
+      <c r="AY30">
+        <v>309641.358184207</v>
+      </c>
+      <c r="AZ30">
+        <v>76004.288236890105</v>
+      </c>
+      <c r="BA30">
+        <v>348700.723803634</v>
+      </c>
+      <c r="BB30">
+        <v>85153.788779377093</v>
+      </c>
+      <c r="BC30">
+        <v>390677.79556651902</v>
+      </c>
+      <c r="BD30">
+        <v>88377.404373737299</v>
+      </c>
+      <c r="BE30">
+        <v>405467.44911231101</v>
+      </c>
+      <c r="BF30">
+        <f t="shared" si="1"/>
+        <v>1.0378563965334799</v>
+      </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2">
         <v>28</v>
@@ -5001,7 +9056,7 @@
         <v>313242.90181516402</v>
       </c>
       <c r="AG31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.2685501346192214</v>
       </c>
       <c r="AH31">
@@ -5040,8 +9095,48 @@
       <c r="AS31">
         <v>403148.19285685697</v>
       </c>
+      <c r="AT31">
+        <v>101480.95147500301</v>
+      </c>
+      <c r="AU31">
+        <v>411628.99863467901</v>
+      </c>
+      <c r="AV31">
+        <v>105100.132277419</v>
+      </c>
+      <c r="AW31">
+        <v>426309.18982251303</v>
+      </c>
+      <c r="AX31">
+        <v>100933.837350638</v>
+      </c>
+      <c r="AY31">
+        <v>409409.78373890102</v>
+      </c>
+      <c r="AZ31">
+        <v>110341.984884923</v>
+      </c>
+      <c r="BA31">
+        <v>447571.29377853498</v>
+      </c>
+      <c r="BB31">
+        <v>118489.770738351</v>
+      </c>
+      <c r="BC31">
+        <v>480620.50038518099</v>
+      </c>
+      <c r="BD31">
+        <v>122196.51175035301</v>
+      </c>
+      <c r="BE31">
+        <v>495655.85498908599</v>
+      </c>
+      <c r="BF31">
+        <f t="shared" si="1"/>
+        <v>1.0312832153265525</v>
+      </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2">
         <v>29</v>
@@ -5137,7 +9232,7 @@
         <v>832897.23304076702</v>
       </c>
       <c r="AG32">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.0539600094994643</v>
       </c>
       <c r="AH32">
@@ -5176,8 +9271,48 @@
       <c r="AS32">
         <v>900595.25501460605</v>
       </c>
+      <c r="AT32">
+        <v>50505.897108949197</v>
+      </c>
+      <c r="AU32">
+        <v>905128.70111040794</v>
+      </c>
+      <c r="AV32">
+        <v>49883.005899822099</v>
+      </c>
+      <c r="AW32">
+        <v>893965.71335406497</v>
+      </c>
+      <c r="AX32">
+        <v>49981.620982653199</v>
+      </c>
+      <c r="AY32">
+        <v>895733.01869744295</v>
+      </c>
+      <c r="AZ32">
+        <v>51143.984072537598</v>
+      </c>
+      <c r="BA32">
+        <v>916564.01574906101</v>
+      </c>
+      <c r="BB32">
+        <v>51203.532050569898</v>
+      </c>
+      <c r="BC32">
+        <v>917631.18982368102</v>
+      </c>
+      <c r="BD32">
+        <v>51084.331584024803</v>
+      </c>
+      <c r="BE32">
+        <v>915494.96871621395</v>
+      </c>
+      <c r="BF32">
+        <f t="shared" si="1"/>
+        <v>0.99767202648388886</v>
+      </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2">
         <v>30</v>
@@ -5273,7 +9408,7 @@
         <v>750937.16402175697</v>
       </c>
       <c r="AG33">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.0558692016955631</v>
       </c>
       <c r="AH33">
@@ -5312,8 +9447,48 @@
       <c r="AS33">
         <v>778715.97278262198</v>
       </c>
+      <c r="AT33">
+        <v>26288.741625435199</v>
+      </c>
+      <c r="AU33">
+        <v>786173.84631403699</v>
+      </c>
+      <c r="AV33">
+        <v>26010.851996299301</v>
+      </c>
+      <c r="AW33">
+        <v>777863.46152265498</v>
+      </c>
+      <c r="AX33">
+        <v>25993.262358283999</v>
+      </c>
+      <c r="AY33">
+        <v>777337.43735722499</v>
+      </c>
+      <c r="AZ33">
+        <v>26435.341031416901</v>
+      </c>
+      <c r="BA33">
+        <v>790557.95189467398</v>
+      </c>
+      <c r="BB33">
+        <v>26462.146601493499</v>
+      </c>
+      <c r="BC33">
+        <v>791359.58167330595</v>
+      </c>
+      <c r="BD33">
+        <v>26454.944129221301</v>
+      </c>
+      <c r="BE33">
+        <v>791144.18926655303</v>
+      </c>
+      <c r="BF33">
+        <f t="shared" si="1"/>
+        <v>0.9997278198031071</v>
+      </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2">
         <v>31</v>
@@ -5406,7 +9581,7 @@
         <v>206253.89834530401</v>
       </c>
       <c r="AG34">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.3970271242505348</v>
       </c>
       <c r="AH34">
@@ -5445,8 +9620,48 @@
       <c r="AS34">
         <v>294144.43380219099</v>
       </c>
+      <c r="AT34">
+        <v>71148.847206856197</v>
+      </c>
+      <c r="AU34">
+        <v>296578.470041111</v>
+      </c>
+      <c r="AV34">
+        <v>69695.272566232597</v>
+      </c>
+      <c r="AW34">
+        <v>290519.356507572</v>
+      </c>
+      <c r="AX34">
+        <v>65388.386354772003</v>
+      </c>
+      <c r="AY34">
+        <v>272566.434241348</v>
+      </c>
+      <c r="AZ34">
+        <v>75695.711318001704</v>
+      </c>
+      <c r="BA34">
+        <v>315531.72163277399</v>
+      </c>
+      <c r="BB34">
+        <v>84664.984004184793</v>
+      </c>
+      <c r="BC34">
+        <v>352919.44153378397</v>
+      </c>
+      <c r="BD34">
+        <v>84219.2980777786</v>
+      </c>
+      <c r="BE34">
+        <v>351061.63419942098</v>
+      </c>
+      <c r="BF34">
+        <f t="shared" si="1"/>
+        <v>0.99473588837642668</v>
+      </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2">
         <v>32</v>
@@ -5542,7 +9757,7 @@
         <v>386211.81992442301</v>
       </c>
       <c r="AG35">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.2780027870881674</v>
       </c>
       <c r="AH35">
@@ -5581,8 +9796,48 @@
       <c r="AS35">
         <v>451557.02582437498</v>
       </c>
+      <c r="AT35">
+        <v>61214.083915547497</v>
+      </c>
+      <c r="AU35">
+        <v>464671.59005944402</v>
+      </c>
+      <c r="AV35">
+        <v>59322.064103755598</v>
+      </c>
+      <c r="AW35">
+        <v>450309.407402554</v>
+      </c>
+      <c r="AX35">
+        <v>59406.2229187626</v>
+      </c>
+      <c r="AY35">
+        <v>450948.25075175398</v>
+      </c>
+      <c r="AZ35">
+        <v>64492.622525132399</v>
+      </c>
+      <c r="BA35">
+        <v>489558.73450954899</v>
+      </c>
+      <c r="BB35">
+        <v>67370.394520638496</v>
+      </c>
+      <c r="BC35">
+        <v>511403.68919065199</v>
+      </c>
+      <c r="BD35">
+        <v>67215.431864524493</v>
+      </c>
+      <c r="BE35">
+        <v>510227.3791128</v>
+      </c>
+      <c r="BF35">
+        <f t="shared" si="1"/>
+        <v>0.99769984045341242</v>
+      </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="B36" s="2">
         <v>33</v>
@@ -5678,7 +9933,7 @@
         <v>367137.76022847701</v>
       </c>
       <c r="AG36">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.3511323959070927</v>
       </c>
       <c r="AH36">
@@ -5717,8 +9972,48 @@
       <c r="AS36">
         <v>449821.96722169698</v>
       </c>
+      <c r="AT36">
+        <v>100873.91073314101</v>
+      </c>
+      <c r="AU36">
+        <v>446493.48899528</v>
+      </c>
+      <c r="AV36">
+        <v>102050.87284610901</v>
+      </c>
+      <c r="AW36">
+        <v>451703.02153362398</v>
+      </c>
+      <c r="AX36">
+        <v>99358.062106519894</v>
+      </c>
+      <c r="AY36">
+        <v>439783.95887822699</v>
+      </c>
+      <c r="AZ36">
+        <v>111702.246316259</v>
+      </c>
+      <c r="BA36">
+        <v>494422.44604055898</v>
+      </c>
+      <c r="BB36">
+        <v>119218.417810142</v>
+      </c>
+      <c r="BC36">
+        <v>527690.92556911404</v>
+      </c>
+      <c r="BD36">
+        <v>116928.717691475</v>
+      </c>
+      <c r="BE36">
+        <v>517556.13266472099</v>
+      </c>
+      <c r="BF36">
+        <f t="shared" si="1"/>
+        <v>0.98079407392980522</v>
+      </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="2">
         <v>34</v>
@@ -5811,7 +10106,7 @@
         <v>133302.00717467899</v>
       </c>
       <c r="AG37">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.1358726022001411</v>
       </c>
       <c r="AH37">
@@ -5850,8 +10145,48 @@
       <c r="AS37">
         <v>258688.65346086599</v>
       </c>
+      <c r="AT37">
+        <v>74749.987471072105</v>
+      </c>
+      <c r="AU37">
+        <v>231291.13255921201</v>
+      </c>
+      <c r="AV37">
+        <v>74577.468223267293</v>
+      </c>
+      <c r="AW37">
+        <v>230757.32414581999</v>
+      </c>
+      <c r="AX37">
+        <v>76549.908434074707</v>
+      </c>
+      <c r="AY37">
+        <v>236860.44129269</v>
+      </c>
+      <c r="AZ37">
+        <v>86972.809777992094</v>
+      </c>
+      <c r="BA37">
+        <v>269110.94377364998</v>
+      </c>
+      <c r="BB37">
+        <v>99275.319347870594</v>
+      </c>
+      <c r="BC37">
+        <v>307177.32302005403</v>
+      </c>
+      <c r="BD37">
+        <v>98517.080014092498</v>
+      </c>
+      <c r="BE37">
+        <v>304831.18170025299</v>
+      </c>
+      <c r="BF37">
+        <f t="shared" si="1"/>
+        <v>0.99236225741947792</v>
+      </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
       <c r="B38" s="2">
         <v>35</v>
@@ -5947,7 +10282,7 @@
         <v>353225.28649031202</v>
       </c>
       <c r="AG38">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.0825399987759543</v>
       </c>
       <c r="AH38">
@@ -5986,8 +10321,48 @@
       <c r="AS38">
         <v>477532.92127003497</v>
       </c>
+      <c r="AT38">
+        <v>40313.839617496902</v>
+      </c>
+      <c r="AU38">
+        <v>508230.51571811503</v>
+      </c>
+      <c r="AV38">
+        <v>38113.859848917098</v>
+      </c>
+      <c r="AW38">
+        <v>480495.70149641501</v>
+      </c>
+      <c r="AX38">
+        <v>36758.245896211403</v>
+      </c>
+      <c r="AY38">
+        <v>463405.68018276</v>
+      </c>
+      <c r="AZ38">
+        <v>42126.282142523502</v>
+      </c>
+      <c r="BA38">
+        <v>531079.70616843202</v>
+      </c>
+      <c r="BB38">
+        <v>43840.594476734499</v>
+      </c>
+      <c r="BC38">
+        <v>552691.78405495104</v>
+      </c>
+      <c r="BD38">
+        <v>43701.277587997203</v>
+      </c>
+      <c r="BE38">
+        <v>550935.43698201096</v>
+      </c>
+      <c r="BF38">
+        <f t="shared" si="1"/>
+        <v>0.99682219435205954</v>
+      </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="2">
         <v>36</v>
@@ -6080,7 +10455,7 @@
         <v>164148.42840644499</v>
       </c>
       <c r="AG39">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.1937920320623847</v>
       </c>
       <c r="AH39">
@@ -6119,8 +10494,45 @@
       <c r="AS39">
         <v>252839.857004972</v>
       </c>
+      <c r="AT39">
+        <v>136583.36825510301</v>
+      </c>
+      <c r="AU39">
+        <v>241072.96368025601</v>
+      </c>
+      <c r="AV39">
+        <v>144948.88239705699</v>
+      </c>
+      <c r="AW39">
+        <v>255838.299406515</v>
+      </c>
+      <c r="AX39">
+        <v>139845.97502252899</v>
+      </c>
+      <c r="AY39">
+        <v>246831.54389975601</v>
+      </c>
+      <c r="AZ39">
+        <v>566564.43829287798</v>
+      </c>
+      <c r="BB39">
+        <v>164422.372936158</v>
+      </c>
+      <c r="BC39">
+        <v>290209.48337594402</v>
+      </c>
+      <c r="BD39">
+        <v>180242.07171467101</v>
+      </c>
+      <c r="BE39">
+        <v>318131.63610790798</v>
+      </c>
+      <c r="BF39">
+        <f t="shared" si="1"/>
+        <v>1.0962137846329196</v>
+      </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="B40" s="2">
         <v>37</v>
@@ -6216,7 +10628,7 @@
         <v>543393.50938763702</v>
       </c>
       <c r="AG40">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.1748236938651881</v>
       </c>
       <c r="AH40">
@@ -6255,8 +10667,48 @@
       <c r="AS40">
         <v>615345.60032558895</v>
       </c>
+      <c r="AT40">
+        <v>85314.119095421396</v>
+      </c>
+      <c r="AU40">
+        <v>642624.27327979205</v>
+      </c>
+      <c r="AV40">
+        <v>80539.350010148206</v>
+      </c>
+      <c r="AW40">
+        <v>606658.56741496699</v>
+      </c>
+      <c r="AX40">
+        <v>78458.576876349005</v>
+      </c>
+      <c r="AY40">
+        <v>590985.249362275</v>
+      </c>
+      <c r="AZ40">
+        <v>90610.947002423796</v>
+      </c>
+      <c r="BA40">
+        <v>682522.36073022103</v>
+      </c>
+      <c r="BB40">
+        <v>93031.457849403494</v>
+      </c>
+      <c r="BC40">
+        <v>700754.73586928204</v>
+      </c>
+      <c r="BD40">
+        <v>94109.556074773704</v>
+      </c>
+      <c r="BE40">
+        <v>708875.45604958199</v>
+      </c>
+      <c r="BF40">
+        <f t="shared" si="1"/>
+        <v>1.0115885341398745</v>
+      </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
       <c r="B41" s="2">
         <v>38</v>
@@ -6352,7 +10804,7 @@
         <v>464098.65275256499</v>
       </c>
       <c r="AG41">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.0842312410004116</v>
       </c>
       <c r="AH41">
@@ -6391,8 +10843,48 @@
       <c r="AS41">
         <v>546077.32996735896</v>
       </c>
+      <c r="AT41">
+        <v>44956.743077906802</v>
+      </c>
+      <c r="AU41">
+        <v>573211.68742639502</v>
+      </c>
+      <c r="AV41">
+        <v>44124.112359499501</v>
+      </c>
+      <c r="AW41">
+        <v>562595.40104919497</v>
+      </c>
+      <c r="AX41">
+        <v>43608.120446161098</v>
+      </c>
+      <c r="AY41">
+        <v>556016.35249955906</v>
+      </c>
+      <c r="AZ41">
+        <v>47904.8954518272</v>
+      </c>
+      <c r="BA41">
+        <v>610801.49668185099</v>
+      </c>
+      <c r="BB41">
+        <v>48982.0224953703</v>
+      </c>
+      <c r="BC41">
+        <v>624535.18306415901</v>
+      </c>
+      <c r="BD41">
+        <v>49183.754539579</v>
+      </c>
+      <c r="BE41">
+        <v>627107.32591864595</v>
+      </c>
+      <c r="BF41">
+        <f t="shared" si="1"/>
+        <v>1.0041184915185517</v>
+      </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
       <c r="B42" s="2">
         <v>39</v>
@@ -6488,7 +10980,7 @@
         <v>318708.42615592398</v>
       </c>
       <c r="AG42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.104848131167453</v>
       </c>
       <c r="AH42">
@@ -6527,8 +11019,48 @@
       <c r="AS42">
         <v>426261.29238673602</v>
       </c>
+      <c r="AT42">
+        <v>36508.954459335997</v>
+      </c>
+      <c r="AU42">
+        <v>429889.56714345398</v>
+      </c>
+      <c r="AV42">
+        <v>36194.446770548697</v>
+      </c>
+      <c r="AW42">
+        <v>426186.26815288299</v>
+      </c>
+      <c r="AX42">
+        <v>35353.0836165484</v>
+      </c>
+      <c r="AY42">
+        <v>416279.29471472203</v>
+      </c>
+      <c r="AZ42">
+        <v>39234.0778350291</v>
+      </c>
+      <c r="BA42">
+        <v>461977.64322610397</v>
+      </c>
+      <c r="BB42">
+        <v>40079.946662767899</v>
+      </c>
+      <c r="BC42">
+        <v>471937.67055643501</v>
+      </c>
+      <c r="BD42">
+        <v>39987.015729059</v>
+      </c>
+      <c r="BE42">
+        <v>470843.41739421902</v>
+      </c>
+      <c r="BF42">
+        <f t="shared" si="1"/>
+        <v>0.99768136084384662</v>
+      </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
       <c r="B43" s="2">
         <v>40</v>
@@ -6624,7 +11156,7 @@
         <v>674718.61796654097</v>
       </c>
       <c r="AG43">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.2572795811405439</v>
       </c>
       <c r="AH43">
@@ -6663,8 +11195,48 @@
       <c r="AS43">
         <v>728103.03418166295</v>
       </c>
+      <c r="AT43">
+        <v>37484.714647472101</v>
+      </c>
+      <c r="AU43">
+        <v>749557.88909472304</v>
+      </c>
+      <c r="AV43">
+        <v>35412.091516426102</v>
+      </c>
+      <c r="AW43">
+        <v>708112.96858228894</v>
+      </c>
+      <c r="AX43">
+        <v>36096.2935086773</v>
+      </c>
+      <c r="AY43">
+        <v>721794.51867142203</v>
+      </c>
+      <c r="AZ43">
+        <v>37806.269240519301</v>
+      </c>
+      <c r="BA43">
+        <v>755987.81084442697</v>
+      </c>
+      <c r="BB43">
+        <v>37861.177658974797</v>
+      </c>
+      <c r="BC43">
+        <v>757085.77940622706</v>
+      </c>
+      <c r="BD43">
+        <v>37862.363935072397</v>
+      </c>
+      <c r="BE43">
+        <v>757109.500611417</v>
+      </c>
+      <c r="BF43">
+        <f t="shared" si="1"/>
+        <v>1.0000313322556509</v>
+      </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="B44" s="2">
         <v>41</v>
@@ -6760,7 +11332,7 @@
         <v>942734.87035486195</v>
       </c>
       <c r="AG44">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>0.99673410678537766</v>
       </c>
       <c r="AH44">
@@ -6799,8 +11371,48 @@
       <c r="AS44">
         <v>965663.00415682897</v>
       </c>
+      <c r="AT44">
+        <v>27854.159248930198</v>
+      </c>
+      <c r="AU44">
+        <v>965817.41013456997</v>
+      </c>
+      <c r="AV44">
+        <v>27804.9937262821</v>
+      </c>
+      <c r="AW44">
+        <v>964112.64075605304</v>
+      </c>
+      <c r="AX44">
+        <v>27800.924099848799</v>
+      </c>
+      <c r="AY44">
+        <v>963971.53019418102</v>
+      </c>
+      <c r="AZ44">
+        <v>27854.182977199202</v>
+      </c>
+      <c r="BA44">
+        <v>965818.23289052001</v>
+      </c>
+      <c r="BB44">
+        <v>27854.303751016501</v>
+      </c>
+      <c r="BC44">
+        <v>965822.42061180295</v>
+      </c>
+      <c r="BD44">
+        <v>27854.303751016501</v>
+      </c>
+      <c r="BE44">
+        <v>965822.42061180295</v>
+      </c>
+      <c r="BF44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="2">
         <v>42</v>
@@ -6893,7 +11505,7 @@
         <v>166902.244517732</v>
       </c>
       <c r="AG45">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.1366762179195826</v>
       </c>
       <c r="AH45">
@@ -6932,8 +11544,48 @@
       <c r="AS45">
         <v>249533.89901821199</v>
       </c>
+      <c r="AT45">
+        <v>119712.42555018701</v>
+      </c>
+      <c r="AU45">
+        <v>251819.84571623799</v>
+      </c>
+      <c r="AV45">
+        <v>119122.048924082</v>
+      </c>
+      <c r="AW45">
+        <v>250577.96501574299</v>
+      </c>
+      <c r="AX45">
+        <v>116961.810572506</v>
+      </c>
+      <c r="AY45">
+        <v>246033.81777368201</v>
+      </c>
+      <c r="AZ45">
+        <v>130138.66902638201</v>
+      </c>
+      <c r="BA45">
+        <v>273751.86331181001</v>
+      </c>
+      <c r="BB45">
+        <v>138623.28985200901</v>
+      </c>
+      <c r="BC45">
+        <v>291599.60048237198</v>
+      </c>
+      <c r="BD45">
+        <v>136285.72903766701</v>
+      </c>
+      <c r="BE45">
+        <v>286682.44839131198</v>
+      </c>
+      <c r="BF45">
+        <f t="shared" si="1"/>
+        <v>0.98313731540466476</v>
+      </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
       <c r="B46" s="2">
         <v>43</v>
@@ -7026,7 +11678,7 @@
         <v>266877.25345063099</v>
       </c>
       <c r="AG46">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.1993471948009529</v>
       </c>
       <c r="AH46">
@@ -7065,8 +11717,48 @@
       <c r="AS46">
         <v>309445.22788628098</v>
       </c>
+      <c r="AT46">
+        <v>58430.415341646003</v>
+      </c>
+      <c r="AU46">
+        <v>349450.95242058102</v>
+      </c>
+      <c r="AV46">
+        <v>50905.2954702715</v>
+      </c>
+      <c r="AW46">
+        <v>304445.96159936098</v>
+      </c>
+      <c r="AX46">
+        <v>50460.7265165524</v>
+      </c>
+      <c r="AY46">
+        <v>301787.15721836599</v>
+      </c>
+      <c r="AZ46">
+        <v>54376.172282244501</v>
+      </c>
+      <c r="BA46">
+        <v>325204.00688428001</v>
+      </c>
+      <c r="BB46">
+        <v>67752.508039920096</v>
+      </c>
+      <c r="BC46">
+        <v>405202.98075920198</v>
+      </c>
+      <c r="BD46">
+        <v>65885.601080837107</v>
+      </c>
+      <c r="BE46">
+        <v>394037.692764626</v>
+      </c>
+      <c r="BF46">
+        <f t="shared" si="1"/>
+        <v>0.97244519777802152</v>
+      </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
       <c r="B47" s="2">
         <v>44</v>
@@ -7159,7 +11851,7 @@
         <v>390925.11143030698</v>
       </c>
       <c r="AG47">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.0543459077995585</v>
       </c>
       <c r="AH47">
@@ -7198,8 +11890,48 @@
       <c r="AS47">
         <v>469903.47686957801</v>
       </c>
+      <c r="AT47">
+        <v>70034.022401923794</v>
+      </c>
+      <c r="AU47">
+        <v>479375.29247744899</v>
+      </c>
+      <c r="AV47">
+        <v>68482.483965022606</v>
+      </c>
+      <c r="AW47">
+        <v>468755.18004536501</v>
+      </c>
+      <c r="AX47">
+        <v>68287.614358674793</v>
+      </c>
+      <c r="AY47">
+        <v>467421.31871148502</v>
+      </c>
+      <c r="AZ47">
+        <v>73344.637134159799</v>
+      </c>
+      <c r="BA47">
+        <v>502036.09148793301</v>
+      </c>
+      <c r="BB47">
+        <v>77959.047445413104</v>
+      </c>
+      <c r="BC47">
+        <v>533621.22992069705</v>
+      </c>
+      <c r="BD47">
+        <v>79003.585545054899</v>
+      </c>
+      <c r="BE47">
+        <v>540770.97999710904</v>
+      </c>
+      <c r="BF47">
+        <f t="shared" si="1"/>
+        <v>1.0133985487748951</v>
+      </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="2">
         <v>45</v>
@@ -7295,7 +12027,7 @@
         <v>861392.72184503695</v>
       </c>
       <c r="AG48">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.1626592939969695</v>
       </c>
       <c r="AH48">
@@ -7334,8 +12066,48 @@
       <c r="AS48">
         <v>907048.95559640403</v>
       </c>
+      <c r="AT48">
+        <v>52860.0436454554</v>
+      </c>
+      <c r="AU48">
+        <v>910630.71557373402</v>
+      </c>
+      <c r="AV48">
+        <v>52610.8647634261</v>
+      </c>
+      <c r="AW48">
+        <v>906338.06032792805</v>
+      </c>
+      <c r="AX48">
+        <v>52732.045688481099</v>
+      </c>
+      <c r="AY48">
+        <v>908425.66875362105</v>
+      </c>
+      <c r="AZ48">
+        <v>52939.3051088141</v>
+      </c>
+      <c r="BA48">
+        <v>911996.16891274101</v>
+      </c>
+      <c r="BB48">
+        <v>52949.842291309702</v>
+      </c>
+      <c r="BC48">
+        <v>912177.69509725401</v>
+      </c>
+      <c r="BD48">
+        <v>52948.872051436701</v>
+      </c>
+      <c r="BE48">
+        <v>912160.98057776096</v>
+      </c>
+      <c r="BF48">
+        <f t="shared" si="1"/>
+        <v>0.99998167624621503</v>
+      </c>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="B49" s="2">
         <v>46</v>
@@ -7431,7 +12203,7 @@
         <v>496059.64130642498</v>
       </c>
       <c r="AG49">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.1435976260076843</v>
       </c>
       <c r="AH49">
@@ -7470,8 +12242,48 @@
       <c r="AS49">
         <v>608663.02215683996</v>
       </c>
+      <c r="AT49">
+        <v>91041.007314946502</v>
+      </c>
+      <c r="AU49">
+        <v>628221.92796200805</v>
+      </c>
+      <c r="AV49">
+        <v>87940.953940565101</v>
+      </c>
+      <c r="AW49">
+        <v>606830.23244943703</v>
+      </c>
+      <c r="AX49">
+        <v>90707.006316164596</v>
+      </c>
+      <c r="AY49">
+        <v>625917.178074189</v>
+      </c>
+      <c r="AZ49">
+        <v>94789.763208715798</v>
+      </c>
+      <c r="BA49">
+        <v>654089.94858809398</v>
+      </c>
+      <c r="BB49">
+        <v>95851.120187542794</v>
+      </c>
+      <c r="BC49">
+        <v>661413.76614195702</v>
+      </c>
+      <c r="BD49">
+        <v>95264.014875773093</v>
+      </c>
+      <c r="BE49">
+        <v>657362.48813268903</v>
+      </c>
+      <c r="BF49">
+        <f t="shared" si="1"/>
+        <v>0.99387482054856646</v>
+      </c>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
       <c r="B50" s="2">
         <v>47</v>
@@ -7567,7 +12379,7 @@
         <v>454447.34628581698</v>
       </c>
       <c r="AG50">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.1110548451548079</v>
       </c>
       <c r="AH50">
@@ -7606,8 +12418,48 @@
       <c r="AS50">
         <v>522516.99222984299</v>
       </c>
+      <c r="AT50">
+        <v>86650.059804444201</v>
+      </c>
+      <c r="AU50">
+        <v>563727.30727381306</v>
+      </c>
+      <c r="AV50">
+        <v>84253.899077402399</v>
+      </c>
+      <c r="AW50">
+        <v>548138.38284030405</v>
+      </c>
+      <c r="AX50">
+        <v>78234.713792929397</v>
+      </c>
+      <c r="AY50">
+        <v>508978.81249429297</v>
+      </c>
+      <c r="AZ50">
+        <v>91195.6361686569</v>
+      </c>
+      <c r="BA50">
+        <v>593299.88379122305</v>
+      </c>
+      <c r="BB50">
+        <v>92661.999000024894</v>
+      </c>
+      <c r="BC50">
+        <v>602839.73606921395</v>
+      </c>
+      <c r="BD50">
+        <v>93185.189985155899</v>
+      </c>
+      <c r="BE50">
+        <v>606243.50804471504</v>
+      </c>
+      <c r="BF50">
+        <f t="shared" si="1"/>
+        <v>1.0056462302861706</v>
+      </c>
     </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
       <c r="B51" s="2">
         <v>48</v>
@@ -7700,7 +12552,7 @@
         <v>331899.88594178698</v>
       </c>
       <c r="AG51">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.1471311439715262</v>
       </c>
       <c r="AH51">
@@ -7739,8 +12591,48 @@
       <c r="AS51">
         <v>409809.92728240002</v>
       </c>
+      <c r="AT51">
+        <v>30329.2966921304</v>
+      </c>
+      <c r="AU51">
+        <v>432468.07490049402</v>
+      </c>
+      <c r="AV51">
+        <v>31532.149743596899</v>
+      </c>
+      <c r="AW51">
+        <v>449619.66100010998</v>
+      </c>
+      <c r="AX51">
+        <v>29611.547172559502</v>
+      </c>
+      <c r="AY51">
+        <v>422233.62218170898</v>
+      </c>
+      <c r="AZ51">
+        <v>32447.710183206</v>
+      </c>
+      <c r="BA51">
+        <v>462674.71680282301</v>
+      </c>
+      <c r="BB51">
+        <v>34190.483866019298</v>
+      </c>
+      <c r="BC51">
+        <v>487525.078063889</v>
+      </c>
+      <c r="BD51">
+        <v>34172.216196510097</v>
+      </c>
+      <c r="BE51">
+        <v>487264.59777825099</v>
+      </c>
+      <c r="BF51">
+        <f t="shared" si="1"/>
+        <v>0.9994657089504555</v>
+      </c>
     </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="2">
         <v>49</v>
@@ -7836,7 +12728,7 @@
         <v>433063.15394192201</v>
       </c>
       <c r="AG52">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.0987852697457308</v>
       </c>
       <c r="AH52">
@@ -7875,8 +12767,48 @@
       <c r="AS52">
         <v>588297.49564185005</v>
       </c>
+      <c r="AT52">
+        <v>119967.22466567899</v>
+      </c>
+      <c r="AU52">
+        <v>593263.46429457096</v>
+      </c>
+      <c r="AV52">
+        <v>120030.988224945</v>
+      </c>
+      <c r="AW52">
+        <v>593578.78866896895</v>
+      </c>
+      <c r="AX52">
+        <v>117330.612562979</v>
+      </c>
+      <c r="AY52">
+        <v>580224.85617132497</v>
+      </c>
+      <c r="AZ52">
+        <v>126487.346256245</v>
+      </c>
+      <c r="BA52">
+        <v>625506.85354709602</v>
+      </c>
+      <c r="BB52">
+        <v>130377.615368292</v>
+      </c>
+      <c r="BC52">
+        <v>644745.06245692901</v>
+      </c>
+      <c r="BD52">
+        <v>131680.334754048</v>
+      </c>
+      <c r="BE52">
+        <v>651187.28713913599</v>
+      </c>
+      <c r="BF52">
+        <f t="shared" si="1"/>
+        <v>1.0099918945600881</v>
+      </c>
     </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="B53" s="2">
         <v>50</v>
@@ -7972,7 +12904,7 @@
         <v>373994.932250768</v>
       </c>
       <c r="AG53">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.2316917562958725</v>
       </c>
       <c r="AH53">
@@ -8011,8 +12943,48 @@
       <c r="AS53">
         <v>453474.06938598503</v>
       </c>
+      <c r="AT53">
+        <v>101068.03753406199</v>
+      </c>
+      <c r="AU53">
+        <v>480007.391837075</v>
+      </c>
+      <c r="AV53">
+        <v>98569.539121956797</v>
+      </c>
+      <c r="AW53">
+        <v>468141.15068343998</v>
+      </c>
+      <c r="AX53">
+        <v>96628.476757977594</v>
+      </c>
+      <c r="AY53">
+        <v>458922.36791630898</v>
+      </c>
+      <c r="AZ53">
+        <v>104171.429583449</v>
+      </c>
+      <c r="BA53">
+        <v>494746.48403496499</v>
+      </c>
+      <c r="BB53">
+        <v>111390.753471056</v>
+      </c>
+      <c r="BC53">
+        <v>529033.57335288497</v>
+      </c>
+      <c r="BD53">
+        <v>113101.503050988</v>
+      </c>
+      <c r="BE53">
+        <v>537158.52030926396</v>
+      </c>
+      <c r="BF53">
+        <f t="shared" si="1"/>
+        <v>1.0153580932584014</v>
+      </c>
     </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="B54" s="2">
         <v>51</v>
@@ -8105,7 +13077,7 @@
         <v>241678.168072167</v>
       </c>
       <c r="AG54">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.5043788841083539</v>
       </c>
       <c r="AH54">
@@ -8144,8 +13116,48 @@
       <c r="AS54">
         <v>332744.71232900198</v>
       </c>
+      <c r="AT54">
+        <v>103603.60906063201</v>
+      </c>
+      <c r="AU54">
+        <v>342225.02305873198</v>
+      </c>
+      <c r="AV54">
+        <v>109525.683311998</v>
+      </c>
+      <c r="AW54">
+        <v>361786.90913205699</v>
+      </c>
+      <c r="AX54">
+        <v>104393.774620165</v>
+      </c>
+      <c r="AY54">
+        <v>344835.10999762698</v>
+      </c>
+      <c r="AZ54">
+        <v>116606.23138622699</v>
+      </c>
+      <c r="BA54">
+        <v>385175.48362228897</v>
+      </c>
+      <c r="BB54">
+        <v>127974.773937349</v>
+      </c>
+      <c r="BC54">
+        <v>422728.22692898999</v>
+      </c>
+      <c r="BD54">
+        <v>133463.54494535801</v>
+      </c>
+      <c r="BE54">
+        <v>440858.81911406299</v>
+      </c>
+      <c r="BF54">
+        <f t="shared" si="1"/>
+        <v>1.0428894760985965</v>
+      </c>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
       <c r="B55" s="2">
         <v>52</v>
@@ -8241,7 +13253,7 @@
         <v>380880.29991614103</v>
       </c>
       <c r="AG55">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.2431585391716875</v>
       </c>
       <c r="AH55">
@@ -8280,8 +13292,48 @@
       <c r="AS55">
         <v>488015.33901343599</v>
       </c>
+      <c r="AT55">
+        <v>55667.786325953202</v>
+      </c>
+      <c r="AU55">
+        <v>490491.258437682</v>
+      </c>
+      <c r="AV55">
+        <v>56484.705403936401</v>
+      </c>
+      <c r="AW55">
+        <v>497689.16755257797</v>
+      </c>
+      <c r="AX55">
+        <v>53477.187044856903</v>
+      </c>
+      <c r="AY55">
+        <v>471189.79399959103</v>
+      </c>
+      <c r="AZ55">
+        <v>61088.558388955302</v>
+      </c>
+      <c r="BA55">
+        <v>538253.914120042</v>
+      </c>
+      <c r="BB55">
+        <v>61706.447505117903</v>
+      </c>
+      <c r="BC55">
+        <v>543698.16168517701</v>
+      </c>
+      <c r="BD55">
+        <v>61640.4113814417</v>
+      </c>
+      <c r="BE55">
+        <v>543116.31456061895</v>
+      </c>
+      <c r="BF55">
+        <f t="shared" si="1"/>
+        <v>0.99892983429858462</v>
+      </c>
     </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A56" s="2"/>
       <c r="B56" s="2">
         <v>53</v>
@@ -8374,7 +13426,7 @@
         <v>187509.48545964801</v>
       </c>
       <c r="AG56">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.2063647054980791</v>
       </c>
       <c r="AH56">
@@ -8413,8 +13465,48 @@
       <c r="AS56">
         <v>247804.47372755699</v>
       </c>
+      <c r="AT56">
+        <v>69198.613382909403</v>
+      </c>
+      <c r="AU56">
+        <v>224346.33384300501</v>
+      </c>
+      <c r="AV56">
+        <v>76114.816970842003</v>
+      </c>
+      <c r="AW56">
+        <v>246769.10856651899</v>
+      </c>
+      <c r="AX56">
+        <v>71863.249692982194</v>
+      </c>
+      <c r="AY56">
+        <v>232985.25531794701</v>
+      </c>
+      <c r="AZ56">
+        <v>80118.338702557594</v>
+      </c>
+      <c r="BA56">
+        <v>259748.78227762599</v>
+      </c>
+      <c r="BB56">
+        <v>87566.421554310393</v>
+      </c>
+      <c r="BC56">
+        <v>283895.94361890201</v>
+      </c>
+      <c r="BD56">
+        <v>88341.203334945501</v>
+      </c>
+      <c r="BE56">
+        <v>286407.83574384998</v>
+      </c>
+      <c r="BF56">
+        <f t="shared" si="1"/>
+        <v>1.0088479324252688</v>
+      </c>
     </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A57" s="2"/>
       <c r="B57" s="2">
         <v>54</v>
@@ -8507,7 +13599,7 @@
         <v>221696.27023286201</v>
       </c>
       <c r="AG57">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.18593383792832</v>
       </c>
       <c r="AH57">
@@ -8546,8 +13638,48 @@
       <c r="AS57">
         <v>319068.39996691002</v>
       </c>
+      <c r="AT57">
+        <v>103894.842838642</v>
+      </c>
+      <c r="AU57">
+        <v>313053.54979042697</v>
+      </c>
+      <c r="AV57">
+        <v>111002.359164689</v>
+      </c>
+      <c r="AW57">
+        <v>334469.75443802599</v>
+      </c>
+      <c r="AX57">
+        <v>107840.598653888</v>
+      </c>
+      <c r="AY57">
+        <v>324942.81041992101</v>
+      </c>
+      <c r="AZ57">
+        <v>114354.337024005</v>
+      </c>
+      <c r="BA57">
+        <v>344569.856993719</v>
+      </c>
+      <c r="BB57">
+        <v>121827.748404795</v>
+      </c>
+      <c r="BC57">
+        <v>367088.568200915</v>
+      </c>
+      <c r="BD57">
+        <v>125324.762580671</v>
+      </c>
+      <c r="BE57">
+        <v>377625.69084833702</v>
+      </c>
+      <c r="BF57">
+        <f t="shared" si="1"/>
+        <v>1.0287045785682294</v>
+      </c>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
       <c r="B58" s="2">
         <v>55</v>
@@ -8643,7 +13775,7 @@
         <v>215322.25966302701</v>
       </c>
       <c r="AG58">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.1578236477454069</v>
       </c>
       <c r="AH58">
@@ -8679,8 +13811,48 @@
       <c r="AS58">
         <v>290952.38472591102</v>
       </c>
+      <c r="AT58">
+        <v>132036.43275173099</v>
+      </c>
+      <c r="AU58">
+        <v>309957.87769363599</v>
+      </c>
+      <c r="AV58">
+        <v>132878.53436510099</v>
+      </c>
+      <c r="AW58">
+        <v>311934.72623038403</v>
+      </c>
+      <c r="AX58">
+        <v>134658.32878752501</v>
+      </c>
+      <c r="AY58">
+        <v>316112.825338397</v>
+      </c>
+      <c r="AZ58">
+        <v>147397.048978593</v>
+      </c>
+      <c r="BA58">
+        <v>346017.19788669801</v>
+      </c>
+      <c r="BB58">
+        <v>153271.936576854</v>
+      </c>
+      <c r="BC58">
+        <v>359808.60116604803</v>
+      </c>
+      <c r="BD58">
+        <v>158620.08014257799</v>
+      </c>
+      <c r="BE58">
+        <v>372363.46344674501</v>
+      </c>
+      <c r="BF58">
+        <f t="shared" si="1"/>
+        <v>1.0348931688681422</v>
+      </c>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A59" s="2"/>
       <c r="B59" s="2">
         <v>56</v>
@@ -8773,7 +13945,7 @@
         <v>359023.92167527101</v>
       </c>
       <c r="AG59">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>0.95168700316850086</v>
       </c>
       <c r="AH59">
@@ -8812,8 +13984,48 @@
       <c r="AS59">
         <v>485099.84376572003</v>
       </c>
+      <c r="AT59">
+        <v>82700.419981855201</v>
+      </c>
+      <c r="AU59">
+        <v>525506.190307796</v>
+      </c>
+      <c r="AV59">
+        <v>79798.670648645493</v>
+      </c>
+      <c r="AW59">
+        <v>507067.502358475</v>
+      </c>
+      <c r="AX59">
+        <v>77859.625142654098</v>
+      </c>
+      <c r="AY59">
+        <v>494746.15723216702</v>
+      </c>
+      <c r="AZ59">
+        <v>86170.294096755795</v>
+      </c>
+      <c r="BA59">
+        <v>547554.93355926999</v>
+      </c>
+      <c r="BB59">
+        <v>87360.6606734448</v>
+      </c>
+      <c r="BC59">
+        <v>555118.92180652195</v>
+      </c>
+      <c r="BD59">
+        <v>88033.645974695697</v>
+      </c>
+      <c r="BE59">
+        <v>559395.29599991895</v>
+      </c>
+      <c r="BF59">
+        <f t="shared" si="1"/>
+        <v>1.007703528064726</v>
+      </c>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A60" s="2"/>
       <c r="B60" s="2">
         <v>57</v>
@@ -8906,7 +14118,7 @@
         <v>234654.223465027</v>
       </c>
       <c r="AG60">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.11841905248134</v>
       </c>
       <c r="AH60">
@@ -8945,8 +14157,48 @@
       <c r="AS60">
         <v>330902.14140702097</v>
       </c>
+      <c r="AT60">
+        <v>116197.266275956</v>
+      </c>
+      <c r="AU60">
+        <v>337811.78736788401</v>
+      </c>
+      <c r="AV60">
+        <v>115314.729621108</v>
+      </c>
+      <c r="AW60">
+        <v>335246.05329903099</v>
+      </c>
+      <c r="AX60">
+        <v>113654.52515466</v>
+      </c>
+      <c r="AY60">
+        <v>330419.46265553799</v>
+      </c>
+      <c r="AZ60">
+        <v>130918.451513152</v>
+      </c>
+      <c r="BA60">
+        <v>380609.60918015102</v>
+      </c>
+      <c r="BB60">
+        <v>134811.94261308599</v>
+      </c>
+      <c r="BC60">
+        <v>391928.87020687701</v>
+      </c>
+      <c r="BD60">
+        <v>140294.555773008</v>
+      </c>
+      <c r="BE60">
+        <v>407868.06921179598</v>
+      </c>
+      <c r="BF60">
+        <f t="shared" si="1"/>
+        <v>1.040668601413582</v>
+      </c>
     </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A61" s="2"/>
       <c r="B61" s="2">
         <v>58</v>
@@ -9039,7 +14291,7 @@
         <v>535593.21010637097</v>
       </c>
       <c r="AG61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.3175749586711358</v>
       </c>
       <c r="AH61">
@@ -9078,8 +14330,48 @@
       <c r="AS61">
         <v>528309.33453160105</v>
       </c>
+      <c r="AT61">
+        <v>78874.287438240004</v>
+      </c>
+      <c r="AU61">
+        <v>565205.65954586503</v>
+      </c>
+      <c r="AV61">
+        <v>77291.937198763495</v>
+      </c>
+      <c r="AW61">
+        <v>553866.68787609006</v>
+      </c>
+      <c r="AX61">
+        <v>78011.507787886294</v>
+      </c>
+      <c r="AY61">
+        <v>559023.06243900897</v>
+      </c>
+      <c r="AZ61">
+        <v>85167.142122628298</v>
+      </c>
+      <c r="BA61">
+        <v>610299.65909674403</v>
+      </c>
+      <c r="BB61">
+        <v>89634.239147487504</v>
+      </c>
+      <c r="BC61">
+        <v>642310.45250223705</v>
+      </c>
+      <c r="BD61">
+        <v>90071.503185439098</v>
+      </c>
+      <c r="BE61">
+        <v>645443.84510701499</v>
+      </c>
+      <c r="BF61">
+        <f t="shared" si="1"/>
+        <v>1.0048783148282443</v>
+      </c>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A62" s="2"/>
       <c r="B62" s="2">
         <v>59</v>
@@ -9175,7 +14467,7 @@
         <v>742450.50190593302</v>
       </c>
       <c r="AG62">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.092339659771377</v>
       </c>
       <c r="AH62">
@@ -9214,8 +14506,48 @@
       <c r="AS62">
         <v>796948.78045172803</v>
       </c>
+      <c r="AT62">
+        <v>8808.9664846469805</v>
+      </c>
+      <c r="AU62">
+        <v>797707.938264244</v>
+      </c>
+      <c r="AV62">
+        <v>8637.6109753919209</v>
+      </c>
+      <c r="AW62">
+        <v>782190.60711804102</v>
+      </c>
+      <c r="AX62">
+        <v>8620.9599807774193</v>
+      </c>
+      <c r="AY62">
+        <v>780682.75365905301</v>
+      </c>
+      <c r="AZ62">
+        <v>8938.3746714367498</v>
+      </c>
+      <c r="BA62">
+        <v>809426.67258551705</v>
+      </c>
+      <c r="BB62">
+        <v>8940.6100337587304</v>
+      </c>
+      <c r="BC62">
+        <v>809629.09886018303</v>
+      </c>
+      <c r="BD62">
+        <v>8941.53288044088</v>
+      </c>
+      <c r="BE62">
+        <v>809712.66849635204</v>
+      </c>
+      <c r="BF62">
+        <f t="shared" si="1"/>
+        <v>1.0001032196548847</v>
+      </c>
     </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A63" s="2"/>
       <c r="B63" s="2">
         <v>60</v>
@@ -9308,7 +14640,7 @@
         <v>366602.56881420698</v>
       </c>
       <c r="AG63">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.1593376756803628</v>
       </c>
       <c r="AH63">
@@ -9347,8 +14679,48 @@
       <c r="AS63">
         <v>467780.41492203501</v>
       </c>
+      <c r="AT63">
+        <v>34850.7047333726</v>
+      </c>
+      <c r="AU63">
+        <v>469530.52397631301</v>
+      </c>
+      <c r="AV63">
+        <v>35319.1202126567</v>
+      </c>
+      <c r="AW63">
+        <v>475841.31071963703</v>
+      </c>
+      <c r="AX63">
+        <v>33849.365894043003</v>
+      </c>
+      <c r="AY63">
+        <v>456039.85991355497</v>
+      </c>
+      <c r="AZ63">
+        <v>38937.874129512398</v>
+      </c>
+      <c r="BA63">
+        <v>524595.430205076</v>
+      </c>
+      <c r="BB63">
+        <v>39311.2573962405</v>
+      </c>
+      <c r="BC63">
+        <v>529625.88345450396</v>
+      </c>
+      <c r="BD63">
+        <v>39402.611763095003</v>
+      </c>
+      <c r="BE63">
+        <v>530856.666707378</v>
+      </c>
+      <c r="BF63">
+        <f t="shared" si="1"/>
+        <v>1.0023238729286534</v>
+      </c>
     </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
       <c r="B64" s="2">
         <v>61</v>
@@ -9441,7 +14813,7 @@
         <v>388740.17218685301</v>
       </c>
       <c r="AG64">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.1105630929271246</v>
       </c>
       <c r="AH64">
@@ -9480,8 +14852,48 @@
       <c r="AS64">
         <v>475482.38758984703</v>
       </c>
+      <c r="AT64">
+        <v>60123.566787829601</v>
+      </c>
+      <c r="AU64">
+        <v>488630.936141496</v>
+      </c>
+      <c r="AV64">
+        <v>59245.582667230497</v>
+      </c>
+      <c r="AW64">
+        <v>481495.46122398798</v>
+      </c>
+      <c r="AX64">
+        <v>59533.005169140299</v>
+      </c>
+      <c r="AY64">
+        <v>483831.37596889801</v>
+      </c>
+      <c r="AZ64">
+        <v>65843.624796678298</v>
+      </c>
+      <c r="BA64">
+        <v>535118.48584909597</v>
+      </c>
+      <c r="BB64">
+        <v>67358.063259874805</v>
+      </c>
+      <c r="BC64">
+        <v>547426.49622731796</v>
+      </c>
+      <c r="BD64">
+        <v>67377.292287513701</v>
+      </c>
+      <c r="BE64">
+        <v>547582.77268060099</v>
+      </c>
+      <c r="BF64">
+        <f t="shared" si="1"/>
+        <v>1.00028547477033</v>
+      </c>
     </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A65" s="2"/>
       <c r="B65" s="2">
         <v>62</v>
@@ -9577,7 +14989,7 @@
         <v>885098.74436812999</v>
       </c>
       <c r="AG65">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.1971868754810862</v>
       </c>
       <c r="AH65">
@@ -9616,8 +15028,48 @@
       <c r="AS65">
         <v>905291.79508797301</v>
       </c>
+      <c r="AT65">
+        <v>62761.014948170297</v>
+      </c>
+      <c r="AU65">
+        <v>914161.85146596504</v>
+      </c>
+      <c r="AV65">
+        <v>62027.160155230202</v>
+      </c>
+      <c r="AW65">
+        <v>903472.69902355596</v>
+      </c>
+      <c r="AX65">
+        <v>61735.558391068298</v>
+      </c>
+      <c r="AY65">
+        <v>899225.29784884397</v>
+      </c>
+      <c r="AZ65">
+        <v>63287.462543034097</v>
+      </c>
+      <c r="BA65">
+        <v>921829.96053682698</v>
+      </c>
+      <c r="BB65">
+        <v>63320.131982006598</v>
+      </c>
+      <c r="BC65">
+        <v>922305.81572881399</v>
+      </c>
+      <c r="BD65">
+        <v>63356.242822452899</v>
+      </c>
+      <c r="BE65">
+        <v>922831.79754710698</v>
+      </c>
+      <c r="BF65">
+        <f t="shared" si="1"/>
+        <v>1.000570290037559</v>
+      </c>
     </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A66" s="2"/>
       <c r="B66" s="2">
         <v>63</v>
@@ -9713,7 +15165,7 @@
         <v>409110.48217546497</v>
       </c>
       <c r="AG66">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.1871446624957938</v>
       </c>
       <c r="AH66">
@@ -9752,8 +15204,48 @@
       <c r="AS66">
         <v>446216.30705567001</v>
       </c>
+      <c r="AT66">
+        <v>107037.868128277</v>
+      </c>
+      <c r="AU66">
+        <v>468189.14529816201</v>
+      </c>
+      <c r="AV66">
+        <v>100926.08476658601</v>
+      </c>
+      <c r="AW66">
+        <v>441455.89025118999</v>
+      </c>
+      <c r="AX66">
+        <v>102530.423246579</v>
+      </c>
+      <c r="AY66">
+        <v>448473.34935095703</v>
+      </c>
+      <c r="AZ66">
+        <v>116870.56518556899</v>
+      </c>
+      <c r="BA66">
+        <v>511197.86839522701</v>
+      </c>
+      <c r="BB66">
+        <v>120656.090420901</v>
+      </c>
+      <c r="BC66">
+        <v>527755.95064618299</v>
+      </c>
+      <c r="BD66">
+        <v>123362.55464421499</v>
+      </c>
+      <c r="BE66">
+        <v>539594.16448256897</v>
+      </c>
+      <c r="BF66">
+        <f t="shared" si="1"/>
+        <v>1.0224312275814063</v>
+      </c>
     </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
       <c r="B67" s="2">
         <v>64</v>
@@ -9846,7 +15338,7 @@
         <v>180695.551087225</v>
       </c>
       <c r="AG67">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.2307956209299371</v>
       </c>
       <c r="AH67">
@@ -9885,8 +15377,48 @@
       <c r="AS67">
         <v>228886.28120293899</v>
       </c>
+      <c r="AT67">
+        <v>39172.522133411599</v>
+      </c>
+      <c r="AU67">
+        <v>234690.05754082999</v>
+      </c>
+      <c r="AV67">
+        <v>39010.470107999798</v>
+      </c>
+      <c r="AW67">
+        <v>233719.172923317</v>
+      </c>
+      <c r="AX67">
+        <v>38272.2497351356</v>
+      </c>
+      <c r="AY67">
+        <v>229296.35375442999</v>
+      </c>
+      <c r="AZ67">
+        <v>43850.276409247002</v>
+      </c>
+      <c r="BA67">
+        <v>262715.37631960999</v>
+      </c>
+      <c r="BB67">
+        <v>49739.379983738298</v>
+      </c>
+      <c r="BC67">
+        <v>297998.11997482198</v>
+      </c>
+      <c r="BD67">
+        <v>52421.221532094103</v>
+      </c>
+      <c r="BE67">
+        <v>314065.54461384402</v>
+      </c>
+      <c r="BF67">
+        <f t="shared" si="1"/>
+        <v>1.0539178725032883</v>
+      </c>
     </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
       <c r="B68" s="2">
         <v>65</v>
@@ -9979,7 +15511,7 @@
         <v>489648.05708832899</v>
       </c>
       <c r="AG68">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.1624023737076425</v>
       </c>
       <c r="AH68">
@@ -10018,8 +15550,48 @@
       <c r="AS68">
         <v>626167.29055732803</v>
       </c>
+      <c r="AT68">
+        <v>78179.430302677501</v>
+      </c>
+      <c r="AU68">
+        <v>643408.10656805302</v>
+      </c>
+      <c r="AV68">
+        <v>77545.233634684802</v>
+      </c>
+      <c r="AW68">
+        <v>638188.73779336095</v>
+      </c>
+      <c r="AX68">
+        <v>77570.981491309605</v>
+      </c>
+      <c r="AY68">
+        <v>638400.63981944404</v>
+      </c>
+      <c r="AZ68">
+        <v>82693.0140806032</v>
+      </c>
+      <c r="BA68">
+        <v>680554.404272552</v>
+      </c>
+      <c r="BB68">
+        <v>82055.078706205197</v>
+      </c>
+      <c r="BC68">
+        <v>675304.26635564596</v>
+      </c>
+      <c r="BD68">
+        <v>81756.762155378703</v>
+      </c>
+      <c r="BE68">
+        <v>672849.15397657105</v>
+      </c>
+      <c r="BF68">
+        <f t="shared" si="1"/>
+        <v>0.99636443526068008</v>
+      </c>
     </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
       <c r="B69" s="2">
         <v>66</v>
@@ -10112,7 +15684,7 @@
         <v>238368.33962693901</v>
       </c>
       <c r="AG69">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.4223447230336799</v>
       </c>
       <c r="AH69">
@@ -10151,8 +15723,48 @@
       <c r="AS69">
         <v>279487.57013179798</v>
       </c>
+      <c r="AT69">
+        <v>62311.144730938999</v>
+      </c>
+      <c r="AU69">
+        <v>290229.93485004798</v>
+      </c>
+      <c r="AV69">
+        <v>64826.550718366401</v>
+      </c>
+      <c r="AW69">
+        <v>301946.07518104097</v>
+      </c>
+      <c r="AX69">
+        <v>64484.815286842</v>
+      </c>
+      <c r="AY69">
+        <v>300354.35587536002</v>
+      </c>
+      <c r="AZ69">
+        <v>68890.593646317895</v>
+      </c>
+      <c r="BA69">
+        <v>320875.38420433499</v>
+      </c>
+      <c r="BB69">
+        <v>77476.015956640404</v>
+      </c>
+      <c r="BC69">
+        <v>360864.16259292798</v>
+      </c>
+      <c r="BD69">
+        <v>77722.261466531098</v>
+      </c>
+      <c r="BE69">
+        <v>362011.11340889003</v>
+      </c>
+      <c r="BF69">
+        <f t="shared" ref="BF69:BF103" si="3">BE69/BC69</f>
+        <v>1.0031783450252327</v>
+      </c>
     </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
       <c r="B70" s="2">
         <v>67</v>
@@ -10245,7 +15857,7 @@
         <v>450130.02941909799</v>
       </c>
       <c r="AG70">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.0664057950720907</v>
       </c>
       <c r="AH70">
@@ -10284,8 +15896,48 @@
       <c r="AS70">
         <v>591632.58073101402</v>
       </c>
+      <c r="AT70">
+        <v>68025.783561679302</v>
+      </c>
+      <c r="AU70">
+        <v>588412.28067220503</v>
+      </c>
+      <c r="AV70">
+        <v>67825.5431165583</v>
+      </c>
+      <c r="AW70">
+        <v>586680.23245713895</v>
+      </c>
+      <c r="AX70">
+        <v>67288.985518375601</v>
+      </c>
+      <c r="AY70">
+        <v>582039.09400156396</v>
+      </c>
+      <c r="AZ70">
+        <v>70083.842283693593</v>
+      </c>
+      <c r="BA70">
+        <v>606214.16347271297</v>
+      </c>
+      <c r="BB70">
+        <v>71597.240001236598</v>
+      </c>
+      <c r="BC70">
+        <v>619304.81463347794</v>
+      </c>
+      <c r="BD70">
+        <v>71111.762919115106</v>
+      </c>
+      <c r="BE70">
+        <v>615105.51457181503</v>
+      </c>
+      <c r="BF70">
+        <f t="shared" si="3"/>
+        <v>0.99321933244754734</v>
+      </c>
     </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A71" s="2"/>
       <c r="B71" s="2">
         <v>68</v>
@@ -10381,7 +16033,7 @@
         <v>461712.61730431003</v>
       </c>
       <c r="AG71">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.3476901838852475</v>
       </c>
       <c r="AH71">
@@ -10420,8 +16072,48 @@
       <c r="AS71">
         <v>508669.431215922</v>
       </c>
+      <c r="AT71">
+        <v>31026.698081615599</v>
+      </c>
+      <c r="AU71">
+        <v>520562.59625164099</v>
+      </c>
+      <c r="AV71">
+        <v>30617.6588034819</v>
+      </c>
+      <c r="AW71">
+        <v>513699.77933074202</v>
+      </c>
+      <c r="AX71">
+        <v>30564.7741255281</v>
+      </c>
+      <c r="AY71">
+        <v>512812.48590412101</v>
+      </c>
+      <c r="AZ71">
+        <v>33718.572939201302</v>
+      </c>
+      <c r="BA71">
+        <v>565726.58247290296</v>
+      </c>
+      <c r="BB71">
+        <v>34699.166888941501</v>
+      </c>
+      <c r="BC71">
+        <v>582178.88206993602</v>
+      </c>
+      <c r="BD71">
+        <v>35100.542837097797</v>
+      </c>
+      <c r="BE71">
+        <v>588913.12446645403</v>
+      </c>
+      <c r="BF71">
+        <f t="shared" si="3"/>
+        <v>1.011567307925314</v>
+      </c>
     </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A72" s="2"/>
       <c r="B72" s="2">
         <v>69</v>
@@ -10511,7 +16203,7 @@
         <v>300256.75452260202</v>
       </c>
       <c r="AG72">
-        <f t="shared" si="80"/>
+        <f t="shared" si="2"/>
         <v>1.170177221439014</v>
       </c>
       <c r="AH72">
@@ -10550,8 +16242,48 @@
       <c r="AS72">
         <v>365051.62290167401</v>
       </c>
+      <c r="AT72">
+        <v>35074.0255905452</v>
+      </c>
+      <c r="AU72">
+        <v>375063.55591200502</v>
+      </c>
+      <c r="AV72">
+        <v>33036.167417234603</v>
+      </c>
+      <c r="AW72">
+        <v>353271.750721207</v>
+      </c>
+      <c r="AX72">
+        <v>33228.394219855603</v>
+      </c>
+      <c r="AY72">
+        <v>355327.32509337302</v>
+      </c>
+      <c r="AZ72">
+        <v>40460.182370610601</v>
+      </c>
+      <c r="BA72">
+        <v>432660.34101486602</v>
+      </c>
+      <c r="BB72">
+        <v>40604.967825259402</v>
+      </c>
+      <c r="BC72">
+        <v>434208.60205848998</v>
+      </c>
+      <c r="BD72">
+        <v>42401.168411723003</v>
+      </c>
+      <c r="BE72">
+        <v>453416.245542444</v>
+      </c>
+      <c r="BF72">
+        <f t="shared" si="3"/>
+        <v>1.0442359810305339</v>
+      </c>
     </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A73" s="2"/>
       <c r="B73" s="2">
         <v>70</v>
@@ -10647,7 +16379,7 @@
         <v>494901.73279785097</v>
       </c>
       <c r="AG73">
-        <f t="shared" ref="AG73:AG103" si="81">AF73/Z73</f>
+        <f t="shared" ref="AG73:AG103" si="4">AF73/Z73</f>
         <v>1.267970891834008</v>
       </c>
       <c r="AH73">
@@ -10686,8 +16418,48 @@
       <c r="AS73">
         <v>547374.87807362794</v>
       </c>
+      <c r="AT73">
+        <v>21741.5476312971</v>
+      </c>
+      <c r="AU73">
+        <v>575236.71305925399</v>
+      </c>
+      <c r="AV73">
+        <v>20473.714504157499</v>
+      </c>
+      <c r="AW73">
+        <v>541692.45148545702</v>
+      </c>
+      <c r="AX73">
+        <v>20294.767398982702</v>
+      </c>
+      <c r="AY73">
+        <v>536957.87847630901</v>
+      </c>
+      <c r="AZ73">
+        <v>22569.9568660851</v>
+      </c>
+      <c r="BA73">
+        <v>597154.72061642504</v>
+      </c>
+      <c r="BB73">
+        <v>23163.343630190499</v>
+      </c>
+      <c r="BC73">
+        <v>612854.516120655</v>
+      </c>
+      <c r="BD73">
+        <v>23207.5294048793</v>
+      </c>
+      <c r="BE73">
+        <v>614023.58100173005</v>
+      </c>
+      <c r="BF73">
+        <f t="shared" si="3"/>
+        <v>1.00190757324997</v>
+      </c>
     </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A74" s="2"/>
       <c r="B74" s="2">
         <v>71</v>
@@ -10783,7 +16555,7 @@
         <v>842503.03665524104</v>
       </c>
       <c r="AG74">
-        <f t="shared" si="81"/>
+        <f t="shared" si="4"/>
         <v>1.3668596580836208</v>
       </c>
       <c r="AH74">
@@ -10822,8 +16594,48 @@
       <c r="AS74">
         <v>858094.93008233397</v>
       </c>
+      <c r="AT74">
+        <v>29631.084042873601</v>
+      </c>
+      <c r="AU74">
+        <v>863135.38457284099</v>
+      </c>
+      <c r="AV74">
+        <v>29150.170429084399</v>
+      </c>
+      <c r="AW74">
+        <v>849126.66466291202</v>
+      </c>
+      <c r="AX74">
+        <v>29178.673416899099</v>
+      </c>
+      <c r="AY74">
+        <v>849956.93929320597</v>
+      </c>
+      <c r="AZ74">
+        <v>29685.888635474599</v>
+      </c>
+      <c r="BA74">
+        <v>864731.80889004096</v>
+      </c>
+      <c r="BB74">
+        <v>29711.356189902901</v>
+      </c>
+      <c r="BC74">
+        <v>865473.66319931298</v>
+      </c>
+      <c r="BD74">
+        <v>29718.257473552902</v>
+      </c>
+      <c r="BE74">
+        <v>865674.69337791495</v>
+      </c>
+      <c r="BF74">
+        <f t="shared" si="3"/>
+        <v>1.0002322776384192</v>
+      </c>
     </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A75" s="2"/>
       <c r="B75" s="2">
         <v>72</v>
@@ -10919,7 +16731,7 @@
         <v>734574.74755228101</v>
       </c>
       <c r="AG75">
-        <f t="shared" si="81"/>
+        <f t="shared" si="4"/>
         <v>0.98689934754651298</v>
       </c>
       <c r="AH75">
@@ -10958,8 +16770,48 @@
       <c r="AS75">
         <v>750898.082097398</v>
       </c>
+      <c r="AT75">
+        <v>9985.6937084661895</v>
+      </c>
+      <c r="AU75">
+        <v>769027.03926233295</v>
+      </c>
+      <c r="AV75">
+        <v>9765.3181877852694</v>
+      </c>
+      <c r="AW75">
+        <v>752055.28555718495</v>
+      </c>
+      <c r="AX75">
+        <v>9756.6451238140799</v>
+      </c>
+      <c r="AY75">
+        <v>751387.34791541204</v>
+      </c>
+      <c r="AZ75">
+        <v>10021.4588509238</v>
+      </c>
+      <c r="BA75">
+        <v>771781.41591517197</v>
+      </c>
+      <c r="BB75">
+        <v>10015.6363669156</v>
+      </c>
+      <c r="BC75">
+        <v>771333.00964829605</v>
+      </c>
+      <c r="BD75">
+        <v>10016.2357375383</v>
+      </c>
+      <c r="BE75">
+        <v>771379.16890661896</v>
+      </c>
+      <c r="BF75">
+        <f t="shared" si="3"/>
+        <v>1.0000598434887986</v>
+      </c>
     </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A76" s="2"/>
       <c r="B76" s="2">
         <v>73</v>
@@ -11055,7 +16907,7 @@
         <v>291932.51140991302</v>
       </c>
       <c r="AG76">
-        <f t="shared" si="81"/>
+        <f t="shared" si="4"/>
         <v>1.1636276224555431</v>
       </c>
       <c r="AH76">
@@ -11094,8 +16946,48 @@
       <c r="AS76">
         <v>436720.711891616</v>
       </c>
+      <c r="AT76">
+        <v>56605.051310252296</v>
+      </c>
+      <c r="AU76">
+        <v>428027.97922372102</v>
+      </c>
+      <c r="AV76">
+        <v>54454.3503022234</v>
+      </c>
+      <c r="AW76">
+        <v>411765.11601500399</v>
+      </c>
+      <c r="AX76">
+        <v>54411.364132833703</v>
+      </c>
+      <c r="AY76">
+        <v>411440.06934880401</v>
+      </c>
+      <c r="AZ76">
+        <v>61236.644713821697</v>
+      </c>
+      <c r="BA76">
+        <v>463050.49963890301</v>
+      </c>
+      <c r="BB76">
+        <v>63974.288614855199</v>
+      </c>
+      <c r="BC76">
+        <v>483751.62364938902</v>
+      </c>
+      <c r="BD76">
+        <v>63662.7480127382</v>
+      </c>
+      <c r="BE76">
+        <v>481395.86049250502</v>
+      </c>
+      <c r="BF76">
+        <f t="shared" si="3"/>
+        <v>0.99513022170527865</v>
+      </c>
     </row>
-    <row r="77" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A77" s="2"/>
       <c r="B77" s="2">
         <v>74</v>
@@ -11188,7 +17080,7 @@
         <v>111811.68157672499</v>
       </c>
       <c r="AG77">
-        <f t="shared" si="81"/>
+        <f t="shared" si="4"/>
         <v>1.2994779172551572</v>
       </c>
       <c r="AH77">
@@ -11227,8 +17119,45 @@
       <c r="AS77">
         <v>205435.77208777599</v>
       </c>
+      <c r="AT77">
+        <v>131012.78296827299</v>
+      </c>
+      <c r="AU77">
+        <v>207973.18062556701</v>
+      </c>
+      <c r="AV77">
+        <v>130599.58424218099</v>
+      </c>
+      <c r="AW77">
+        <v>207317.25796406099</v>
+      </c>
+      <c r="AX77">
+        <v>133635.122652185</v>
+      </c>
+      <c r="AY77">
+        <v>212135.95247414199</v>
+      </c>
+      <c r="AZ77">
+        <v>629950.37424631999</v>
+      </c>
+      <c r="BB77">
+        <v>152253.47041579001</v>
+      </c>
+      <c r="BC77">
+        <v>241691.21353082501</v>
+      </c>
+      <c r="BD77">
+        <v>156561.54138796701</v>
+      </c>
+      <c r="BE77">
+        <v>248529.96011833299</v>
+      </c>
+      <c r="BF77">
+        <f t="shared" si="3"/>
+        <v>1.0282953876874625</v>
+      </c>
     </row>
-    <row r="78" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A78" s="2"/>
       <c r="B78" s="2">
         <v>75</v>
@@ -11321,7 +17250,7 @@
         <v>433918.27390380501</v>
       </c>
       <c r="AG78">
-        <f t="shared" si="81"/>
+        <f t="shared" si="4"/>
         <v>1.2318950886328714</v>
       </c>
       <c r="AH78">
@@ -11360,8 +17289,48 @@
       <c r="AS78">
         <v>503295.90197846497</v>
       </c>
+      <c r="AT78">
+        <v>22772.953888730499</v>
+      </c>
+      <c r="AU78">
+        <v>520596.85893879499</v>
+      </c>
+      <c r="AV78">
+        <v>21954.4604372666</v>
+      </c>
+      <c r="AW78">
+        <v>501885.84226629802</v>
+      </c>
+      <c r="AX78">
+        <v>22172.064960099498</v>
+      </c>
+      <c r="AY78">
+        <v>506860.34981727903</v>
+      </c>
+      <c r="AZ78">
+        <v>24068.789305239701</v>
+      </c>
+      <c r="BA78">
+        <v>550220.06244733103</v>
+      </c>
+      <c r="BB78">
+        <v>24383.583618463799</v>
+      </c>
+      <c r="BC78">
+        <v>557416.35904886003</v>
+      </c>
+      <c r="BD78">
+        <v>24576.042230081799</v>
+      </c>
+      <c r="BE78">
+        <v>561816.023193161</v>
+      </c>
+      <c r="BF78">
+        <f t="shared" si="3"/>
+        <v>1.0078929584194627</v>
+      </c>
     </row>
-    <row r="79" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A79" s="2"/>
       <c r="B79" s="2">
         <v>76</v>
@@ -11454,7 +17423,7 @@
         <v>200539.86114829601</v>
       </c>
       <c r="AG79">
-        <f t="shared" si="81"/>
+        <f t="shared" si="4"/>
         <v>1.1473179940181606</v>
       </c>
       <c r="AH79">
@@ -11493,8 +17462,48 @@
       <c r="AS79">
         <v>264048.662824233</v>
       </c>
+      <c r="AT79">
+        <v>51550.464054629803</v>
+      </c>
+      <c r="AU79">
+        <v>257376.26584104999</v>
+      </c>
+      <c r="AV79">
+        <v>55277.019283112699</v>
+      </c>
+      <c r="AW79">
+        <v>275981.85721149697</v>
+      </c>
+      <c r="AX79">
+        <v>51423.967724196802</v>
+      </c>
+      <c r="AY79">
+        <v>256744.70696439399</v>
+      </c>
+      <c r="AZ79">
+        <v>58772.8849422477</v>
+      </c>
+      <c r="BA79">
+        <v>293435.68358785397</v>
+      </c>
+      <c r="BB79">
+        <v>61554.310658213297</v>
+      </c>
+      <c r="BC79">
+        <v>307322.522001779</v>
+      </c>
+      <c r="BD79">
+        <v>65833.437471274607</v>
+      </c>
+      <c r="BE79">
+        <v>328686.94035190099</v>
+      </c>
+      <c r="BF79">
+        <f t="shared" si="3"/>
+        <v>1.06951790650084</v>
+      </c>
     </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A80" s="2"/>
       <c r="B80" s="2">
         <v>77</v>
@@ -11584,7 +17593,7 @@
         <v>139322.16188089299</v>
       </c>
       <c r="AG80">
-        <f t="shared" si="81"/>
+        <f t="shared" si="4"/>
         <v>1.1284420988226447</v>
       </c>
       <c r="AH80">
@@ -11623,8 +17632,48 @@
       <c r="AS80">
         <v>189942.01645919401</v>
       </c>
+      <c r="AT80">
+        <v>100259.389866574</v>
+      </c>
+      <c r="AU80">
+        <v>189871.93962344201</v>
+      </c>
+      <c r="AV80">
+        <v>107984.205593901</v>
+      </c>
+      <c r="AW80">
+        <v>204501.250128257</v>
+      </c>
+      <c r="AX80">
+        <v>103854.331980319</v>
+      </c>
+      <c r="AY80">
+        <v>196680.06635231301</v>
+      </c>
+      <c r="AZ80">
+        <v>114831.722898154</v>
+      </c>
+      <c r="BA80">
+        <v>217469.12669217499</v>
+      </c>
+      <c r="BB80">
+        <v>131270.69614717201</v>
+      </c>
+      <c r="BC80">
+        <v>248601.370169448</v>
+      </c>
+      <c r="BD80">
+        <v>135824.060857612</v>
+      </c>
+      <c r="BE80">
+        <v>257224.56437135499</v>
+      </c>
+      <c r="BF80">
+        <f t="shared" si="3"/>
+        <v>1.0346868329648762</v>
+      </c>
     </row>
-    <row r="81" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A81" s="2"/>
       <c r="B81" s="2">
         <v>78</v>
@@ -11720,7 +17769,7 @@
         <v>351053.48468441202</v>
       </c>
       <c r="AG81">
-        <f t="shared" si="81"/>
+        <f t="shared" si="4"/>
         <v>1.5095502861457673</v>
       </c>
       <c r="AH81">
@@ -11759,8 +17808,48 @@
       <c r="AS81">
         <v>378383.45481185499</v>
       </c>
+      <c r="AT81">
+        <v>34987.024994051499</v>
+      </c>
+      <c r="AU81">
+        <v>398931.77066486701</v>
+      </c>
+      <c r="AV81">
+        <v>34542.064638109303</v>
+      </c>
+      <c r="AW81">
+        <v>393858.20917451801</v>
+      </c>
+      <c r="AX81">
+        <v>32702.696876025399</v>
+      </c>
+      <c r="AY81">
+        <v>372885.22738036001</v>
+      </c>
+      <c r="AZ81">
+        <v>38852.771335124598</v>
+      </c>
+      <c r="BA81">
+        <v>443010.083497916</v>
+      </c>
+      <c r="BB81">
+        <v>41620.879388146503</v>
+      </c>
+      <c r="BC81">
+        <v>474572.81988866202</v>
+      </c>
+      <c r="BD81">
+        <v>42067.8901898326</v>
+      </c>
+      <c r="BE81">
+        <v>479669.761130545</v>
+      </c>
+      <c r="BF81">
+        <f t="shared" si="3"/>
+        <v>1.0107400614368913</v>
+      </c>
     </row>
-    <row r="82" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A82" s="2"/>
       <c r="B82" s="2">
         <v>79</v>
@@ -11856,7 +17945,7 @@
         <v>222429.82654697401</v>
       </c>
       <c r="AG82">
-        <f t="shared" si="81"/>
+        <f t="shared" si="4"/>
         <v>1.2060172394302466</v>
       </c>
       <c r="AH82">
@@ -11895,8 +17984,45 @@
       <c r="AS82">
         <v>269723.90763034602</v>
       </c>
+      <c r="AT82">
+        <v>142111.72822391201</v>
+      </c>
+      <c r="AU82">
+        <v>313584.49741819699</v>
+      </c>
+      <c r="AV82">
+        <v>127908.85423438701</v>
+      </c>
+      <c r="AW82">
+        <v>282244.35992523999</v>
+      </c>
+      <c r="AX82">
+        <v>127542.92600069899</v>
+      </c>
+      <c r="AY82">
+        <v>281436.90073319402</v>
+      </c>
+      <c r="AZ82">
+        <v>453184.80152541201</v>
+      </c>
+      <c r="BB82">
+        <v>153917.69026232499</v>
+      </c>
+      <c r="BC82">
+        <v>339635.59621646802</v>
+      </c>
+      <c r="BD82">
+        <v>167755.99010902501</v>
+      </c>
+      <c r="BE82">
+        <v>370171.26246149698</v>
+      </c>
+      <c r="BF82">
+        <f t="shared" si="3"/>
+        <v>1.0899071433771828</v>
+      </c>
     </row>
-    <row r="83" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A83" s="2"/>
       <c r="B83" s="2">
         <v>80</v>
@@ -11992,7 +18118,7 @@
         <v>300188.03929953597</v>
       </c>
       <c r="AG83">
-        <f t="shared" si="81"/>
+        <f t="shared" si="4"/>
         <v>1.1354860149158008</v>
       </c>
       <c r="AH83">
@@ -12031,8 +18157,48 @@
       <c r="AS83">
         <v>365889.31762285699</v>
       </c>
+      <c r="AT83">
+        <v>72649.114239204995</v>
+      </c>
+      <c r="AU83">
+        <v>393095.20860737999</v>
+      </c>
+      <c r="AV83">
+        <v>68906.196861460106</v>
+      </c>
+      <c r="AW83">
+        <v>372842.75401364098</v>
+      </c>
+      <c r="AX83">
+        <v>68584.639883960001</v>
+      </c>
+      <c r="AY83">
+        <v>371102.84970134101</v>
+      </c>
+      <c r="AZ83">
+        <v>76124.514727486807</v>
+      </c>
+      <c r="BA83">
+        <v>411900.163000039</v>
+      </c>
+      <c r="BB83">
+        <v>77984.201040161497</v>
+      </c>
+      <c r="BC83">
+        <v>421962.69145177101</v>
+      </c>
+      <c r="BD83">
+        <v>80368.421827349797</v>
+      </c>
+      <c r="BE83">
+        <v>434863.40989164001</v>
+      </c>
+      <c r="BF83">
+        <f t="shared" si="3"/>
+        <v>1.0305731257791626</v>
+      </c>
     </row>
-    <row r="84" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A84" s="2"/>
       <c r="B84" s="2">
         <v>81</v>
@@ -12125,7 +18291,7 @@
         <v>452083.57512996002</v>
       </c>
       <c r="AG84">
-        <f t="shared" si="81"/>
+        <f t="shared" si="4"/>
         <v>1.2211986372575871</v>
       </c>
       <c r="AH84">
@@ -12164,8 +18330,48 @@
       <c r="AS84">
         <v>501808.67648034898</v>
       </c>
+      <c r="AT84">
+        <v>75488.894357314697</v>
+      </c>
+      <c r="AU84">
+        <v>512342.28048805799</v>
+      </c>
+      <c r="AV84">
+        <v>76157.326380869898</v>
+      </c>
+      <c r="AW84">
+        <v>516878.92114514002</v>
+      </c>
+      <c r="AX84">
+        <v>74853.794158346194</v>
+      </c>
+      <c r="AY84">
+        <v>508031.86255111301</v>
+      </c>
+      <c r="AZ84">
+        <v>83330.362420243197</v>
+      </c>
+      <c r="BA84">
+        <v>565562.23640261695</v>
+      </c>
+      <c r="BB84">
+        <v>85020.951082302301</v>
+      </c>
+      <c r="BC84">
+        <v>577036.24271653697</v>
+      </c>
+      <c r="BD84">
+        <v>85753.106612132993</v>
+      </c>
+      <c r="BE84">
+        <v>582005.37409697298</v>
+      </c>
+      <c r="BF84">
+        <f t="shared" si="3"/>
+        <v>1.0086114718844048</v>
+      </c>
     </row>
-    <row r="85" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A85" s="2"/>
       <c r="B85" s="2">
         <v>82</v>
@@ -12261,7 +18467,7 @@
         <v>313788.41403087898</v>
       </c>
       <c r="AG85">
-        <f t="shared" si="81"/>
+        <f t="shared" si="4"/>
         <v>1.3146256026753826</v>
       </c>
       <c r="AH85">
@@ -12300,8 +18506,48 @@
       <c r="AS85">
         <v>365356.49619686999</v>
       </c>
+      <c r="AT85">
+        <v>124097.248636377</v>
+      </c>
+      <c r="AU85">
+        <v>370305.72132862202</v>
+      </c>
+      <c r="AV85">
+        <v>127466.521964049</v>
+      </c>
+      <c r="AW85">
+        <v>380359.62021571799</v>
+      </c>
+      <c r="AX85">
+        <v>124428.24415095001</v>
+      </c>
+      <c r="AY85">
+        <v>371293.41069423902</v>
+      </c>
+      <c r="AZ85">
+        <v>129216.613834972</v>
+      </c>
+      <c r="BA85">
+        <v>385581.88775004802</v>
+      </c>
+      <c r="BB85">
+        <v>140142.152993172</v>
+      </c>
+      <c r="BC85">
+        <v>418183.65534230298</v>
+      </c>
+      <c r="BD85">
+        <v>142430.91145774801</v>
+      </c>
+      <c r="BE85">
+        <v>425013.30195804202</v>
+      </c>
+      <c r="BF85">
+        <f t="shared" si="3"/>
+        <v>1.0163316918977827</v>
+      </c>
     </row>
-    <row r="86" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A86" s="2"/>
       <c r="B86" s="2">
         <v>83</v>
@@ -12397,7 +18643,7 @@
         <v>646783.55093840102</v>
       </c>
       <c r="AG86">
-        <f t="shared" si="81"/>
+        <f t="shared" si="4"/>
         <v>1.3920132432244314</v>
       </c>
       <c r="AH86">
@@ -12436,8 +18682,48 @@
       <c r="AS86">
         <v>673397.74081817595</v>
       </c>
+      <c r="AT86">
+        <v>57641.608209746199</v>
+      </c>
+      <c r="AU86">
+        <v>701326.25262774399</v>
+      </c>
+      <c r="AV86">
+        <v>55630.809042301298</v>
+      </c>
+      <c r="AW86">
+        <v>676860.83105658297</v>
+      </c>
+      <c r="AX86">
+        <v>55680.374261417499</v>
+      </c>
+      <c r="AY86">
+        <v>677463.89177024201</v>
+      </c>
+      <c r="AZ86">
+        <v>58527.800222869599</v>
+      </c>
+      <c r="BA86">
+        <v>712108.56323592295</v>
+      </c>
+      <c r="BB86">
+        <v>58868.638350262299</v>
+      </c>
+      <c r="BC86">
+        <v>716255.54549511301</v>
+      </c>
+      <c r="BD86">
+        <v>58674.650554423999</v>
+      </c>
+      <c r="BE86">
+        <v>713895.29327217501</v>
+      </c>
+      <c r="BF86">
+        <f t="shared" si="3"/>
+        <v>0.99670473445157559</v>
+      </c>
     </row>
-    <row r="87" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A87" s="2"/>
       <c r="B87" s="2">
         <v>84</v>
@@ -12533,7 +18819,7 @@
         <v>903982.65976466401</v>
       </c>
       <c r="AG87">
-        <f t="shared" si="81"/>
+        <f t="shared" si="4"/>
         <v>1.0317564486228821</v>
       </c>
       <c r="AH87">
@@ -12572,8 +18858,48 @@
       <c r="AS87">
         <v>926098.28514360799</v>
       </c>
+      <c r="AT87">
+        <v>5258.17243142607</v>
+      </c>
+      <c r="AU87">
+        <v>935341.53670591302</v>
+      </c>
+      <c r="AV87">
+        <v>5155.5465569385797</v>
+      </c>
+      <c r="AW87">
+        <v>917086.09826208698</v>
+      </c>
+      <c r="AX87">
+        <v>5149.5648167427398</v>
+      </c>
+      <c r="AY87">
+        <v>916022.04603863601</v>
+      </c>
+      <c r="AZ87">
+        <v>5314.4983289117399</v>
+      </c>
+      <c r="BA87">
+        <v>945360.97828902199</v>
+      </c>
+      <c r="BB87">
+        <v>5315.0146621883196</v>
+      </c>
+      <c r="BC87">
+        <v>945452.825402571</v>
+      </c>
+      <c r="BD87">
+        <v>5314.9991339594599</v>
+      </c>
+      <c r="BE87">
+        <v>945450.06318858196</v>
+      </c>
+      <c r="BF87">
+        <f t="shared" si="3"/>
+        <v>0.99999707842219643</v>
+      </c>
     </row>
-    <row r="88" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A88" s="2"/>
       <c r="B88" s="2">
         <v>85</v>
@@ -12669,7 +18995,7 @@
         <v>462737.19056628598</v>
       </c>
       <c r="AG88">
-        <f t="shared" si="81"/>
+        <f t="shared" si="4"/>
         <v>1.2453510908927183</v>
       </c>
       <c r="AH88">
@@ -12708,8 +19034,48 @@
       <c r="AS88">
         <v>559964.63090490899</v>
       </c>
+      <c r="AT88">
+        <v>43148.333676153597</v>
+      </c>
+      <c r="AU88">
+        <v>583716.122759889</v>
+      </c>
+      <c r="AV88">
+        <v>42792.637478159697</v>
+      </c>
+      <c r="AW88">
+        <v>578904.21954407101</v>
+      </c>
+      <c r="AX88">
+        <v>42634.8718529619</v>
+      </c>
+      <c r="AY88">
+        <v>576769.94618518802</v>
+      </c>
+      <c r="AZ88">
+        <v>46226.046082314402</v>
+      </c>
+      <c r="BA88">
+        <v>625351.80598644796</v>
+      </c>
+      <c r="BB88">
+        <v>46320.4218725182</v>
+      </c>
+      <c r="BC88">
+        <v>626628.53362913302</v>
+      </c>
+      <c r="BD88">
+        <v>46811.953166994797</v>
+      </c>
+      <c r="BE88">
+        <v>633278.03123384796</v>
+      </c>
+      <c r="BF88">
+        <f t="shared" si="3"/>
+        <v>1.0106115461519192</v>
+      </c>
     </row>
-    <row r="89" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A89" s="2"/>
       <c r="B89" s="2">
         <v>86</v>
@@ -12799,7 +19165,7 @@
         <v>364521.86243018397</v>
       </c>
       <c r="AG89">
-        <f t="shared" si="81"/>
+        <f t="shared" si="4"/>
         <v>1.0985491212884371</v>
       </c>
       <c r="AH89">
@@ -12838,8 +19204,48 @@
       <c r="AS89">
         <v>487523.451606007</v>
       </c>
+      <c r="AT89">
+        <v>130159.047322796</v>
+      </c>
+      <c r="AU89">
+        <v>485570.53629611799</v>
+      </c>
+      <c r="AV89">
+        <v>128155.499888554</v>
+      </c>
+      <c r="AW89">
+        <v>478096.11463930499</v>
+      </c>
+      <c r="AX89">
+        <v>127229.849117518</v>
+      </c>
+      <c r="AY89">
+        <v>474642.88760238601</v>
+      </c>
+      <c r="AZ89">
+        <v>136467.195990426</v>
+      </c>
+      <c r="BA89">
+        <v>509103.67666998802</v>
+      </c>
+      <c r="BB89">
+        <v>145621.18809250099</v>
+      </c>
+      <c r="BC89">
+        <v>543253.50294546597</v>
+      </c>
+      <c r="BD89">
+        <v>149094.01790906599</v>
+      </c>
+      <c r="BE89">
+        <v>556209.22036334604</v>
+      </c>
+      <c r="BF89">
+        <f t="shared" si="3"/>
+        <v>1.0238483826567808</v>
+      </c>
     </row>
-    <row r="90" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A90" s="2"/>
       <c r="B90" s="2">
         <v>87</v>
@@ -12935,7 +19341,7 @@
         <v>258971.93812591699</v>
       </c>
       <c r="AG90">
-        <f t="shared" si="81"/>
+        <f t="shared" si="4"/>
         <v>1.0861648177760814</v>
       </c>
       <c r="AH90">
@@ -12974,8 +19380,48 @@
       <c r="AS90">
         <v>334385.11109374301</v>
       </c>
+      <c r="AT90">
+        <v>61110.479927754597</v>
+      </c>
+      <c r="AU90">
+        <v>355842.66358177498</v>
+      </c>
+      <c r="AV90">
+        <v>59469.493499320997</v>
+      </c>
+      <c r="AW90">
+        <v>346287.29791805102</v>
+      </c>
+      <c r="AX90">
+        <v>60525.521552998398</v>
+      </c>
+      <c r="AY90">
+        <v>352436.48600955098</v>
+      </c>
+      <c r="AZ90">
+        <v>63638.839921017701</v>
+      </c>
+      <c r="BA90">
+        <v>370565.15235227603</v>
+      </c>
+      <c r="BB90">
+        <v>68620.401275895099</v>
+      </c>
+      <c r="BC90">
+        <v>399572.48568382999</v>
+      </c>
+      <c r="BD90">
+        <v>68837.0901497585</v>
+      </c>
+      <c r="BE90">
+        <v>400834.25201483001</v>
+      </c>
+      <c r="BF90">
+        <f t="shared" si="3"/>
+        <v>1.0031577908294678</v>
+      </c>
     </row>
-    <row r="91" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A91" s="2"/>
       <c r="B91" s="2">
         <v>88</v>
@@ -13071,7 +19517,7 @@
         <v>335088.377661273</v>
       </c>
       <c r="AG91">
-        <f t="shared" si="81"/>
+        <f t="shared" si="4"/>
         <v>1.2885774190452464</v>
       </c>
       <c r="AH91">
@@ -13110,8 +19556,48 @@
       <c r="AS91">
         <v>405890.48733303498</v>
       </c>
+      <c r="AT91">
+        <v>98115.300116850805</v>
+      </c>
+      <c r="AU91">
+        <v>425611.18116835499</v>
+      </c>
+      <c r="AV91">
+        <v>92708.831559876504</v>
+      </c>
+      <c r="AW91">
+        <v>402158.63639966899</v>
+      </c>
+      <c r="AX91">
+        <v>91235.1691364586</v>
+      </c>
+      <c r="AY91">
+        <v>395766.08392388502</v>
+      </c>
+      <c r="AZ91">
+        <v>100916.673733672</v>
+      </c>
+      <c r="BA91">
+        <v>437763.16900847299</v>
+      </c>
+      <c r="BB91">
+        <v>109407.70834216</v>
+      </c>
+      <c r="BC91">
+        <v>474596.15290350199</v>
+      </c>
+      <c r="BD91">
+        <v>107876.79195852199</v>
+      </c>
+      <c r="BE91">
+        <v>467955.24032886297</v>
+      </c>
+      <c r="BF91">
+        <f t="shared" si="3"/>
+        <v>0.98600723471100427</v>
+      </c>
     </row>
-    <row r="92" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A92" s="2"/>
       <c r="B92" s="2">
         <v>89</v>
@@ -13204,7 +19690,7 @@
         <v>235552.427973955</v>
       </c>
       <c r="AG92">
-        <f t="shared" si="81"/>
+        <f t="shared" si="4"/>
         <v>1.1266690681323388</v>
       </c>
       <c r="AH92">
@@ -13243,8 +19729,48 @@
       <c r="AS92">
         <v>326025.470129908</v>
       </c>
+      <c r="AT92">
+        <v>38335.296550509302</v>
+      </c>
+      <c r="AU92">
+        <v>325948.05827150802</v>
+      </c>
+      <c r="AV92">
+        <v>37320.435107003497</v>
+      </c>
+      <c r="AW92">
+        <v>317319.14062404598</v>
+      </c>
+      <c r="AX92">
+        <v>36287.876632834399</v>
+      </c>
+      <c r="AY92">
+        <v>308539.75295806699</v>
+      </c>
+      <c r="AZ92">
+        <v>43519.6524051163</v>
+      </c>
+      <c r="BA92">
+        <v>370028.34135921602</v>
+      </c>
+      <c r="BB92">
+        <v>44478.749598503797</v>
+      </c>
+      <c r="BC92">
+        <v>378183.12027076998</v>
+      </c>
+      <c r="BD92">
+        <v>46197.516877467897</v>
+      </c>
+      <c r="BE92">
+        <v>392797.03766830103</v>
+      </c>
+      <c r="BF92">
+        <f t="shared" si="3"/>
+        <v>1.0386424369947231</v>
+      </c>
     </row>
-    <row r="93" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A93" s="2"/>
       <c r="B93" s="2">
         <v>90</v>
@@ -13340,7 +19866,7 @@
         <v>366134.58109425701</v>
       </c>
       <c r="AG93">
-        <f t="shared" si="81"/>
+        <f t="shared" si="4"/>
         <v>1.3110317652337389</v>
       </c>
       <c r="AH93">
@@ -13379,8 +19905,48 @@
       <c r="AS93">
         <v>461074.29115170398</v>
       </c>
+      <c r="AT93">
+        <v>93171.395750152893</v>
+      </c>
+      <c r="AU93">
+        <v>473680.81378605001</v>
+      </c>
+      <c r="AV93">
+        <v>90685.717663829098</v>
+      </c>
+      <c r="AW93">
+        <v>461043.69475117599</v>
+      </c>
+      <c r="AX93">
+        <v>88772.054421742694</v>
+      </c>
+      <c r="AY93">
+        <v>451314.683454032</v>
+      </c>
+      <c r="AZ93">
+        <v>98810.559704214495</v>
+      </c>
+      <c r="BA93">
+        <v>502350.16825183301</v>
+      </c>
+      <c r="BB93">
+        <v>101042.335191608</v>
+      </c>
+      <c r="BC93">
+        <v>513696.45345605601</v>
+      </c>
+      <c r="BD93">
+        <v>103392.394510773</v>
+      </c>
+      <c r="BE93">
+        <v>525644.09040820098</v>
+      </c>
+      <c r="BF93">
+        <f t="shared" si="3"/>
+        <v>1.0232581651513524</v>
+      </c>
     </row>
-    <row r="94" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A94" s="2"/>
       <c r="B94" s="2">
         <v>91</v>
@@ -13473,7 +20039,7 @@
         <v>365843.35880403803</v>
       </c>
       <c r="AG94">
-        <f t="shared" si="81"/>
+        <f t="shared" si="4"/>
         <v>1.1380348156477671</v>
       </c>
       <c r="AH94">
@@ -13512,8 +20078,48 @@
       <c r="AS94">
         <v>453115.08552646497</v>
       </c>
+      <c r="AT94">
+        <v>92026.486216154299</v>
+      </c>
+      <c r="AU94">
+        <v>470107.48604639102</v>
+      </c>
+      <c r="AV94">
+        <v>90622.104971238005</v>
+      </c>
+      <c r="AW94">
+        <v>462933.35429754201</v>
+      </c>
+      <c r="AX94">
+        <v>90556.003555654694</v>
+      </c>
+      <c r="AY94">
+        <v>462595.68226874201</v>
+      </c>
+      <c r="AZ94">
+        <v>98815.047150112703</v>
+      </c>
+      <c r="BA94">
+        <v>504786.12527032098</v>
+      </c>
+      <c r="BB94">
+        <v>106027.953495094</v>
+      </c>
+      <c r="BC94">
+        <v>541632.48775082605</v>
+      </c>
+      <c r="BD94">
+        <v>106015.23622562901</v>
+      </c>
+      <c r="BE94">
+        <v>541567.52293663204</v>
+      </c>
+      <c r="BF94">
+        <f t="shared" si="3"/>
+        <v>0.9998800573900879</v>
+      </c>
     </row>
-    <row r="95" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A95" s="2"/>
       <c r="B95" s="2">
         <v>92</v>
@@ -13606,7 +20212,7 @@
         <v>160307.71871948399</v>
       </c>
       <c r="AG95">
-        <f t="shared" si="81"/>
+        <f t="shared" si="4"/>
         <v>1.106847341873076</v>
       </c>
       <c r="AH95">
@@ -13645,8 +20251,48 @@
       <c r="AS95">
         <v>231516.45373557101</v>
       </c>
+      <c r="AT95">
+        <v>82274.585096189199</v>
+      </c>
+      <c r="AU95">
+        <v>248185.728178869</v>
+      </c>
+      <c r="AV95">
+        <v>78783.754849794102</v>
+      </c>
+      <c r="AW95">
+        <v>237655.45026087601</v>
+      </c>
+      <c r="AX95">
+        <v>75404.453530582701</v>
+      </c>
+      <c r="AY95">
+        <v>227461.60537349401</v>
+      </c>
+      <c r="AZ95">
+        <v>83495.077287457694</v>
+      </c>
+      <c r="BA95">
+        <v>251867.40877163599</v>
+      </c>
+      <c r="BB95">
+        <v>92151.756834296204</v>
+      </c>
+      <c r="BC95">
+        <v>277980.75002314599</v>
+      </c>
+      <c r="BD95">
+        <v>100696.838846178</v>
+      </c>
+      <c r="BE95">
+        <v>303757.451284996</v>
+      </c>
+      <c r="BF95">
+        <f t="shared" si="3"/>
+        <v>1.0927283679164967</v>
+      </c>
     </row>
-    <row r="96" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A96" s="2"/>
       <c r="B96" s="2">
         <v>93</v>
@@ -13742,7 +20388,7 @@
         <v>333821.70408558199</v>
       </c>
       <c r="AG96">
-        <f t="shared" si="81"/>
+        <f t="shared" si="4"/>
         <v>1.2736233571794611</v>
       </c>
       <c r="AH96">
@@ -13781,8 +20427,48 @@
       <c r="AS96">
         <v>390573.24692311301</v>
       </c>
+      <c r="AT96">
+        <v>86540.348176987507</v>
+      </c>
+      <c r="AU96">
+        <v>405309.16583548201</v>
+      </c>
+      <c r="AV96">
+        <v>89264.566111152206</v>
+      </c>
+      <c r="AW96">
+        <v>418067.96010555199</v>
+      </c>
+      <c r="AX96">
+        <v>83966.139808211999</v>
+      </c>
+      <c r="AY96">
+        <v>393252.936936318</v>
+      </c>
+      <c r="AZ96">
+        <v>94280.242755114698</v>
+      </c>
+      <c r="BA96">
+        <v>441558.733594322</v>
+      </c>
+      <c r="BB96">
+        <v>97099.486036966104</v>
+      </c>
+      <c r="BC96">
+        <v>454762.57627493597</v>
+      </c>
+      <c r="BD96">
+        <v>99022.969005034494</v>
+      </c>
+      <c r="BE96">
+        <v>463771.15197065799</v>
+      </c>
+      <c r="BF96">
+        <f t="shared" si="3"/>
+        <v>1.0198094042159611</v>
+      </c>
     </row>
-    <row r="97" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A97" s="2"/>
       <c r="B97" s="2">
         <v>94</v>
@@ -13872,7 +20558,7 @@
         <v>110093.483082698</v>
       </c>
       <c r="AG97">
-        <f t="shared" si="81"/>
+        <f t="shared" si="4"/>
         <v>1.29986102248835</v>
       </c>
       <c r="AH97">
@@ -13908,8 +20594,48 @@
       <c r="AS97">
         <v>168517.17583234701</v>
       </c>
+      <c r="AT97">
+        <v>116197.801278403</v>
+      </c>
+      <c r="AU97">
+        <v>169704.30203394199</v>
+      </c>
+      <c r="AV97">
+        <v>130228.015357108</v>
+      </c>
+      <c r="AW97">
+        <v>190195.11736278501</v>
+      </c>
+      <c r="AX97">
+        <v>129753.948063877</v>
+      </c>
+      <c r="AY97">
+        <v>189502.75263445301</v>
+      </c>
+      <c r="AZ97">
+        <v>121188.10567164099</v>
+      </c>
+      <c r="BA97">
+        <v>176992.530508784</v>
+      </c>
+      <c r="BB97">
+        <v>152119.55309225299</v>
+      </c>
+      <c r="BC97">
+        <v>222167.22088728601</v>
+      </c>
+      <c r="BD97">
+        <v>161729.21397393299</v>
+      </c>
+      <c r="BE97">
+        <v>236201.91667986001</v>
+      </c>
+      <c r="BF97">
+        <f t="shared" si="3"/>
+        <v>1.0631717664582676</v>
+      </c>
     </row>
-    <row r="98" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A98" s="2"/>
       <c r="B98" s="2">
         <v>95</v>
@@ -14002,7 +20728,7 @@
         <v>291973.00382397498</v>
       </c>
       <c r="AG98">
-        <f t="shared" si="81"/>
+        <f t="shared" si="4"/>
         <v>1.2804462553161975</v>
       </c>
       <c r="AH98">
@@ -14041,8 +20767,48 @@
       <c r="AS98">
         <v>376439.58320715697</v>
       </c>
+      <c r="AT98">
+        <v>141873.039151</v>
+      </c>
+      <c r="AU98">
+        <v>375573.871451238</v>
+      </c>
+      <c r="AV98">
+        <v>143702.751112331</v>
+      </c>
+      <c r="AW98">
+        <v>380417.58248379198</v>
+      </c>
+      <c r="AX98">
+        <v>137663.89462430001</v>
+      </c>
+      <c r="AY98">
+        <v>364431.19970154797</v>
+      </c>
+      <c r="AZ98">
+        <v>156479.17280224501</v>
+      </c>
+      <c r="BA98">
+        <v>414240.006998625</v>
+      </c>
+      <c r="BB98">
+        <v>166931.575968505</v>
+      </c>
+      <c r="BC98">
+        <v>441910.16580126598</v>
+      </c>
+      <c r="BD98">
+        <v>167497.53982411299</v>
+      </c>
+      <c r="BE98">
+        <v>443408.41548721201</v>
+      </c>
+      <c r="BF98">
+        <f t="shared" si="3"/>
+        <v>1.0033903942518032</v>
+      </c>
     </row>
-    <row r="99" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A99" s="2"/>
       <c r="B99" s="2">
         <v>96</v>
@@ -14138,7 +20904,7 @@
         <v>494522.42917064897</v>
       </c>
       <c r="AG99">
-        <f t="shared" si="81"/>
+        <f t="shared" si="4"/>
         <v>1.3190062506325193</v>
       </c>
       <c r="AH99">
@@ -14177,8 +20943,48 @@
       <c r="AS99">
         <v>558702.55099733104</v>
       </c>
+      <c r="AT99">
+        <v>77494.604135015601</v>
+      </c>
+      <c r="AU99">
+        <v>554929.80328272597</v>
+      </c>
+      <c r="AV99">
+        <v>76332.283134612997</v>
+      </c>
+      <c r="AW99">
+        <v>546606.55844130495</v>
+      </c>
+      <c r="AX99">
+        <v>75930.841682241895</v>
+      </c>
+      <c r="AY99">
+        <v>543731.88311803096</v>
+      </c>
+      <c r="AZ99">
+        <v>82051.096672635205</v>
+      </c>
+      <c r="BA99">
+        <v>587558.31381947396</v>
+      </c>
+      <c r="BB99">
+        <v>83472.100404476601</v>
+      </c>
+      <c r="BC99">
+        <v>597733.95546803204</v>
+      </c>
+      <c r="BD99">
+        <v>82883.093028592804</v>
+      </c>
+      <c r="BE99">
+        <v>593516.142487637</v>
+      </c>
+      <c r="BF99">
+        <f t="shared" si="3"/>
+        <v>0.99294366173811821</v>
+      </c>
     </row>
-    <row r="100" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A100" s="2"/>
       <c r="B100" s="2">
         <v>97</v>
@@ -14268,7 +21074,7 @@
         <v>212836.08779412799</v>
       </c>
       <c r="AG100">
-        <f t="shared" si="81"/>
+        <f t="shared" si="4"/>
         <v>1.2485833202879544</v>
       </c>
       <c r="AH100">
@@ -14307,8 +21113,48 @@
       <c r="AS100">
         <v>273733.59773813398</v>
       </c>
+      <c r="AT100">
+        <v>49533.430745195401</v>
+      </c>
+      <c r="AU100">
+        <v>265784.423444307</v>
+      </c>
+      <c r="AV100">
+        <v>47702.003063757198</v>
+      </c>
+      <c r="AW100">
+        <v>255957.424929003</v>
+      </c>
+      <c r="AX100">
+        <v>47827.267860203901</v>
+      </c>
+      <c r="AY100">
+        <v>256629.56556615501</v>
+      </c>
+      <c r="AZ100">
+        <v>55179.191635756899</v>
+      </c>
+      <c r="BA100">
+        <v>296078.21252024098</v>
+      </c>
+      <c r="BB100">
+        <v>60082.299248896001</v>
+      </c>
+      <c r="BC100">
+        <v>322387.10351443</v>
+      </c>
+      <c r="BD100">
+        <v>60600.366410773699</v>
+      </c>
+      <c r="BE100">
+        <v>325166.92675407999</v>
+      </c>
+      <c r="BF100">
+        <f t="shared" si="3"/>
+        <v>1.0086226254380104</v>
+      </c>
     </row>
-    <row r="101" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A101" s="2"/>
       <c r="B101" s="2">
         <v>98</v>
@@ -14404,7 +21250,7 @@
         <v>561863.99194242805</v>
       </c>
       <c r="AG101">
-        <f t="shared" si="81"/>
+        <f t="shared" si="4"/>
         <v>0.99565435427550741</v>
       </c>
       <c r="AH101">
@@ -14443,8 +21289,48 @@
       <c r="AS101">
         <v>658425.59329466405</v>
       </c>
+      <c r="AT101">
+        <v>119757.220840792</v>
+      </c>
+      <c r="AU101">
+        <v>682544.18982726894</v>
+      </c>
+      <c r="AV101">
+        <v>118841.99324045599</v>
+      </c>
+      <c r="AW101">
+        <v>677327.94251797895</v>
+      </c>
+      <c r="AX101">
+        <v>120265.749540833</v>
+      </c>
+      <c r="AY101">
+        <v>685442.49781351502</v>
+      </c>
+      <c r="AZ101">
+        <v>124688.24978552401</v>
+      </c>
+      <c r="BA101">
+        <v>710648.09147485101</v>
+      </c>
+      <c r="BB101">
+        <v>126961.30250815301</v>
+      </c>
+      <c r="BC101">
+        <v>723603.125986411</v>
+      </c>
+      <c r="BD101">
+        <v>126908.24674437501</v>
+      </c>
+      <c r="BE101">
+        <v>723300.74001712305</v>
+      </c>
+      <c r="BF101">
+        <f t="shared" si="3"/>
+        <v>0.99958211074768955</v>
+      </c>
     </row>
-    <row r="102" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A102" s="2"/>
       <c r="B102" s="2">
         <v>99</v>
@@ -14540,7 +21426,7 @@
         <v>587421.85534948995</v>
       </c>
       <c r="AG102">
-        <f t="shared" si="81"/>
+        <f t="shared" si="4"/>
         <v>1.2546047598555998</v>
       </c>
       <c r="AH102">
@@ -14579,8 +21465,48 @@
       <c r="AS102">
         <v>642456.26763191004</v>
       </c>
+      <c r="AT102">
+        <v>103157.59692149999</v>
+      </c>
+      <c r="AU102">
+        <v>662240.15243325999</v>
+      </c>
+      <c r="AV102">
+        <v>99618.320716702307</v>
+      </c>
+      <c r="AW102">
+        <v>639519.08405520802</v>
+      </c>
+      <c r="AX102">
+        <v>99557.888037005498</v>
+      </c>
+      <c r="AY102">
+        <v>639131.12477534194</v>
+      </c>
+      <c r="AZ102">
+        <v>106893.190657143</v>
+      </c>
+      <c r="BA102">
+        <v>686221.51918420906</v>
+      </c>
+      <c r="BB102">
+        <v>107581.90500997999</v>
+      </c>
+      <c r="BC102">
+        <v>690642.854225124</v>
+      </c>
+      <c r="BD102">
+        <v>108193.118883492</v>
+      </c>
+      <c r="BE102">
+        <v>694566.65994417202</v>
+      </c>
+      <c r="BF102">
+        <f t="shared" si="3"/>
+        <v>1.0056813817663406</v>
+      </c>
     </row>
-    <row r="103" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A103" s="2"/>
       <c r="B103" s="2">
         <v>100</v>
@@ -14670,7 +21596,7 @@
         <v>168059.994301567</v>
       </c>
       <c r="AG103">
-        <f t="shared" si="81"/>
+        <f t="shared" si="4"/>
         <v>1.4058765390455075</v>
       </c>
       <c r="AH103">
@@ -14708,6 +21634,46 @@
       </c>
       <c r="AS103">
         <v>217151.39301702299</v>
+      </c>
+      <c r="AT103">
+        <v>74056.2519638347</v>
+      </c>
+      <c r="AU103">
+        <v>233189.903440961</v>
+      </c>
+      <c r="AV103">
+        <v>74102.813403583001</v>
+      </c>
+      <c r="AW103">
+        <v>233336.51709411101</v>
+      </c>
+      <c r="AX103">
+        <v>74953.011993481996</v>
+      </c>
+      <c r="AY103">
+        <v>236013.640521597</v>
+      </c>
+      <c r="AZ103">
+        <v>88293.101276252404</v>
+      </c>
+      <c r="BA103">
+        <v>278019.1977737</v>
+      </c>
+      <c r="BB103">
+        <v>95888.030756223205</v>
+      </c>
+      <c r="BC103">
+        <v>301934.27347777702</v>
+      </c>
+      <c r="BD103">
+        <v>96713.630323627294</v>
+      </c>
+      <c r="BE103">
+        <v>304533.93897931802</v>
+      </c>
+      <c r="BF103">
+        <f t="shared" si="3"/>
+        <v>1.0086100377794054</v>
       </c>
     </row>
   </sheetData>
@@ -14727,5 +21693,6 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -10,12 +10,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="24">
   <si>
     <t>seed</t>
     <phoneticPr fontId="2"/>
@@ -231,6 +230,13 @@
     <t>フル</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>全探索</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンタンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -1049,11 +1055,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181617744"/>
-        <c:axId val="181618136"/>
+        <c:axId val="255272120"/>
+        <c:axId val="255268592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="181617744"/>
+        <c:axId val="255272120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1110,12 +1116,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181618136"/>
+        <c:crossAx val="255268592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181618136"/>
+        <c:axId val="255268592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1172,7 +1178,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181617744"/>
+        <c:crossAx val="255272120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1297,21 +1303,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="5"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$C$4:$C$103</c:f>
@@ -1623,309 +1614,309 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$BF$4:$BF$103</c:f>
+              <c:f>Sheet1!$BH$4:$BH$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.99999146907258485</c:v>
+                  <c:v>1.0000085310001925</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99973951760984725</c:v>
+                  <c:v>1.0025540272546458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0459524756834919</c:v>
+                  <c:v>1.0490253672150522</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0000328403940824</c:v>
+                  <c:v>1.0000005924578073</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0023068732718354</c:v>
+                  <c:v>1.0002669259800823</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0000468833459761</c:v>
+                  <c:v>1.0000046755011949</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.024037168498283</c:v>
+                  <c:v>1.0320115613771172</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0798973062825576</c:v>
+                  <c:v>1.003631157582842</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0202428152530656</c:v>
+                  <c:v>0.99331607851154669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1147817885932387</c:v>
+                  <c:v>1.0127367636813067</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1175885654832205</c:v>
+                  <c:v>0.99127565878664348</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0082812005407742</c:v>
+                  <c:v>1.046968385288048</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.000030529394925</c:v>
+                  <c:v>0.99998728138550486</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0663516948429896</c:v>
+                  <c:v>0.97939513009392942</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.99709301790885485</c:v>
+                  <c:v>1.0042997953552966</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0358445224934596</c:v>
+                  <c:v>1.0276968335952295</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.9888977715517534</c:v>
+                  <c:v>1.0257319621013512</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0074440935595266</c:v>
+                  <c:v>1.0193151297905949</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0306727514104161</c:v>
+                  <c:v>0.98737771842394928</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.99108524351486504</c:v>
+                  <c:v>1.0099870140874168</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0844273521070733</c:v>
+                  <c:v>1.0333483130137875</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0560615752811306</c:v>
+                  <c:v>0.99797393033165271</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0006184998403924</c:v>
+                  <c:v>1.0002269818743599</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.024496257361212</c:v>
+                  <c:v>1.0774825606126024</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.99468661347237364</c:v>
+                  <c:v>1.0522437407487779</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.038233970306685</c:v>
+                  <c:v>1.0604048546579854</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0378563965334799</c:v>
+                  <c:v>1.0303308718483428</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.0312832153265525</c:v>
+                  <c:v>1.0131925549922094</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.99767202648388886</c:v>
+                  <c:v>1.0034648079834225</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.9997278198031071</c:v>
+                  <c:v>1.0000805832817441</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.99473588837642668</c:v>
+                  <c:v>1.048206501919474</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.99769984045341242</c:v>
+                  <c:v>1.0077298262711027</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.98079407392980522</c:v>
+                  <c:v>1.011263064307655</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.99236225741947792</c:v>
+                  <c:v>1.0749460324588509</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.99682219435205954</c:v>
+                  <c:v>1.0108840252834088</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.0962137846329196</c:v>
+                  <c:v>1.0591552225356353</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.0115885341398745</c:v>
+                  <c:v>0.94876092190222561</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.0041184915185517</c:v>
+                  <c:v>1.004107907877291</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.99768136084384662</c:v>
+                  <c:v>1.010494379276667</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.0000313322556509</c:v>
+                  <c:v>1.0002915955243656</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1</c:v>
+                  <c:v>0.99999923070677366</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.98313731540466476</c:v>
+                  <c:v>1.0550014484858636</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.97244519777802152</c:v>
+                  <c:v>1.0039347045019247</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.0133985487748951</c:v>
+                  <c:v>1.011095264766606</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.99998167624621503</c:v>
+                  <c:v>1.000092941870089</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.99387482054856646</c:v>
+                  <c:v>1.0046085382828012</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.0056462302861706</c:v>
+                  <c:v>1.0142141477834141</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.9994657089504555</c:v>
+                  <c:v>1.0237841609433487</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.0099918945600881</c:v>
+                  <c:v>1.0087483871282883</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.0153580932584014</c:v>
+                  <c:v>0.97707257495842692</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.0428894760985965</c:v>
+                  <c:v>1.0316373515780306</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.99892983429858462</c:v>
+                  <c:v>0.99781464200788705</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.0088479324252688</c:v>
+                  <c:v>1.0544255841865098</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.0287045785682294</c:v>
+                  <c:v>1.0121556684673834</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.0348931688681422</c:v>
+                  <c:v>1.0231428117429879</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.007703528064726</c:v>
+                  <c:v>1.0045338320491122</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.040668601413582</c:v>
+                  <c:v>0.98733599586526155</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.0048783148282443</c:v>
+                  <c:v>1.019108900542516</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.0001032196548847</c:v>
+                  <c:v>0.98309825468979717</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.0023238729286534</c:v>
+                  <c:v>1.0214873638838988</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.00028547477033</c:v>
+                  <c:v>0.99305570073452254</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.000570290037559</c:v>
+                  <c:v>0.98884476031727608</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.0224312275814063</c:v>
+                  <c:v>0.97992491567895568</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.0539178725032883</c:v>
+                  <c:v>1.0491432508336467</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.99636443526068008</c:v>
+                  <c:v>1.0127802592697952</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.0031783450252327</c:v>
+                  <c:v>1.0393465097892853</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.99321933244754734</c:v>
+                  <c:v>1.0061203581856808</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.011567307925314</c:v>
+                  <c:v>1.0168972145876258</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.0442359810305339</c:v>
+                  <c:v>0.99750907567114011</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.00190757324997</c:v>
+                  <c:v>1.0052681165713304</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.0002322776384192</c:v>
+                  <c:v>0.9998579963874914</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.0000598434887986</c:v>
+                  <c:v>1.0001207454759558</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.99513022170527865</c:v>
+                  <c:v>1.028402459586218</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.0282953876874625</c:v>
+                  <c:v>1.1067032583338745</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.0078929584194627</c:v>
+                  <c:v>1.0041493927783642</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.06951790650084</c:v>
+                  <c:v>1.0448812246812553</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.0346868329648762</c:v>
+                  <c:v>1.0316724477578014</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.0107400614368913</c:v>
+                  <c:v>0.97097121426642852</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.0899071433771828</c:v>
+                  <c:v>1.0227261800010583</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.0305731257791626</c:v>
+                  <c:v>1.0708163700636681</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.0086114718844048</c:v>
+                  <c:v>1.0035746726791346</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.0163316918977827</c:v>
+                  <c:v>1.0686616628755325</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.99670473445157559</c:v>
+                  <c:v>1.0030529319201409</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.99999707842219643</c:v>
+                  <c:v>1.0000096141170389</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.0106115461519192</c:v>
+                  <c:v>1.0157181405630435</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.0238483826567808</c:v>
+                  <c:v>1.0190190818195615</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.0031577908294678</c:v>
+                  <c:v>1.066145172077595</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.98600723471100427</c:v>
+                  <c:v>1.0151226334884866</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.0386424369947231</c:v>
+                  <c:v>1.0305737223056333</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.0232581651513524</c:v>
+                  <c:v>1.0206904209930643</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.9998800573900879</c:v>
+                  <c:v>1.0161988260387624</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.0927283679164967</c:v>
+                  <c:v>1.0392211493187145</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.0198094042159611</c:v>
+                  <c:v>0.99241816704444463</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.0631717664582676</c:v>
+                  <c:v>1.0669019840204981</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.0033903942518032</c:v>
+                  <c:v>1.0013294465849711</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.99294366173811821</c:v>
+                  <c:v>1.0107298494853536</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.0086226254380104</c:v>
+                  <c:v>1.0620838808876731</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.99958211074768955</c:v>
+                  <c:v>1.0039653366428631</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.0056813817663406</c:v>
+                  <c:v>0.99956627279689003</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.0086100377794054</c:v>
+                  <c:v>1.0526044307597977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1940,11 +1931,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="485345360"/>
-        <c:axId val="485344968"/>
+        <c:axId val="461767672"/>
+        <c:axId val="461767280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="485345360"/>
+        <c:axId val="461767672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2001,12 +1992,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485344968"/>
+        <c:crossAx val="461767280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485344968"/>
+        <c:axId val="461767280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2063,7 +2054,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485345360"/>
+        <c:crossAx val="461767672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3258,20 +3249,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>530087</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>24019</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
+      <xdr:col>58</xdr:col>
       <xdr:colOff>289891</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>158197</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvPr id="4" name="グラフ 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3578,8 +3569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CL103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BE15" sqref="BE15"/>
+    <sheetView tabSelected="1" topLeftCell="AW46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BC79" sqref="BC79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3653,6 +3644,9 @@
       <c r="AY1" t="s">
         <v>22</v>
       </c>
+      <c r="BF1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" spans="1:90" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
@@ -4146,15 +4140,15 @@
       </c>
       <c r="BF3" s="2">
         <f>AVERAGE(BF4:BF103)</f>
-        <v>1.0172697596578368</v>
-      </c>
-      <c r="BG3" s="4" t="e">
+        <v>86814.941578951155</v>
+      </c>
+      <c r="BG3" s="4">
         <f>AVERAGE(BG4:BG103)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BH3" s="2" t="e">
+        <v>0.5351839758609559</v>
+      </c>
+      <c r="BH3" s="2">
         <f>AVERAGE(BH4:BH103)</f>
-        <v>#DIV/0!</v>
+        <v>1.0172024991800281</v>
       </c>
       <c r="BI3" s="4" t="e">
         <f>AVERAGE(BI4:BI103)/1000000</f>
@@ -4449,8 +4443,14 @@
         <v>975030.44582839601</v>
       </c>
       <c r="BF4">
-        <f>BE4/BC4</f>
-        <v>0.99999146907258485</v>
+        <v>5148.6405210845296</v>
+      </c>
+      <c r="BG4">
+        <v>975038.76381331705</v>
+      </c>
+      <c r="BH4">
+        <f>BG4/BE4</f>
+        <v>1.0000085310001925</v>
       </c>
     </row>
     <row r="5" spans="1:90" x14ac:dyDescent="0.15">
@@ -4625,8 +4625,14 @@
         <v>731000.71148256399</v>
       </c>
       <c r="BF5">
-        <f t="shared" ref="BF5:BF68" si="1">BE5/BC5</f>
-        <v>0.99973951760984725</v>
+        <v>99465.021567878197</v>
+      </c>
+      <c r="BG5">
+        <v>732867.707222856</v>
+      </c>
+      <c r="BH5">
+        <f t="shared" ref="BH5:BH68" si="1">BG5/BE5</f>
+        <v>1.0025540272546458</v>
       </c>
     </row>
     <row r="6" spans="1:90" x14ac:dyDescent="0.15">
@@ -4792,8 +4798,14 @@
         <v>266335.81790716498</v>
       </c>
       <c r="BF6">
+        <v>149139.17450905501</v>
+      </c>
+      <c r="BG6">
+        <v>279393.02918258501</v>
+      </c>
+      <c r="BH6">
         <f t="shared" si="1"/>
-        <v>1.0459524756834919</v>
+        <v>1.0490253672150522</v>
       </c>
     </row>
     <row r="7" spans="1:90" x14ac:dyDescent="0.15">
@@ -4968,8 +4980,14 @@
         <v>962208.19929943304</v>
       </c>
       <c r="BF7">
+        <v>55072.580518829003</v>
+      </c>
+      <c r="BG7">
+        <v>962208.76936719299</v>
+      </c>
+      <c r="BH7">
         <f t="shared" si="1"/>
-        <v>1.0000328403940824</v>
+        <v>1.0000005924578073</v>
       </c>
     </row>
     <row r="8" spans="1:90" x14ac:dyDescent="0.15">
@@ -5144,8 +5162,14 @@
         <v>578517.30014935404</v>
       </c>
       <c r="BF8">
+        <v>70351.166068221399</v>
+      </c>
+      <c r="BG8">
+        <v>578671.72144669096</v>
+      </c>
+      <c r="BH8">
         <f t="shared" si="1"/>
-        <v>1.0023068732718354</v>
+        <v>1.0002669259800823</v>
       </c>
     </row>
     <row r="9" spans="1:90" x14ac:dyDescent="0.15">
@@ -5320,8 +5344,14 @@
         <v>844934.07127556205</v>
       </c>
       <c r="BF9">
+        <v>20765.637610912399</v>
+      </c>
+      <c r="BG9">
+        <v>844938.02176582196</v>
+      </c>
+      <c r="BH9">
         <f t="shared" si="1"/>
-        <v>1.0000468833459761</v>
+        <v>1.0000046755011949</v>
       </c>
     </row>
     <row r="10" spans="1:90" x14ac:dyDescent="0.15">
@@ -5496,8 +5526,14 @@
         <v>581148.46328343102</v>
       </c>
       <c r="BF10">
+        <v>111777.19392075601</v>
+      </c>
+      <c r="BG10">
+        <v>599751.93298504595</v>
+      </c>
+      <c r="BH10">
         <f t="shared" si="1"/>
-        <v>1.024037168498283</v>
+        <v>1.0320115613771172</v>
       </c>
     </row>
     <row r="11" spans="1:90" x14ac:dyDescent="0.15">
@@ -5669,8 +5705,14 @@
         <v>308766.93583026802</v>
       </c>
       <c r="BF11">
+        <v>59712.893633925101</v>
+      </c>
+      <c r="BG11">
+        <v>309888.11723063898</v>
+      </c>
+      <c r="BH11">
         <f t="shared" si="1"/>
-        <v>1.0798973062825576</v>
+        <v>1.003631157582842</v>
       </c>
     </row>
     <row r="12" spans="1:90" x14ac:dyDescent="0.15">
@@ -5845,8 +5887,14 @@
         <v>634066.78190121602</v>
       </c>
       <c r="BF12">
+        <v>65717.370277380294</v>
+      </c>
+      <c r="BG12">
+        <v>629828.72931255202</v>
+      </c>
+      <c r="BH12">
         <f t="shared" si="1"/>
-        <v>1.0202428152530656</v>
+        <v>0.99331607851154669</v>
       </c>
     </row>
     <row r="13" spans="1:90" x14ac:dyDescent="0.15">
@@ -6015,8 +6063,14 @@
         <v>259756.07631118101</v>
       </c>
       <c r="BF13">
+        <v>141804.45583121601</v>
+      </c>
+      <c r="BG13">
+        <v>263064.52806993999</v>
+      </c>
+      <c r="BH13">
         <f t="shared" si="1"/>
-        <v>1.1147817885932387</v>
+        <v>1.0127367636813067</v>
       </c>
     </row>
     <row r="14" spans="1:90" x14ac:dyDescent="0.15">
@@ -6188,8 +6242,14 @@
         <v>373435.48480706202</v>
       </c>
       <c r="BF14">
+        <v>138584.773807919</v>
+      </c>
+      <c r="BG14">
+        <v>370177.50621642999</v>
+      </c>
+      <c r="BH14">
         <f t="shared" si="1"/>
-        <v>1.1175885654832205</v>
+        <v>0.99127565878664348</v>
       </c>
     </row>
     <row r="15" spans="1:90" x14ac:dyDescent="0.15">
@@ -6361,8 +6421,14 @@
         <v>325215.24374884</v>
       </c>
       <c r="BF15">
+        <v>112801.97787090301</v>
+      </c>
+      <c r="BG15">
+        <v>340490.07861878199</v>
+      </c>
+      <c r="BH15">
         <f t="shared" si="1"/>
-        <v>1.0082812005407742</v>
+        <v>1.046968385288048</v>
       </c>
     </row>
     <row r="16" spans="1:90" x14ac:dyDescent="0.15">
@@ -6537,11 +6603,17 @@
         <v>918089.23420608696</v>
       </c>
       <c r="BF16">
+        <v>35412.871742454503</v>
+      </c>
+      <c r="BG16">
+        <v>918077.55738304497</v>
+      </c>
+      <c r="BH16">
         <f t="shared" si="1"/>
-        <v>1.000030529394925</v>
+        <v>0.99998728138550486</v>
       </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2">
         <v>14</v>
@@ -6710,11 +6782,17 @@
         <v>268841.81094926299</v>
       </c>
       <c r="BF17">
+        <v>134625.955617617</v>
+      </c>
+      <c r="BG17">
+        <v>263302.360409341</v>
+      </c>
+      <c r="BH17">
         <f t="shared" si="1"/>
-        <v>1.0663516948429896</v>
+        <v>0.97939513009392942</v>
       </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2">
         <v>15</v>
@@ -6883,11 +6961,17 @@
         <v>795921.70942722796</v>
       </c>
       <c r="BF18">
+        <v>20005.0938775666</v>
+      </c>
+      <c r="BG18">
+        <v>799344.00989660295</v>
+      </c>
+      <c r="BH18">
         <f t="shared" si="1"/>
-        <v>0.99709301790885485</v>
+        <v>1.0042997953552966</v>
       </c>
     </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2">
         <v>16</v>
@@ -7056,11 +7140,17 @@
         <v>283276.00800159201</v>
       </c>
       <c r="BF19">
+        <v>124937.70648826299</v>
+      </c>
+      <c r="BG19">
+        <v>291121.85645673302</v>
+      </c>
+      <c r="BH19">
         <f t="shared" si="1"/>
-        <v>1.0358445224934596</v>
+        <v>1.0276968335952295</v>
       </c>
     </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2">
         <v>17</v>
@@ -7229,11 +7319,17 @@
         <v>500260.14471520099</v>
       </c>
       <c r="BF20">
+        <v>101760.675785635</v>
+      </c>
+      <c r="BG20">
+        <v>513132.81979982898</v>
+      </c>
+      <c r="BH20">
         <f t="shared" si="1"/>
-        <v>0.9888977715517534</v>
+        <v>1.0257319621013512</v>
       </c>
     </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2">
         <v>18</v>
@@ -7399,11 +7495,17 @@
         <v>380552.960018171</v>
       </c>
       <c r="BF21">
+        <v>131616.70165736499</v>
+      </c>
+      <c r="BG21">
+        <v>387903.38983311702</v>
+      </c>
+      <c r="BH21">
         <f t="shared" si="1"/>
-        <v>1.0074440935595266</v>
+        <v>1.0193151297905949</v>
       </c>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2">
         <v>19</v>
@@ -7575,11 +7677,17 @@
         <v>474939.988049743</v>
       </c>
       <c r="BF22">
+        <v>77216.984892119799</v>
+      </c>
+      <c r="BG22">
+        <v>468945.161788853</v>
+      </c>
+      <c r="BH22">
         <f t="shared" si="1"/>
-        <v>1.0306727514104161</v>
+        <v>0.98737771842394928</v>
       </c>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2">
         <v>20</v>
@@ -7751,11 +7859,17 @@
         <v>616910.104912112</v>
       </c>
       <c r="BF23">
+        <v>53547.764588198603</v>
+      </c>
+      <c r="BG23">
+        <v>623071.19482053898</v>
+      </c>
+      <c r="BH23">
         <f t="shared" si="1"/>
-        <v>0.99108524351486504</v>
+        <v>1.0099870140874168</v>
       </c>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2">
         <v>21</v>
@@ -7924,11 +8038,17 @@
         <v>356273.89724904101</v>
       </c>
       <c r="BF24">
+        <v>104663.479607129</v>
+      </c>
+      <c r="BG24">
+        <v>368155.03069314401</v>
+      </c>
+      <c r="BH24">
         <f t="shared" si="1"/>
-        <v>1.0844273521070733</v>
+        <v>1.0333483130137875</v>
       </c>
     </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2">
         <v>22</v>
@@ -8097,11 +8217,17 @@
         <v>323678.89037349401</v>
       </c>
       <c r="BF25">
+        <v>100942.892636023</v>
+      </c>
+      <c r="BG25">
+        <v>323023.09439142398</v>
+      </c>
+      <c r="BH25">
         <f t="shared" si="1"/>
-        <v>1.0560615752811306</v>
+        <v>0.99797393033165271</v>
       </c>
     </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2">
         <v>23</v>
@@ -8273,11 +8399,17 @@
         <v>773264.556207772</v>
       </c>
       <c r="BF26">
+        <v>26207.890054949199</v>
+      </c>
+      <c r="BG26">
+        <v>773440.07324611605</v>
+      </c>
+      <c r="BH26">
         <f t="shared" si="1"/>
-        <v>1.0006184998403924</v>
+        <v>1.0002269818743599</v>
       </c>
     </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2">
         <v>24</v>
@@ -8446,11 +8578,17 @@
         <v>291433.39609095501</v>
       </c>
       <c r="BF27">
+        <v>148752.31440326001</v>
+      </c>
+      <c r="BG27">
+        <v>314014.40186810901</v>
+      </c>
+      <c r="BH27">
         <f t="shared" si="1"/>
-        <v>1.024496257361212</v>
+        <v>1.0774825606126024</v>
       </c>
     </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2">
         <v>25</v>
@@ -8610,11 +8748,17 @@
         <v>291686.89878958301</v>
       </c>
       <c r="BF28">
+        <v>126983.18745743801</v>
+      </c>
+      <c r="BG28">
+        <v>306925.71350976097</v>
+      </c>
+      <c r="BH28">
         <f t="shared" si="1"/>
-        <v>0.99468661347237364</v>
+        <v>1.0522437407487779</v>
       </c>
     </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2">
         <v>26</v>
@@ -8786,11 +8930,17 @@
         <v>354870.61653956398</v>
       </c>
       <c r="BF29">
+        <v>124485.778432494</v>
+      </c>
+      <c r="BG29">
+        <v>376306.52455402602</v>
+      </c>
+      <c r="BH29">
         <f t="shared" si="1"/>
-        <v>1.038233970306685</v>
+        <v>1.0604048546579854</v>
       </c>
     </row>
-    <row r="30" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2">
         <v>27</v>
@@ -8959,11 +9109,17 @@
         <v>405467.44911231101</v>
       </c>
       <c r="BF30">
+        <v>91057.968100086393</v>
+      </c>
+      <c r="BG30">
+        <v>417765.63035001099</v>
+      </c>
+      <c r="BH30">
         <f t="shared" si="1"/>
-        <v>1.0378563965334799</v>
+        <v>1.0303308718483428</v>
       </c>
     </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2">
         <v>28</v>
@@ -9132,11 +9288,17 @@
         <v>495655.85498908599</v>
       </c>
       <c r="BF31">
+        <v>123808.595951476</v>
+      </c>
+      <c r="BG31">
+        <v>502194.82211324002</v>
+      </c>
+      <c r="BH31">
         <f t="shared" si="1"/>
-        <v>1.0312832153265525</v>
+        <v>1.0131925549922094</v>
       </c>
     </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2">
         <v>29</v>
@@ -9308,11 +9470,17 @@
         <v>915494.96871621395</v>
       </c>
       <c r="BF32">
+        <v>51261.328983924897</v>
+      </c>
+      <c r="BG32">
+        <v>918666.98299260496</v>
+      </c>
+      <c r="BH32">
         <f t="shared" si="1"/>
-        <v>0.99767202648388886</v>
+        <v>1.0034648079834225</v>
       </c>
     </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2">
         <v>30</v>
@@ -9484,11 +9652,17 @@
         <v>791144.18926655303</v>
       </c>
       <c r="BF33">
+        <v>26457.0759554375</v>
+      </c>
+      <c r="BG33">
+        <v>791207.94226165698</v>
+      </c>
+      <c r="BH33">
         <f t="shared" si="1"/>
-        <v>0.9997278198031071</v>
+        <v>1.0000805832817441</v>
       </c>
     </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2">
         <v>31</v>
@@ -9657,11 +9831,17 @@
         <v>351061.63419942098</v>
       </c>
       <c r="BF34">
+        <v>88279.215832221802</v>
+      </c>
+      <c r="BG34">
+        <v>367985.08754230902</v>
+      </c>
+      <c r="BH34">
         <f t="shared" si="1"/>
-        <v>0.99473588837642668</v>
+        <v>1.048206501919474</v>
       </c>
     </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2">
         <v>32</v>
@@ -9833,11 +10013,17 @@
         <v>510227.3791128</v>
       </c>
       <c r="BF35">
+        <v>67734.995475574397</v>
+      </c>
+      <c r="BG35">
+        <v>514171.34811210202</v>
+      </c>
+      <c r="BH35">
         <f t="shared" si="1"/>
-        <v>0.99769984045341242</v>
+        <v>1.0077298262711027</v>
       </c>
     </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="B36" s="2">
         <v>33</v>
@@ -10009,11 +10195,17 @@
         <v>517556.13266472099</v>
       </c>
       <c r="BF36">
+        <v>118245.693358246</v>
+      </c>
+      <c r="BG36">
+        <v>523385.40066974499</v>
+      </c>
+      <c r="BH36">
         <f t="shared" si="1"/>
-        <v>0.98079407392980522</v>
+        <v>1.011263064307655</v>
       </c>
     </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="2">
         <v>34</v>
@@ -10182,11 +10374,17 @@
         <v>304831.18170025299</v>
       </c>
       <c r="BF37">
+        <v>105900.544290579</v>
+      </c>
+      <c r="BG37">
+        <v>327677.06933843001</v>
+      </c>
+      <c r="BH37">
         <f t="shared" si="1"/>
-        <v>0.99236225741947792</v>
+        <v>1.0749460324588509</v>
       </c>
     </row>
-    <row r="38" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
       <c r="B38" s="2">
         <v>35</v>
@@ -10358,11 +10556,17 @@
         <v>550935.43698201096</v>
       </c>
       <c r="BF38">
+        <v>44176.923398182298</v>
+      </c>
+      <c r="BG38">
+        <v>556931.83220764901</v>
+      </c>
+      <c r="BH38">
         <f t="shared" si="1"/>
-        <v>0.99682219435205954</v>
+        <v>1.0108840252834088</v>
       </c>
     </row>
-    <row r="39" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="2">
         <v>36</v>
@@ -10528,11 +10732,17 @@
         <v>318131.63610790798</v>
       </c>
       <c r="BF39">
+        <v>190904.33157723601</v>
+      </c>
+      <c r="BG39">
+        <v>336950.783837497</v>
+      </c>
+      <c r="BH39">
         <f t="shared" si="1"/>
-        <v>1.0962137846329196</v>
+        <v>1.0591552225356353</v>
       </c>
     </row>
-    <row r="40" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="B40" s="2">
         <v>37</v>
@@ -10704,11 +10914,17 @@
         <v>708875.45604958199</v>
       </c>
       <c r="BF40">
+        <v>89287.469181311404</v>
+      </c>
+      <c r="BG40">
+        <v>672553.33119546203</v>
+      </c>
+      <c r="BH40">
         <f t="shared" si="1"/>
-        <v>1.0115885341398745</v>
+        <v>0.94876092190222561</v>
       </c>
     </row>
-    <row r="41" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
       <c r="B41" s="2">
         <v>38</v>
@@ -10880,11 +11096,17 @@
         <v>627107.32591864595</v>
       </c>
       <c r="BF41">
+        <v>49385.796872286897</v>
+      </c>
+      <c r="BG41">
+        <v>629683.42504269397</v>
+      </c>
+      <c r="BH41">
         <f t="shared" si="1"/>
-        <v>1.0041184915185517</v>
+        <v>1.004107907877291</v>
       </c>
     </row>
-    <row r="42" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
       <c r="B42" s="2">
         <v>39</v>
@@ -11056,11 +11278,17 @@
         <v>470843.41739421902</v>
       </c>
       <c r="BF42">
+        <v>40406.654638261898</v>
+      </c>
+      <c r="BG42">
+        <v>475784.62679627602</v>
+      </c>
+      <c r="BH42">
         <f t="shared" si="1"/>
-        <v>0.99768136084384662</v>
+        <v>1.010494379276667</v>
       </c>
     </row>
-    <row r="43" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
       <c r="B43" s="2">
         <v>40</v>
@@ -11232,11 +11460,17 @@
         <v>757109.500611417</v>
       </c>
       <c r="BF43">
+        <v>37873.4044309378</v>
+      </c>
+      <c r="BG43">
+        <v>757330.27035324997</v>
+      </c>
+      <c r="BH43">
         <f t="shared" si="1"/>
-        <v>1.0000313322556509</v>
+        <v>1.0002915955243656</v>
       </c>
     </row>
-    <row r="44" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="B44" s="2">
         <v>41</v>
@@ -11408,11 +11642,17 @@
         <v>965822.42061180295</v>
       </c>
       <c r="BF44">
+        <v>27854.282322889401</v>
+      </c>
+      <c r="BG44">
+        <v>965821.67761115695</v>
+      </c>
+      <c r="BH44">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.99999923070677366</v>
       </c>
     </row>
-    <row r="45" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="2">
         <v>42</v>
@@ -11581,11 +11821,17 @@
         <v>286682.44839131198</v>
       </c>
       <c r="BF45">
+        <v>143781.64154268999</v>
+      </c>
+      <c r="BG45">
+        <v>302450.39830830798</v>
+      </c>
+      <c r="BH45">
         <f t="shared" si="1"/>
-        <v>0.98313731540466476</v>
+        <v>1.0550014484858636</v>
       </c>
     </row>
-    <row r="46" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
       <c r="B46" s="2">
         <v>43</v>
@@ -11754,11 +12000,17 @@
         <v>394037.692764626</v>
       </c>
       <c r="BF46">
+        <v>66144.841452021894</v>
+      </c>
+      <c r="BG46">
+        <v>395588.11464827502</v>
+      </c>
+      <c r="BH46">
         <f t="shared" si="1"/>
-        <v>0.97244519777802152</v>
+        <v>1.0039347045019247</v>
       </c>
     </row>
-    <row r="47" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
       <c r="B47" s="2">
         <v>44</v>
@@ -11927,11 +12179,17 @@
         <v>540770.97999710904</v>
       </c>
       <c r="BF47">
+        <v>79880.151244188499</v>
+      </c>
+      <c r="BG47">
+        <v>546770.97719827399</v>
+      </c>
+      <c r="BH47">
         <f t="shared" si="1"/>
-        <v>1.0133985487748951</v>
+        <v>1.011095264766606</v>
       </c>
     </row>
-    <row r="48" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="2">
         <v>45</v>
@@ -12103,11 +12361,17 @@
         <v>912160.98057776096</v>
       </c>
       <c r="BF48">
+        <v>52953.793218624203</v>
+      </c>
+      <c r="BG48">
+        <v>912245.758525118</v>
+      </c>
+      <c r="BH48">
         <f t="shared" si="1"/>
-        <v>0.99998167624621503</v>
+        <v>1.000092941870089</v>
       </c>
     </row>
-    <row r="49" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="B49" s="2">
         <v>46</v>
@@ -12279,11 +12543,17 @@
         <v>657362.48813268903</v>
       </c>
       <c r="BF49">
+        <v>95703.042735301395</v>
+      </c>
+      <c r="BG49">
+        <v>660391.96832492598</v>
+      </c>
+      <c r="BH49">
         <f t="shared" si="1"/>
-        <v>0.99387482054856646</v>
+        <v>1.0046085382828012</v>
       </c>
     </row>
-    <row r="50" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
       <c r="B50" s="2">
         <v>47</v>
@@ -12455,11 +12725,17 @@
         <v>606243.50804471504</v>
       </c>
       <c r="BF50">
+        <v>94509.738046830302</v>
+      </c>
+      <c r="BG50">
+        <v>614860.74286079803</v>
+      </c>
+      <c r="BH50">
         <f t="shared" si="1"/>
-        <v>1.0056462302861706</v>
+        <v>1.0142141477834141</v>
       </c>
     </row>
-    <row r="51" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
       <c r="B51" s="2">
         <v>48</v>
@@ -12628,11 +12904,17 @@
         <v>487264.59777825099</v>
       </c>
       <c r="BF51">
+        <v>34984.973686318801</v>
+      </c>
+      <c r="BG51">
+        <v>498853.77739380498</v>
+      </c>
+      <c r="BH51">
         <f t="shared" si="1"/>
-        <v>0.9994657089504555</v>
+        <v>1.0237841609433487</v>
       </c>
     </row>
-    <row r="52" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="2">
         <v>49</v>
@@ -12804,11 +13086,17 @@
         <v>651187.28713913599</v>
       </c>
       <c r="BF52">
+        <v>132832.32529965899</v>
+      </c>
+      <c r="BG52">
+        <v>656884.12562004896</v>
+      </c>
+      <c r="BH52">
         <f t="shared" si="1"/>
-        <v>1.0099918945600881</v>
+        <v>1.0087483871282883</v>
       </c>
     </row>
-    <row r="53" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="B53" s="2">
         <v>50</v>
@@ -12980,11 +13268,17 @@
         <v>537158.52030926396</v>
       </c>
       <c r="BF53">
+        <v>110508.376817697</v>
+      </c>
+      <c r="BG53">
+        <v>524842.858599431</v>
+      </c>
+      <c r="BH53">
         <f t="shared" si="1"/>
-        <v>1.0153580932584014</v>
+        <v>0.97707257495842692</v>
       </c>
     </row>
-    <row r="54" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="B54" s="2">
         <v>51</v>
@@ -13153,11 +13447,17 @@
         <v>440858.81911406299</v>
       </c>
       <c r="BF54">
+        <v>137685.97803964501</v>
+      </c>
+      <c r="BG54">
+        <v>454806.42457064998</v>
+      </c>
+      <c r="BH54">
         <f t="shared" si="1"/>
-        <v>1.0428894760985965</v>
+        <v>1.0316373515780306</v>
       </c>
     </row>
-    <row r="55" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
       <c r="B55" s="2">
         <v>52</v>
@@ -13329,11 +13629,17 @@
         <v>543116.31456061895</v>
       </c>
       <c r="BF55">
+        <v>61505.705015792097</v>
+      </c>
+      <c r="BG55">
+        <v>541929.41098194697</v>
+      </c>
+      <c r="BH55">
         <f t="shared" si="1"/>
-        <v>0.99892983429858462</v>
+        <v>0.99781464200788705</v>
       </c>
     </row>
-    <row r="56" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A56" s="2"/>
       <c r="B56" s="2">
         <v>53</v>
@@ -13502,11 +13808,17 @@
         <v>286407.83574384998</v>
       </c>
       <c r="BF56">
+        <v>93149.224934189202</v>
+      </c>
+      <c r="BG56">
+        <v>301995.74951980298</v>
+      </c>
+      <c r="BH56">
         <f t="shared" si="1"/>
-        <v>1.0088479324252688</v>
+        <v>1.0544255841865098</v>
       </c>
     </row>
-    <row r="57" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A57" s="2"/>
       <c r="B57" s="2">
         <v>54</v>
@@ -13675,11 +13987,17 @@
         <v>377625.69084833702</v>
       </c>
       <c r="BF57">
+        <v>126848.168845355</v>
+      </c>
+      <c r="BG57">
+        <v>382215.98355105601</v>
+      </c>
+      <c r="BH57">
         <f t="shared" si="1"/>
-        <v>1.0287045785682294</v>
+        <v>1.0121556684673834</v>
       </c>
     </row>
-    <row r="58" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
       <c r="B58" s="2">
         <v>55</v>
@@ -13848,11 +14166,17 @@
         <v>372363.46344674501</v>
       </c>
       <c r="BF58">
+        <v>162290.99479597501</v>
+      </c>
+      <c r="BG58">
+        <v>380981.00098125997</v>
+      </c>
+      <c r="BH58">
         <f t="shared" si="1"/>
-        <v>1.0348931688681422</v>
+        <v>1.0231428117429879</v>
       </c>
     </row>
-    <row r="59" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A59" s="2"/>
       <c r="B59" s="2">
         <v>56</v>
@@ -14021,11 +14345,17 @@
         <v>559395.29599991895</v>
       </c>
       <c r="BF59">
+        <v>88432.775740215802</v>
+      </c>
+      <c r="BG59">
+        <v>561931.50032104598</v>
+      </c>
+      <c r="BH59">
         <f t="shared" si="1"/>
-        <v>1.007703528064726</v>
+        <v>1.0045338320491122</v>
       </c>
     </row>
-    <row r="60" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A60" s="2"/>
       <c r="B60" s="2">
         <v>57</v>
@@ -14194,11 +14524,17 @@
         <v>407868.06921179598</v>
       </c>
       <c r="BF60">
+        <v>138517.86493861699</v>
+      </c>
+      <c r="BG60">
+        <v>402702.82629687001</v>
+      </c>
+      <c r="BH60">
         <f t="shared" si="1"/>
-        <v>1.040668601413582</v>
+        <v>0.98733599586526155</v>
       </c>
     </row>
-    <row r="61" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A61" s="2"/>
       <c r="B61" s="2">
         <v>58</v>
@@ -14367,11 +14703,17 @@
         <v>645443.84510701499</v>
       </c>
       <c r="BF61">
+        <v>91792.670581524595</v>
+      </c>
+      <c r="BG61">
+        <v>657777.56734894402</v>
+      </c>
+      <c r="BH61">
         <f t="shared" si="1"/>
-        <v>1.0048783148282443</v>
+        <v>1.019108900542516</v>
       </c>
     </row>
-    <row r="62" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A62" s="2"/>
       <c r="B62" s="2">
         <v>59</v>
@@ -14543,11 +14885,17 @@
         <v>809712.66849635204</v>
       </c>
       <c r="BF62">
+        <v>8790.4053690128603</v>
+      </c>
+      <c r="BG62">
+        <v>796027.11119898199</v>
+      </c>
+      <c r="BH62">
         <f t="shared" si="1"/>
-        <v>1.0001032196548847</v>
+        <v>0.98309825468979717</v>
       </c>
     </row>
-    <row r="63" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A63" s="2"/>
       <c r="B63" s="2">
         <v>60</v>
@@ -14716,11 +15064,17 @@
         <v>530856.666707378</v>
       </c>
       <c r="BF63">
+        <v>40249.270020024604</v>
+      </c>
+      <c r="BG63">
+        <v>542263.37707511301</v>
+      </c>
+      <c r="BH63">
         <f t="shared" si="1"/>
-        <v>1.0023238729286534</v>
+        <v>1.0214873638838988</v>
       </c>
     </row>
-    <row r="64" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
       <c r="B64" s="2">
         <v>61</v>
@@ -14889,11 +15243,17 @@
         <v>547582.77268060099</v>
       </c>
       <c r="BF64">
+        <v>66909.404206171705</v>
+      </c>
+      <c r="BG64">
+        <v>543780.19403448701</v>
+      </c>
+      <c r="BH64">
         <f t="shared" si="1"/>
-        <v>1.00028547477033</v>
+        <v>0.99305570073452254</v>
       </c>
     </row>
-    <row r="65" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A65" s="2"/>
       <c r="B65" s="2">
         <v>62</v>
@@ -15065,11 +15425,17 @@
         <v>922831.79754710698</v>
       </c>
       <c r="BF65">
+        <v>62649.488748371601</v>
+      </c>
+      <c r="BG65">
+        <v>912537.38765863003</v>
+      </c>
+      <c r="BH65">
         <f t="shared" si="1"/>
-        <v>1.000570290037559</v>
+        <v>0.98884476031727608</v>
       </c>
     </row>
-    <row r="66" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A66" s="2"/>
       <c r="B66" s="2">
         <v>63</v>
@@ -15241,11 +15607,17 @@
         <v>539594.16448256897</v>
       </c>
       <c r="BF66">
+        <v>120886.040957673</v>
+      </c>
+      <c r="BG66">
+        <v>528761.76613143797</v>
+      </c>
+      <c r="BH66">
         <f t="shared" si="1"/>
-        <v>1.0224312275814063</v>
+        <v>0.97992491567895568</v>
       </c>
     </row>
-    <row r="67" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
       <c r="B67" s="2">
         <v>64</v>
@@ -15414,11 +15786,17 @@
         <v>314065.54461384402</v>
       </c>
       <c r="BF67">
+        <v>54997.3707708519</v>
+      </c>
+      <c r="BG67">
+        <v>329499.74645100802</v>
+      </c>
+      <c r="BH67">
         <f t="shared" si="1"/>
-        <v>1.0539178725032883</v>
+        <v>1.0491432508336467</v>
       </c>
     </row>
-    <row r="68" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
       <c r="B68" s="2">
         <v>65</v>
@@ -15587,11 +15965,17 @@
         <v>672849.15397657105</v>
       </c>
       <c r="BF68">
+        <v>82801.634772783495</v>
+      </c>
+      <c r="BG68">
+        <v>681448.340613854</v>
+      </c>
+      <c r="BH68">
         <f t="shared" si="1"/>
-        <v>0.99636443526068008</v>
+        <v>1.0127802592697952</v>
       </c>
     </row>
-    <row r="69" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
       <c r="B69" s="2">
         <v>66</v>
@@ -15760,11 +16144,17 @@
         <v>362011.11340889003</v>
       </c>
       <c r="BF69">
-        <f t="shared" ref="BF69:BF103" si="3">BE69/BC69</f>
-        <v>1.0031783450252327</v>
+        <v>80780.361188169496</v>
+      </c>
+      <c r="BG69">
+        <v>376254.98722646298</v>
+      </c>
+      <c r="BH69">
+        <f t="shared" ref="BH69:BH103" si="3">BG69/BE69</f>
+        <v>1.0393465097892853</v>
       </c>
     </row>
-    <row r="70" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
       <c r="B70" s="2">
         <v>67</v>
@@ -15933,11 +16323,17 @@
         <v>615105.51457181503</v>
       </c>
       <c r="BF70">
+        <v>71546.992379395306</v>
+      </c>
+      <c r="BG70">
+        <v>618870.18064298201</v>
+      </c>
+      <c r="BH70">
         <f t="shared" si="3"/>
-        <v>0.99321933244754734</v>
+        <v>1.0061203581856808</v>
       </c>
     </row>
-    <row r="71" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A71" s="2"/>
       <c r="B71" s="2">
         <v>68</v>
@@ -16109,11 +16505,17 @@
         <v>588913.12446645403</v>
       </c>
       <c r="BF71">
+        <v>35693.644241558402</v>
+      </c>
+      <c r="BG71">
+        <v>598864.11590403295</v>
+      </c>
+      <c r="BH71">
         <f t="shared" si="3"/>
-        <v>1.011567307925314</v>
+        <v>1.0168972145876258</v>
       </c>
     </row>
-    <row r="72" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A72" s="2"/>
       <c r="B72" s="2">
         <v>69</v>
@@ -16279,11 +16681,17 @@
         <v>453416.245542444</v>
       </c>
       <c r="BF72">
+        <v>42295.550309754202</v>
+      </c>
+      <c r="BG72">
+        <v>452286.81998532201</v>
+      </c>
+      <c r="BH72">
         <f t="shared" si="3"/>
-        <v>1.0442359810305339</v>
+        <v>0.99750907567114011</v>
       </c>
     </row>
-    <row r="73" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A73" s="2"/>
       <c r="B73" s="2">
         <v>70</v>
@@ -16455,11 +16863,17 @@
         <v>614023.58100173005</v>
       </c>
       <c r="BF73">
+        <v>23329.789375116699</v>
+      </c>
+      <c r="BG73">
+        <v>617258.32880399295</v>
+      </c>
+      <c r="BH73">
         <f t="shared" si="3"/>
-        <v>1.00190757324997</v>
+        <v>1.0052681165713304</v>
       </c>
     </row>
-    <row r="74" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A74" s="2"/>
       <c r="B74" s="2">
         <v>71</v>
@@ -16631,11 +17045,17 @@
         <v>865674.69337791495</v>
       </c>
       <c r="BF74">
+        <v>29714.037373634201</v>
+      </c>
+      <c r="BG74">
+        <v>865551.76444419799</v>
+      </c>
+      <c r="BH74">
         <f t="shared" si="3"/>
-        <v>1.0002322776384192</v>
+        <v>0.9998579963874914</v>
       </c>
     </row>
-    <row r="75" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A75" s="2"/>
       <c r="B75" s="2">
         <v>72</v>
@@ -16807,11 +17227,17 @@
         <v>771379.16890661896</v>
       </c>
       <c r="BF75">
+        <v>10017.445152689699</v>
+      </c>
+      <c r="BG75">
+        <v>771472.30945151101</v>
+      </c>
+      <c r="BH75">
         <f t="shared" si="3"/>
-        <v>1.0000598434887986</v>
+        <v>1.0001207454759558</v>
       </c>
     </row>
-    <row r="76" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A76" s="2"/>
       <c r="B76" s="2">
         <v>73</v>
@@ -16983,11 +17409,17 @@
         <v>481395.86049250502</v>
       </c>
       <c r="BF76">
+        <v>65470.926640317601</v>
+      </c>
+      <c r="BG76">
+        <v>495068.68696511601</v>
+      </c>
+      <c r="BH76">
         <f t="shared" si="3"/>
-        <v>0.99513022170527865</v>
+        <v>1.028402459586218</v>
       </c>
     </row>
-    <row r="77" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A77" s="2"/>
       <c r="B77" s="2">
         <v>74</v>
@@ -17153,11 +17585,17 @@
         <v>248529.96011833299</v>
       </c>
       <c r="BF77">
+        <v>173267.16798383699</v>
+      </c>
+      <c r="BG77">
+        <v>275048.91665654699</v>
+      </c>
+      <c r="BH77">
         <f t="shared" si="3"/>
-        <v>1.0282953876874625</v>
+        <v>1.1067032583338745</v>
       </c>
     </row>
-    <row r="78" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A78" s="2"/>
       <c r="B78" s="2">
         <v>75</v>
@@ -17326,11 +17764,17 @@
         <v>561816.023193161</v>
       </c>
       <c r="BF78">
+        <v>24678.0178822321</v>
+      </c>
+      <c r="BG78">
+        <v>564147.21854256804</v>
+      </c>
+      <c r="BH78">
         <f t="shared" si="3"/>
-        <v>1.0078929584194627</v>
+        <v>1.0041493927783642</v>
       </c>
     </row>
-    <row r="79" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A79" s="2"/>
       <c r="B79" s="2">
         <v>76</v>
@@ -17499,11 +17943,17 @@
         <v>328686.94035190099</v>
       </c>
       <c r="BF79">
+        <v>68788.122769962196</v>
+      </c>
+      <c r="BG79">
+        <v>343438.81277162902</v>
+      </c>
+      <c r="BH79">
         <f t="shared" si="3"/>
-        <v>1.06951790650084</v>
+        <v>1.0448812246812553</v>
       </c>
     </row>
-    <row r="80" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A80" s="2"/>
       <c r="B80" s="2">
         <v>77</v>
@@ -17669,11 +18119,17 @@
         <v>257224.56437135499</v>
       </c>
       <c r="BF80">
+        <v>140125.941329377</v>
+      </c>
+      <c r="BG80">
+        <v>265371.49594842998</v>
+      </c>
+      <c r="BH80">
         <f t="shared" si="3"/>
-        <v>1.0346868329648762</v>
+        <v>1.0316724477578014</v>
       </c>
     </row>
-    <row r="81" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A81" s="2"/>
       <c r="B81" s="2">
         <v>78</v>
@@ -17845,11 +18301,17 @@
         <v>479669.761130545</v>
       </c>
       <c r="BF81">
+        <v>40846.710419248499</v>
+      </c>
+      <c r="BG81">
+        <v>465745.530411813</v>
+      </c>
+      <c r="BH81">
         <f t="shared" si="3"/>
-        <v>1.0107400614368913</v>
+        <v>0.97097121426642852</v>
       </c>
     </row>
-    <row r="82" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A82" s="2"/>
       <c r="B82" s="2">
         <v>79</v>
@@ -18018,11 +18480,17 @@
         <v>370171.26246149698</v>
       </c>
       <c r="BF82">
+        <v>171568.442936498</v>
+      </c>
+      <c r="BG82">
+        <v>378583.841203416</v>
+      </c>
+      <c r="BH82">
         <f t="shared" si="3"/>
-        <v>1.0899071433771828</v>
+        <v>1.0227261800010583</v>
       </c>
     </row>
-    <row r="83" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A83" s="2"/>
       <c r="B83" s="2">
         <v>80</v>
@@ -18194,11 +18662,17 @@
         <v>434863.40989164001</v>
       </c>
       <c r="BF83">
+        <v>86059.821728908501</v>
+      </c>
+      <c r="BG83">
+        <v>465658.85805367498</v>
+      </c>
+      <c r="BH83">
         <f t="shared" si="3"/>
-        <v>1.0305731257791626</v>
+        <v>1.0708163700636681</v>
       </c>
     </row>
-    <row r="84" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A84" s="2"/>
       <c r="B84" s="2">
         <v>81</v>
@@ -18367,11 +18841,17 @@
         <v>582005.37409697298</v>
       </c>
       <c r="BF84">
+        <v>86059.645899490206</v>
+      </c>
+      <c r="BG84">
+        <v>584085.85280686698</v>
+      </c>
+      <c r="BH84">
         <f t="shared" si="3"/>
-        <v>1.0086114718844048</v>
+        <v>1.0035746726791346</v>
       </c>
     </row>
-    <row r="85" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A85" s="2"/>
       <c r="B85" s="2">
         <v>82</v>
@@ -18543,11 +19023,17 @@
         <v>425013.30195804202</v>
       </c>
       <c r="BF85">
+        <v>152210.45468331501</v>
+      </c>
+      <c r="BG85">
+        <v>454195.422014702</v>
+      </c>
+      <c r="BH85">
         <f t="shared" si="3"/>
-        <v>1.0163316918977827</v>
+        <v>1.0686616628755325</v>
       </c>
     </row>
-    <row r="86" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A86" s="2"/>
       <c r="B86" s="2">
         <v>83</v>
@@ -18719,11 +19205,17 @@
         <v>713895.29327217501</v>
       </c>
       <c r="BF86">
+        <v>58853.780268004703</v>
+      </c>
+      <c r="BG86">
+        <v>716074.767000644</v>
+      </c>
+      <c r="BH86">
         <f t="shared" si="3"/>
-        <v>0.99670473445157559</v>
+        <v>1.0030529319201409</v>
       </c>
     </row>
-    <row r="87" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A87" s="2"/>
       <c r="B87" s="2">
         <v>84</v>
@@ -18895,11 +19387,17 @@
         <v>945450.06318858196</v>
       </c>
       <c r="BF87">
+        <v>5315.0502329831997</v>
+      </c>
+      <c r="BG87">
+        <v>945459.15285614401</v>
+      </c>
+      <c r="BH87">
         <f t="shared" si="3"/>
-        <v>0.99999707842219643</v>
+        <v>1.0000096141170389</v>
       </c>
     </row>
-    <row r="88" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A88" s="2"/>
       <c r="B88" s="2">
         <v>85</v>
@@ -19071,11 +19569,17 @@
         <v>633278.03123384796</v>
       </c>
       <c r="BF88">
+        <v>47547.750026904199</v>
+      </c>
+      <c r="BG88">
+        <v>643231.98434426903</v>
+      </c>
+      <c r="BH88">
         <f t="shared" si="3"/>
-        <v>1.0106115461519192</v>
+        <v>1.0157181405630435</v>
       </c>
     </row>
-    <row r="89" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A89" s="2"/>
       <c r="B89" s="2">
         <v>86</v>
@@ -19241,11 +19745,17 @@
         <v>556209.22036334604</v>
       </c>
       <c r="BF89">
+        <v>151929.64923448599</v>
+      </c>
+      <c r="BG89">
+        <v>566787.809034231</v>
+      </c>
+      <c r="BH89">
         <f t="shared" si="3"/>
-        <v>1.0238483826567808</v>
+        <v>1.0190190818195615</v>
       </c>
     </row>
-    <row r="90" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A90" s="2"/>
       <c r="B90" s="2">
         <v>87</v>
@@ -19417,11 +19927,17 @@
         <v>400834.25201483001</v>
       </c>
       <c r="BF90">
+        <v>73390.331323035105</v>
+      </c>
+      <c r="BG90">
+        <v>427347.50258894498</v>
+      </c>
+      <c r="BH90">
         <f t="shared" si="3"/>
-        <v>1.0031577908294678</v>
+        <v>1.066145172077595</v>
       </c>
     </row>
-    <row r="91" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A91" s="2"/>
       <c r="B91" s="2">
         <v>88</v>
@@ -19593,11 +20109,17 @@
         <v>467955.24032886297</v>
       </c>
       <c r="BF91">
+        <v>109508.17314522401</v>
+      </c>
+      <c r="BG91">
+        <v>475031.95591737301</v>
+      </c>
+      <c r="BH91">
         <f t="shared" si="3"/>
-        <v>0.98600723471100427</v>
+        <v>1.0151226334884866</v>
       </c>
     </row>
-    <row r="92" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A92" s="2"/>
       <c r="B92" s="2">
         <v>89</v>
@@ -19766,11 +20288,17 @@
         <v>392797.03766830103</v>
       </c>
       <c r="BF92">
+        <v>47609.946929689497</v>
+      </c>
+      <c r="BG92">
+        <v>404806.30522044702</v>
+      </c>
+      <c r="BH92">
         <f t="shared" si="3"/>
-        <v>1.0386424369947231</v>
+        <v>1.0305737223056333</v>
       </c>
     </row>
-    <row r="93" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A93" s="2"/>
       <c r="B93" s="2">
         <v>90</v>
@@ -19942,11 +20470,17 @@
         <v>525644.09040820098</v>
       </c>
       <c r="BF93">
+        <v>105531.62668068201</v>
+      </c>
+      <c r="BG93">
+        <v>536519.88793126296</v>
+      </c>
+      <c r="BH93">
         <f t="shared" si="3"/>
-        <v>1.0232581651513524</v>
+        <v>1.0206904209930643</v>
       </c>
     </row>
-    <row r="94" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A94" s="2"/>
       <c r="B94" s="2">
         <v>91</v>
@@ -20115,11 +20649,17 @@
         <v>541567.52293663204</v>
       </c>
       <c r="BF94">
+        <v>107732.558594706</v>
+      </c>
+      <c r="BG94">
+        <v>550340.28102892602</v>
+      </c>
+      <c r="BH94">
         <f t="shared" si="3"/>
-        <v>0.9998800573900879</v>
+        <v>1.0161988260387624</v>
       </c>
     </row>
-    <row r="95" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A95" s="2"/>
       <c r="B95" s="2">
         <v>92</v>
@@ -20288,11 +20828,17 @@
         <v>303757.451284996</v>
       </c>
       <c r="BF95">
+        <v>104646.284598486</v>
+      </c>
+      <c r="BG95">
+        <v>315671.16763851698</v>
+      </c>
+      <c r="BH95">
         <f t="shared" si="3"/>
-        <v>1.0927283679164967</v>
+        <v>1.0392211493187145</v>
       </c>
     </row>
-    <row r="96" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A96" s="2"/>
       <c r="B96" s="2">
         <v>93</v>
@@ -20464,11 +21010,17 @@
         <v>463771.15197065799</v>
       </c>
       <c r="BF96">
+        <v>98272.193395275201</v>
+      </c>
+      <c r="BG96">
+        <v>460254.91656681098</v>
+      </c>
+      <c r="BH96">
         <f t="shared" si="3"/>
-        <v>1.0198094042159611</v>
+        <v>0.99241816704444463</v>
       </c>
     </row>
-    <row r="97" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A97" s="2"/>
       <c r="B97" s="2">
         <v>94</v>
@@ -20631,11 +21183,17 @@
         <v>236201.91667986001</v>
       </c>
       <c r="BF97">
+        <v>172549.21926286499</v>
+      </c>
+      <c r="BG97">
+        <v>252004.293535187</v>
+      </c>
+      <c r="BH97">
         <f t="shared" si="3"/>
-        <v>1.0631717664582676</v>
+        <v>1.0669019840204981</v>
       </c>
     </row>
-    <row r="98" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A98" s="2"/>
       <c r="B98" s="2">
         <v>95</v>
@@ -20804,11 +21362,17 @@
         <v>443408.41548721201</v>
       </c>
       <c r="BF98">
+        <v>167720.21885642401</v>
+      </c>
+      <c r="BG98">
+        <v>443997.90329092898</v>
+      </c>
+      <c r="BH98">
         <f t="shared" si="3"/>
-        <v>1.0033903942518032</v>
+        <v>1.0013294465849711</v>
       </c>
     </row>
-    <row r="99" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A99" s="2"/>
       <c r="B99" s="2">
         <v>96</v>
@@ -20980,11 +21544,17 @@
         <v>593516.142487637</v>
       </c>
       <c r="BF99">
+        <v>83772.416141670197</v>
+      </c>
+      <c r="BG99">
+        <v>599884.48136365705</v>
+      </c>
+      <c r="BH99">
         <f t="shared" si="3"/>
-        <v>0.99294366173811821</v>
+        <v>1.0107298494853536</v>
       </c>
     </row>
-    <row r="100" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A100" s="2"/>
       <c r="B100" s="2">
         <v>97</v>
@@ -21150,11 +21720,17 @@
         <v>325166.92675407999</v>
       </c>
       <c r="BF100">
+        <v>64362.672340769401</v>
+      </c>
+      <c r="BG100">
+        <v>345354.551503291</v>
+      </c>
+      <c r="BH100">
         <f t="shared" si="3"/>
-        <v>1.0086226254380104</v>
+        <v>1.0620838808876731</v>
       </c>
     </row>
-    <row r="101" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A101" s="2"/>
       <c r="B101" s="2">
         <v>98</v>
@@ -21326,11 +21902,17 @@
         <v>723300.74001712305</v>
       </c>
       <c r="BF101">
+        <v>127411.480665472</v>
+      </c>
+      <c r="BG101">
+        <v>726168.87094532303</v>
+      </c>
+      <c r="BH101">
         <f t="shared" si="3"/>
-        <v>0.99958211074768955</v>
+        <v>1.0039653366428631</v>
       </c>
     </row>
-    <row r="102" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A102" s="2"/>
       <c r="B102" s="2">
         <v>99</v>
@@ -21502,11 +22084,17 @@
         <v>694566.65994417202</v>
       </c>
       <c r="BF102">
+        <v>108146.19258464299</v>
+      </c>
+      <c r="BG102">
+        <v>694265.40748938103</v>
+      </c>
+      <c r="BH102">
         <f t="shared" si="3"/>
-        <v>1.0056813817663406</v>
+        <v>0.99956627279689003</v>
       </c>
     </row>
-    <row r="103" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A103" s="2"/>
       <c r="B103" s="2">
         <v>100</v>
@@ -21672,8 +22260,14 @@
         <v>304533.93897931802</v>
       </c>
       <c r="BF103">
+        <v>101801.19579351399</v>
+      </c>
+      <c r="BG103">
+        <v>320553.77348636399</v>
+      </c>
+      <c r="BH103">
         <f t="shared" si="3"/>
-        <v>1.0086100377794054</v>
+        <v>1.0526044307597977</v>
       </c>
     </row>
   </sheetData>
